--- a/ontology_cip_2015_10_26_short.xlsx
+++ b/ontology_cip_2015_10_26_short.xlsx
@@ -2725,18 +2725,12 @@
     <t>SHI= (NOPH / NOPS)</t>
   </si>
   <si>
-    <t>PltHrv_Ct_plot</t>
-  </si>
-  <si>
     <t>SHI</t>
   </si>
   <si>
     <t>Yield of total roots per hectar</t>
   </si>
   <si>
-    <t>PltEst_Ct_plot</t>
-  </si>
-  <si>
     <t>PltEst</t>
   </si>
   <si>
@@ -2968,15 +2962,6 @@
     <t>FlsTtC</t>
   </si>
   <si>
-    <t>PltRts_Ct_plot</t>
-  </si>
-  <si>
-    <t>PltCRt_Ct_plot</t>
-  </si>
-  <si>
-    <t>PltNCR_Ct_plot</t>
-  </si>
-  <si>
     <t>RtsFWt_Ms_g</t>
   </si>
   <si>
@@ -3067,9 +3052,6 @@
     <t>Counting plants/vines planted.</t>
   </si>
   <si>
-    <t>PltPld_Ct_plot</t>
-  </si>
-  <si>
     <t>VirSm1_Et_1to9</t>
   </si>
   <si>
@@ -3143,6 +3125,24 @@
   </si>
   <si>
     <t>RtsSpA_Et_1to9</t>
+  </si>
+  <si>
+    <t>PltPld_Ct_plplot</t>
+  </si>
+  <si>
+    <t>PltEst_Ct_plplot</t>
+  </si>
+  <si>
+    <t>PltHrv_Ct_plplot</t>
+  </si>
+  <si>
+    <t>PltRts_Ct_plplot</t>
+  </si>
+  <si>
+    <t>PltCRt_Ct_plplot</t>
+  </si>
+  <si>
+    <t>PltNCR_Ct_plplot</t>
   </si>
 </sst>
 </file>
@@ -5518,11 +5518,11 @@
   <dimension ref="A1:AU56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="topRight" activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomRight" activeCell="AR20" sqref="AR20"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5730,11 +5730,11 @@
         <v>414</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="44" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>231</v>
@@ -5755,7 +5755,7 @@
         <v>430</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="44" t="s">
@@ -5795,7 +5795,7 @@
         <v>578</v>
       </c>
       <c r="AJ2" s="44" t="s">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="AK2" s="47" t="s">
         <v>232</v>
@@ -5840,11 +5840,11 @@
         <v>414</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F3" s="44"/>
       <c r="G3" s="44" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>233</v>
@@ -5905,7 +5905,7 @@
         <v>579</v>
       </c>
       <c r="AJ3" s="44" t="s">
-        <v>896</v>
+        <v>1028</v>
       </c>
       <c r="AK3" s="47" t="s">
         <v>234</v>
@@ -5950,11 +5950,11 @@
         <v>140</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>421</v>
@@ -6029,7 +6029,7 @@
         <v>580</v>
       </c>
       <c r="AJ4" s="44" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="AK4" s="47" t="s">
         <v>235</v>
@@ -6074,11 +6074,11 @@
         <v>140</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>422</v>
@@ -6153,7 +6153,7 @@
         <v>581</v>
       </c>
       <c r="AJ5" s="44" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="AK5" s="47" t="s">
         <v>236</v>
@@ -6198,11 +6198,11 @@
         <v>140</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>423</v>
@@ -6277,7 +6277,7 @@
         <v>582</v>
       </c>
       <c r="AJ6" s="44" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="AK6" s="47" t="s">
         <v>266</v>
@@ -6322,11 +6322,11 @@
         <v>140</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="44" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>419</v>
@@ -6401,7 +6401,7 @@
         <v>583</v>
       </c>
       <c r="AJ7" s="44" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="AK7" s="47" t="s">
         <v>573</v>
@@ -6446,11 +6446,11 @@
         <v>140</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>420</v>
@@ -6525,7 +6525,7 @@
         <v>584</v>
       </c>
       <c r="AJ8" s="44" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="AK8" s="47" t="s">
         <v>237</v>
@@ -6570,11 +6570,11 @@
         <v>414</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>238</v>
@@ -6635,7 +6635,7 @@
         <v>585</v>
       </c>
       <c r="AJ9" s="44" t="s">
-        <v>893</v>
+        <v>1029</v>
       </c>
       <c r="AK9" s="47" t="s">
         <v>239</v>
@@ -6680,11 +6680,11 @@
         <v>414</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>240</v>
@@ -6745,7 +6745,7 @@
         <v>586</v>
       </c>
       <c r="AJ10" s="44" t="s">
-        <v>974</v>
+        <v>1030</v>
       </c>
       <c r="AK10" s="47" t="s">
         <v>241</v>
@@ -6790,11 +6790,11 @@
         <v>140</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" s="44" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>334</v>
@@ -6855,7 +6855,7 @@
         <v>587</v>
       </c>
       <c r="AJ11" s="44" t="s">
-        <v>975</v>
+        <v>1031</v>
       </c>
       <c r="AK11" s="47" t="s">
         <v>242</v>
@@ -6900,11 +6900,11 @@
         <v>140</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>335</v>
@@ -6965,7 +6965,7 @@
         <v>588</v>
       </c>
       <c r="AJ12" s="44" t="s">
-        <v>976</v>
+        <v>1032</v>
       </c>
       <c r="AK12" s="47" t="s">
         <v>243</v>
@@ -7010,11 +7010,11 @@
         <v>414</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="44" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>244</v>
@@ -7075,7 +7075,7 @@
         <v>589</v>
       </c>
       <c r="AJ13" s="44" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="AK13" s="47" t="s">
         <v>246</v>
@@ -7120,11 +7120,11 @@
         <v>414</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="44" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>245</v>
@@ -7185,7 +7185,7 @@
         <v>590</v>
       </c>
       <c r="AJ14" s="44" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="AK14" s="47" t="s">
         <v>247</v>
@@ -7230,11 +7230,11 @@
         <v>414</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>248</v>
@@ -7295,7 +7295,7 @@
         <v>591</v>
       </c>
       <c r="AJ15" s="44" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="AK15" s="47" t="s">
         <v>249</v>
@@ -7340,11 +7340,11 @@
         <v>225</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>183</v>
@@ -7419,7 +7419,7 @@
         <v>592</v>
       </c>
       <c r="AJ16" s="44" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="AK16" s="44" t="s">
         <v>574</v>
@@ -7464,11 +7464,11 @@
         <v>225</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="44" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>184</v>
@@ -7543,7 +7543,7 @@
         <v>593</v>
       </c>
       <c r="AJ17" s="44" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="AK17" s="44" t="s">
         <v>575</v>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="44" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>185</v>
@@ -7667,7 +7667,7 @@
         <v>594</v>
       </c>
       <c r="AJ18" s="44" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="AK18" s="47" t="s">
         <v>173</v>
@@ -7712,11 +7712,11 @@
         <v>225</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="44" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>185</v>
@@ -7791,7 +7791,7 @@
         <v>595</v>
       </c>
       <c r="AJ19" s="44" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="AK19" s="47" t="s">
         <v>251</v>
@@ -7836,11 +7836,11 @@
         <v>225</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="44" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H20" s="44" t="s">
         <v>185</v>
@@ -7915,7 +7915,7 @@
         <v>596</v>
       </c>
       <c r="AJ20" s="44" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="AK20" s="47" t="s">
         <v>276</v>
@@ -7960,10 +7960,10 @@
         <v>225</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>428</v>
@@ -8038,7 +8038,7 @@
         <v>597</v>
       </c>
       <c r="AJ21" s="44" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="AK21" s="44" t="s">
         <v>576</v>
@@ -8083,11 +8083,11 @@
         <v>225</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H22" s="44" t="s">
         <v>253</v>
@@ -8145,7 +8145,7 @@
         <v>598</v>
       </c>
       <c r="AJ22" s="44" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="AK22" s="47" t="s">
         <v>254</v>
@@ -8190,11 +8190,11 @@
         <v>225</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>255</v>
@@ -8252,7 +8252,7 @@
         <v>599</v>
       </c>
       <c r="AJ23" s="44" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AK23" s="47" t="s">
         <v>261</v>
@@ -8297,11 +8297,11 @@
         <v>215</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="44" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>268</v>
@@ -8359,7 +8359,7 @@
         <v>600</v>
       </c>
       <c r="AJ24" s="44" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="AK24" s="47" t="s">
         <v>277</v>
@@ -8404,11 +8404,11 @@
         <v>215</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>269</v>
@@ -8466,7 +8466,7 @@
         <v>601</v>
       </c>
       <c r="AJ25" s="44" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="AK25" s="47" t="s">
         <v>278</v>
@@ -8511,11 +8511,11 @@
         <v>226</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="44" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>257</v>
@@ -8590,7 +8590,7 @@
         <v>602</v>
       </c>
       <c r="AJ26" s="44" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AK26" s="47" t="s">
         <v>279</v>
@@ -8635,11 +8635,11 @@
         <v>226</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>256</v>
@@ -8714,7 +8714,7 @@
         <v>603</v>
       </c>
       <c r="AJ27" s="44" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="AK27" s="47" t="s">
         <v>280</v>
@@ -8759,11 +8759,11 @@
         <v>226</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="44" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H28" s="44" t="s">
         <v>258</v>
@@ -8838,7 +8838,7 @@
         <v>604</v>
       </c>
       <c r="AJ28" s="44" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="AK28" s="47" t="s">
         <v>281</v>
@@ -8883,11 +8883,11 @@
         <v>226</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>259</v>
@@ -8962,7 +8962,7 @@
         <v>605</v>
       </c>
       <c r="AJ29" s="44" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="AK29" s="47" t="s">
         <v>282</v>
@@ -9007,11 +9007,11 @@
         <v>226</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="44" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H30" s="44" t="s">
         <v>260</v>
@@ -9086,7 +9086,7 @@
         <v>606</v>
       </c>
       <c r="AJ30" s="44" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="AK30" s="47" t="s">
         <v>275</v>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H31" s="44" t="s">
         <v>270</v>
@@ -9193,7 +9193,7 @@
         <v>607</v>
       </c>
       <c r="AJ31" s="44" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="AK31" s="47" t="s">
         <v>274</v>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H32" s="44" t="s">
         <v>426</v>
@@ -9317,7 +9317,7 @@
         <v>608</v>
       </c>
       <c r="AJ32" s="44" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="AK32" s="47" t="s">
         <v>267</v>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H33" s="44" t="s">
         <v>427</v>
@@ -9441,7 +9441,7 @@
         <v>609</v>
       </c>
       <c r="AJ33" s="44" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="AK33" s="47" t="s">
         <v>272</v>
@@ -9489,7 +9489,7 @@
         <v>416</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H34" s="44" t="s">
         <v>429</v>
@@ -9564,7 +9564,7 @@
         <v>610</v>
       </c>
       <c r="AJ34" s="44" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="AK34" s="58" t="s">
         <v>273</v>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="44" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>257</v>
@@ -9688,7 +9688,7 @@
         <v>611</v>
       </c>
       <c r="AJ35" s="44" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="AK35" s="47" t="s">
         <v>283</v>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="44" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H36" s="44" t="s">
         <v>256</v>
@@ -9812,7 +9812,7 @@
         <v>612</v>
       </c>
       <c r="AJ36" s="44" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="AK36" s="47" t="s">
         <v>284</v>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="F37" s="44"/>
       <c r="G37" s="44" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H37" s="44" t="s">
         <v>258</v>
@@ -9936,7 +9936,7 @@
         <v>613</v>
       </c>
       <c r="AJ37" s="44" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="AK37" s="47" t="s">
         <v>285</v>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H38" s="44" t="s">
         <v>259</v>
@@ -10060,7 +10060,7 @@
         <v>614</v>
       </c>
       <c r="AJ38" s="44" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="AK38" s="47" t="s">
         <v>286</v>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="44" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H39" s="44" t="s">
         <v>260</v>
@@ -10184,7 +10184,7 @@
         <v>615</v>
       </c>
       <c r="AJ39" s="44" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="AK39" s="47" t="s">
         <v>287</v>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="44" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H40" s="44" t="s">
         <v>230</v>
@@ -10308,7 +10308,7 @@
         <v>616</v>
       </c>
       <c r="AJ40" s="44" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="AK40" s="44" t="s">
         <v>288</v>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="44" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H41" s="44" t="s">
         <v>165</v>
@@ -10420,7 +10420,7 @@
         <v>617</v>
       </c>
       <c r="AJ41" s="44" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="AK41" s="44" t="s">
         <v>577</v>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="44" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H42" s="44" t="s">
         <v>296</v>
@@ -10530,7 +10530,7 @@
         <v>618</v>
       </c>
       <c r="AJ42" s="44" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="AK42" s="44" t="s">
         <v>291</v>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="F43" s="44"/>
       <c r="G43" s="44" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H43" s="44" t="s">
         <v>297</v>
@@ -10640,7 +10640,7 @@
         <v>619</v>
       </c>
       <c r="AJ43" s="44" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="AK43" s="44" t="s">
         <v>292</v>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="44" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H44" s="44" t="s">
         <v>295</v>
@@ -10750,7 +10750,7 @@
         <v>620</v>
       </c>
       <c r="AJ44" s="44" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="AK44" s="47" t="s">
         <v>293</v>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="44" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>298</v>
@@ -10860,7 +10860,7 @@
         <v>621</v>
       </c>
       <c r="AJ45" s="44" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="AK45" s="47" t="s">
         <v>294</v>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="F46" s="44"/>
       <c r="G46" s="44" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H46" s="44" t="s">
         <v>166</v>
@@ -10970,7 +10970,7 @@
         <v>622</v>
       </c>
       <c r="AJ46" s="44" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="AK46" s="47" t="s">
         <v>174</v>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="F47" s="44"/>
       <c r="G47" s="44" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H47" s="44" t="s">
         <v>186</v>
@@ -11080,7 +11080,7 @@
         <v>623</v>
       </c>
       <c r="AJ47" s="44" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="AK47" s="44" t="s">
         <v>175</v>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="F48" s="44"/>
       <c r="G48" s="44" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H48" s="44" t="s">
         <v>187</v>
@@ -11192,7 +11192,7 @@
         <v>624</v>
       </c>
       <c r="AJ48" s="44" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="AK48" s="44" t="s">
         <v>176</v>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="F49" s="44"/>
       <c r="G49" s="44" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>169</v>
@@ -11304,7 +11304,7 @@
         <v>625</v>
       </c>
       <c r="AJ49" s="44" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="AK49" s="47" t="s">
         <v>177</v>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="F50" s="44"/>
       <c r="G50" s="44" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H50" s="44" t="s">
         <v>170</v>
@@ -11416,7 +11416,7 @@
         <v>626</v>
       </c>
       <c r="AJ50" s="44" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="AK50" s="47" t="s">
         <v>178</v>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="F51" s="44"/>
       <c r="G51" s="44" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H51" s="44" t="s">
         <v>171</v>
@@ -11528,7 +11528,7 @@
         <v>627</v>
       </c>
       <c r="AJ51" s="44" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="AK51" s="47" t="s">
         <v>179</v>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="F52" s="44"/>
       <c r="G52" s="44" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H52" s="44" t="s">
         <v>172</v>
@@ -11640,7 +11640,7 @@
         <v>628</v>
       </c>
       <c r="AJ52" s="44" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="AK52" s="47" t="s">
         <v>180</v>
@@ -11680,7 +11680,7 @@
         <v>863</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D53" s="44" t="s">
         <v>140</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="F53" s="44"/>
       <c r="G53" s="44" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H53" s="44" t="s">
         <v>852</v>
@@ -11771,7 +11771,7 @@
         <v>883</v>
       </c>
       <c r="AJ53" s="44" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="AK53" s="44" t="s">
         <v>867</v>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="F54" s="44"/>
       <c r="G54" s="44" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H54" s="44" t="s">
         <v>855</v>
@@ -11886,7 +11886,7 @@
         <v>884</v>
       </c>
       <c r="AJ54" s="44" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="AK54" s="44" t="s">
         <v>856</v>
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F55" s="44"/>
       <c r="G55" s="44" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H55" s="44" t="s">
         <v>857</v>
@@ -12004,7 +12004,7 @@
         <v>889</v>
       </c>
       <c r="AK55" s="44" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AL55" s="44" t="s">
         <v>188</v>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="F56" s="44"/>
       <c r="G56" s="44" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H56" s="44" t="s">
         <v>860</v>
@@ -12732,7 +12732,7 @@
         <v>562</v>
       </c>
       <c r="F3" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="G3" t="s">
         <v>558</v>
@@ -12755,7 +12755,7 @@
         <v>561</v>
       </c>
       <c r="F4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="G4" t="s">
         <v>558</v>
@@ -12778,7 +12778,7 @@
         <v>563</v>
       </c>
       <c r="F5" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="G5" t="s">
         <v>558</v>
@@ -12801,7 +12801,7 @@
         <v>564</v>
       </c>
       <c r="F6" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="G6" t="s">
         <v>558</v>
@@ -12824,7 +12824,7 @@
         <v>560</v>
       </c>
       <c r="F7" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="G7" t="s">
         <v>558</v>

--- a/ontology_cip_2015_10_26_short.xlsx
+++ b/ontology_cip_2015_10_26_short.xlsx
@@ -19,14 +19,14 @@
     <sheet name="Meta2" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sweetpotato ontology'!$B$1:$AU$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sweetpotato ontology'!$B$1:$AV$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1034">
   <si>
     <t>List of columns in template and short description:</t>
   </si>
@@ -943,12 +943,6 @@
     <t>Content of magnesium on dry weight basis</t>
   </si>
   <si>
-    <t>W. Grüneberg</t>
-  </si>
-  <si>
-    <t>Z. Huamán</t>
-  </si>
-  <si>
     <t>Post-harvest</t>
   </si>
   <si>
@@ -3127,6 +3121,9 @@
     <t>RtsSpA_Et_1to9</t>
   </si>
   <si>
+    <t>W. Grueneberg</t>
+  </si>
+  <si>
     <t>PltPld_Ct_plplot</t>
   </si>
   <si>
@@ -3143,6 +3140,12 @@
   </si>
   <si>
     <t>PltNCR_Ct_plplot</t>
+  </si>
+  <si>
+    <t>Variable IBP name</t>
+  </si>
+  <si>
+    <t>Z. Huaman</t>
   </si>
 </sst>
 </file>
@@ -5515,14 +5518,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU56"/>
+  <dimension ref="A1:AV56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="topRight" activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="AR16" sqref="AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5561,22 +5564,23 @@
     <col min="33" max="33" width="11.85546875" style="41" customWidth="1"/>
     <col min="34" max="34" width="10.28515625" style="3" customWidth="1"/>
     <col min="35" max="35" width="18.140625" style="39" customWidth="1"/>
-    <col min="36" max="36" width="19.85546875" style="40" customWidth="1"/>
-    <col min="37" max="37" width="20" style="40" customWidth="1"/>
-    <col min="38" max="38" width="30.5703125" style="40" customWidth="1"/>
-    <col min="39" max="39" width="12.85546875" style="40" customWidth="1"/>
-    <col min="40" max="40" width="14.7109375" style="40" customWidth="1"/>
-    <col min="41" max="41" width="11" style="40" customWidth="1"/>
-    <col min="42" max="42" width="28.28515625" style="40" customWidth="1"/>
-    <col min="43" max="43" width="16.28515625" style="40" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" style="40" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" style="40" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" style="40" customWidth="1"/>
-    <col min="47" max="47" width="12.28515625" style="41" customWidth="1"/>
-    <col min="48" max="16384" width="5" style="3"/>
+    <col min="36" max="36" width="27.7109375" style="40" customWidth="1"/>
+    <col min="37" max="37" width="19.85546875" style="40" customWidth="1"/>
+    <col min="38" max="38" width="20" style="40" customWidth="1"/>
+    <col min="39" max="39" width="30.5703125" style="40" customWidth="1"/>
+    <col min="40" max="40" width="12.85546875" style="40" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" style="40" customWidth="1"/>
+    <col min="42" max="42" width="11" style="40" customWidth="1"/>
+    <col min="43" max="43" width="28.28515625" style="40" customWidth="1"/>
+    <col min="44" max="44" width="16.28515625" style="40" customWidth="1"/>
+    <col min="45" max="45" width="13.7109375" style="40" customWidth="1"/>
+    <col min="46" max="46" width="17.28515625" style="40" customWidth="1"/>
+    <col min="47" max="47" width="18.42578125" style="40" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" style="41" customWidth="1"/>
+    <col min="49" max="16384" width="5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
@@ -5686,92 +5690,95 @@
         <v>65</v>
       </c>
       <c r="AK1" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AL1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>231</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="44" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>231</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="R2" s="47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S2" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T2" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U2" s="44">
         <v>0</v>
@@ -5792,96 +5799,99 @@
       <c r="AG2" s="44"/>
       <c r="AH2" s="44"/>
       <c r="AI2" s="39" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AJ2" s="44" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AK2" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK2" s="44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AL2" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AM2" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM2" s="44" t="s">
-        <v>302</v>
-      </c>
       <c r="AN2" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO2" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44" t="s">
-        <v>788</v>
-      </c>
+      <c r="AP2" s="44"/>
       <c r="AQ2" s="44" t="s">
-        <v>299</v>
+        <v>786</v>
       </c>
       <c r="AR2" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS2" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT2" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT2" s="51">
+      <c r="AU2" s="51">
         <v>42299</v>
       </c>
-      <c r="AU2" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV2" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>233</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F3" s="44"/>
       <c r="G3" s="44" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>233</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M3" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="O3" s="44"/>
       <c r="P3" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q3" s="44" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="R3" s="47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S3" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U3" s="44">
         <v>0</v>
@@ -5902,46 +5912,49 @@
       <c r="AG3" s="44"/>
       <c r="AH3" s="44"/>
       <c r="AI3" s="39" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AJ3" s="44" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AK3" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK3" s="44" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AL3" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="AL3" s="44" t="s">
+      <c r="AM3" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM3" s="44" t="s">
+      <c r="AN3" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AN3" s="44" t="s">
+      <c r="AO3" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44" t="s">
-        <v>789</v>
-      </c>
+      <c r="AP3" s="44"/>
       <c r="AQ3" s="44" t="s">
-        <v>299</v>
+        <v>787</v>
       </c>
       <c r="AR3" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS3" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT3" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT3" s="51">
+      <c r="AU3" s="51">
         <v>42299</v>
       </c>
-      <c r="AU3" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV3" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>265</v>
@@ -5950,26 +5963,26 @@
         <v>140</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M4" s="44" t="s">
         <v>197</v>
@@ -5982,16 +5995,16 @@
         <v>130</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="R4" s="47" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="S4" s="44" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T4" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U4" s="44"/>
       <c r="V4" s="44"/>
@@ -5999,73 +6012,76 @@
       <c r="X4" s="44"/>
       <c r="Y4" s="44"/>
       <c r="Z4" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB4" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="AA4" s="56" t="s">
+      <c r="AC4" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="AB4" s="46" t="s">
+      <c r="AD4" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="AC4" s="46" t="s">
+      <c r="AE4" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="AD4" s="46" t="s">
+      <c r="AF4" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="AE4" s="46" t="s">
+      <c r="AG4" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="AF4" s="46" t="s">
+      <c r="AH4" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="AG4" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH4" s="46" t="s">
-        <v>312</v>
-      </c>
       <c r="AI4" s="39" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AJ4" s="44" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AK4" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK4" s="44" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AL4" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AL4" s="44" t="s">
+      <c r="AM4" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM4" s="44" t="s">
+      <c r="AN4" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AN4" s="44" t="s">
+      <c r="AO4" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44" t="s">
-        <v>790</v>
-      </c>
+      <c r="AP4" s="44"/>
       <c r="AQ4" s="44" t="s">
-        <v>299</v>
+        <v>788</v>
       </c>
       <c r="AR4" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS4" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT4" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="51">
+      <c r="AU4" s="51">
         <v>42299</v>
       </c>
-      <c r="AU4" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV4" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>264</v>
@@ -6074,26 +6090,26 @@
         <v>140</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K5" s="44" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M5" s="44" t="s">
         <v>197</v>
@@ -6106,16 +6122,16 @@
         <v>130</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R5" s="47" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="S5" s="44" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U5" s="44"/>
       <c r="V5" s="44"/>
@@ -6123,104 +6139,107 @@
       <c r="X5" s="44"/>
       <c r="Y5" s="44"/>
       <c r="Z5" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA5" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB5" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="AA5" s="56" t="s">
+      <c r="AC5" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="AB5" s="46" t="s">
+      <c r="AD5" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="AC5" s="46" t="s">
+      <c r="AE5" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="AD5" s="46" t="s">
+      <c r="AF5" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="AE5" s="46" t="s">
+      <c r="AG5" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="AF5" s="46" t="s">
+      <c r="AH5" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="AG5" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH5" s="46" t="s">
-        <v>312</v>
-      </c>
       <c r="AI5" s="39" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AJ5" s="44" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AK5" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK5" s="44" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AL5" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AL5" s="44" t="s">
+      <c r="AM5" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM5" s="44" t="s">
+      <c r="AN5" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AN5" s="44" t="s">
+      <c r="AO5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44" t="s">
-        <v>791</v>
-      </c>
+      <c r="AP5" s="44"/>
       <c r="AQ5" s="44" t="s">
-        <v>299</v>
+        <v>789</v>
       </c>
       <c r="AR5" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS5" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT5" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT5" s="51">
+      <c r="AU5" s="51">
         <v>42299</v>
       </c>
-      <c r="AU5" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV5" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>140</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="N6" s="44" t="s">
         <v>191</v>
@@ -6230,16 +6249,16 @@
         <v>130</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="R6" s="47" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="S6" s="44" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U6" s="44"/>
       <c r="V6" s="44"/>
@@ -6247,73 +6266,76 @@
       <c r="X6" s="44"/>
       <c r="Y6" s="44"/>
       <c r="Z6" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA6" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB6" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="AA6" s="55" t="s">
+      <c r="AC6" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="AB6" s="44" t="s">
+      <c r="AD6" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="AC6" s="57" t="s">
+      <c r="AE6" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="AD6" s="57" t="s">
+      <c r="AF6" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AE6" s="57" t="s">
+      <c r="AG6" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="AF6" s="57" t="s">
+      <c r="AH6" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="AG6" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="AH6" s="57" t="s">
-        <v>332</v>
-      </c>
       <c r="AI6" s="39" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AJ6" s="44" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AK6" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK6" s="44" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AL6" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="AL6" s="44" t="s">
+      <c r="AM6" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM6" s="44" t="s">
+      <c r="AN6" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AN6" s="44" t="s">
+      <c r="AO6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44" t="s">
-        <v>792</v>
-      </c>
+      <c r="AP6" s="44"/>
       <c r="AQ6" s="44" t="s">
-        <v>299</v>
+        <v>790</v>
       </c>
       <c r="AR6" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS6" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT6" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT6" s="51">
+      <c r="AU6" s="51">
         <v>42299</v>
       </c>
-      <c r="AU6" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV6" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>263</v>
@@ -6322,26 +6344,26 @@
         <v>140</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="44" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J7" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M7" s="44" t="s">
         <v>196</v>
@@ -6354,16 +6376,16 @@
         <v>130</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R7" s="47" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="S7" s="44" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U7" s="44"/>
       <c r="V7" s="44"/>
@@ -6371,73 +6393,76 @@
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
       <c r="Z7" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA7" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB7" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="AA7" s="47" t="s">
+      <c r="AC7" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="AB7" s="44" t="s">
+      <c r="AD7" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="AC7" s="44" t="s">
+      <c r="AE7" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="AD7" s="44" t="s">
+      <c r="AF7" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="AE7" s="44" t="s">
+      <c r="AG7" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="AF7" s="44" t="s">
+      <c r="AH7" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="AG7" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="AH7" s="44" t="s">
-        <v>321</v>
-      </c>
       <c r="AI7" s="39" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AJ7" s="44" t="s">
-        <v>1005</v>
-      </c>
-      <c r="AK7" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="AL7" s="44" t="s">
-        <v>848</v>
+        <v>263</v>
+      </c>
+      <c r="AK7" s="44" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AL7" s="47" t="s">
+        <v>571</v>
       </c>
       <c r="AM7" s="44" t="s">
+        <v>846</v>
+      </c>
+      <c r="AN7" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AN7" s="44" t="s">
+      <c r="AO7" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44" t="s">
-        <v>793</v>
-      </c>
+      <c r="AP7" s="44"/>
       <c r="AQ7" s="44" t="s">
-        <v>299</v>
+        <v>791</v>
       </c>
       <c r="AR7" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS7" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT7" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT7" s="51">
+      <c r="AU7" s="51">
         <v>42299</v>
       </c>
-      <c r="AU7" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV7" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B8" s="47" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>262</v>
@@ -6446,26 +6471,26 @@
         <v>140</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M8" s="44" t="s">
         <v>196</v>
@@ -6478,16 +6503,16 @@
         <v>130</v>
       </c>
       <c r="Q8" s="44" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="R8" s="47" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="S8" s="44" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="T8" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U8" s="44"/>
       <c r="V8" s="44"/>
@@ -6495,123 +6520,126 @@
       <c r="X8" s="44"/>
       <c r="Y8" s="44"/>
       <c r="Z8" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA8" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB8" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="AA8" s="47" t="s">
+      <c r="AC8" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="AB8" s="44" t="s">
+      <c r="AD8" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="AC8" s="44" t="s">
+      <c r="AE8" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="AD8" s="44" t="s">
+      <c r="AF8" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="AE8" s="44" t="s">
+      <c r="AG8" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="AF8" s="44" t="s">
+      <c r="AH8" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="AG8" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="AH8" s="44" t="s">
-        <v>321</v>
-      </c>
       <c r="AI8" s="39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AJ8" s="44" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AK8" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK8" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AL8" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AL8" s="44" t="s">
+      <c r="AM8" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM8" s="44" t="s">
+      <c r="AN8" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AN8" s="44" t="s">
+      <c r="AO8" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44" t="s">
-        <v>794</v>
-      </c>
+      <c r="AP8" s="44"/>
       <c r="AQ8" s="44" t="s">
-        <v>299</v>
+        <v>792</v>
       </c>
       <c r="AR8" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS8" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT8" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT8" s="51">
+      <c r="AU8" s="51">
         <v>42299</v>
       </c>
-      <c r="AU8" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV8" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>238</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N9" s="44" t="s">
         <v>191</v>
       </c>
       <c r="O9" s="44"/>
       <c r="P9" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="R9" s="47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S9" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U9" s="44">
         <v>0</v>
@@ -6632,96 +6660,99 @@
       <c r="AG9" s="44"/>
       <c r="AH9" s="44"/>
       <c r="AI9" s="39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AJ9" s="44" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AK9" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK9" s="44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AL9" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="AL9" s="44" t="s">
+      <c r="AM9" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM9" s="44" t="s">
+      <c r="AN9" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN9" s="44" t="s">
+      <c r="AO9" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="44" t="s">
-        <v>795</v>
-      </c>
+      <c r="AP9" s="44"/>
       <c r="AQ9" s="44" t="s">
-        <v>299</v>
+        <v>793</v>
       </c>
       <c r="AR9" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS9" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT9" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT9" s="51">
+      <c r="AU9" s="51">
         <v>42299</v>
       </c>
-      <c r="AU9" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV9" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>240</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>240</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N10" s="44" t="s">
         <v>191</v>
       </c>
       <c r="O10" s="44"/>
       <c r="P10" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="44" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="R10" s="47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S10" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T10" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U10" s="44">
         <v>0</v>
@@ -6742,96 +6773,99 @@
       <c r="AG10" s="44"/>
       <c r="AH10" s="44"/>
       <c r="AI10" s="39" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AJ10" s="44" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AK10" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK10" s="44" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AL10" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="AL10" s="44" t="s">
+      <c r="AM10" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM10" s="44" t="s">
+      <c r="AN10" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN10" s="44" t="s">
+      <c r="AO10" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44" t="s">
-        <v>796</v>
-      </c>
+      <c r="AP10" s="44"/>
       <c r="AQ10" s="44" t="s">
-        <v>299</v>
+        <v>794</v>
       </c>
       <c r="AR10" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS10" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT10" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT10" s="51">
+      <c r="AU10" s="51">
         <v>42299</v>
       </c>
-      <c r="AU10" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV10" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B11" s="47" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" s="44" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J11" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="N11" s="44" t="s">
         <v>191</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="R11" s="47" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="S11" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="T11" s="45" t="s">
         <v>336</v>
-      </c>
-      <c r="T11" s="45" t="s">
-        <v>338</v>
       </c>
       <c r="U11" s="44">
         <v>0</v>
@@ -6852,96 +6886,99 @@
       <c r="AG11" s="54"/>
       <c r="AH11" s="44"/>
       <c r="AI11" s="39" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AJ11" s="44" t="s">
-        <v>1031</v>
-      </c>
-      <c r="AK11" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="AK11" s="44" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AL11" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="AL11" s="44" t="s">
+      <c r="AM11" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM11" s="44" t="s">
+      <c r="AN11" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN11" s="44" t="s">
+      <c r="AO11" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44" t="s">
-        <v>797</v>
-      </c>
+      <c r="AP11" s="44"/>
       <c r="AQ11" s="44" t="s">
-        <v>299</v>
+        <v>795</v>
       </c>
       <c r="AR11" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS11" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT11" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT11" s="51">
+      <c r="AU11" s="51">
         <v>42299</v>
       </c>
-      <c r="AU11" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV11" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>140</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K12" s="44" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M12" s="44" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="N12" s="44" t="s">
         <v>191</v>
       </c>
       <c r="O12" s="44"/>
       <c r="P12" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="44" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="R12" s="47" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="S12" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="T12" s="45" t="s">
         <v>336</v>
-      </c>
-      <c r="T12" s="45" t="s">
-        <v>338</v>
       </c>
       <c r="U12" s="44">
         <v>0</v>
@@ -6962,96 +6999,99 @@
       <c r="AG12" s="54"/>
       <c r="AH12" s="44"/>
       <c r="AI12" s="39" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AJ12" s="44" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AK12" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK12" s="44" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AL12" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="AL12" s="44" t="s">
+      <c r="AM12" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM12" s="44" t="s">
+      <c r="AN12" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN12" s="44" t="s">
+      <c r="AO12" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44" t="s">
-        <v>798</v>
-      </c>
+      <c r="AP12" s="44"/>
       <c r="AQ12" s="44" t="s">
-        <v>299</v>
+        <v>796</v>
       </c>
       <c r="AR12" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS12" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT12" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT12" s="51">
+      <c r="AU12" s="51">
         <v>42299</v>
       </c>
-      <c r="AU12" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV12" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>244</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="44" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>244</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K13" s="44" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="L13" s="47" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O13" s="44"/>
       <c r="P13" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q13" s="44" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="R13" s="47" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="S13" s="44" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="T13" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U13" s="44">
         <v>1</v>
@@ -7072,96 +7112,99 @@
       <c r="AG13" s="44"/>
       <c r="AH13" s="44"/>
       <c r="AI13" s="39" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AJ13" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="AK13" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK13" s="44" t="s">
+        <v>989</v>
+      </c>
+      <c r="AL13" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="AL13" s="44" t="s">
+      <c r="AM13" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM13" s="44" t="s">
+      <c r="AN13" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN13" s="44" t="s">
+      <c r="AO13" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44" t="s">
-        <v>799</v>
-      </c>
+      <c r="AP13" s="44"/>
       <c r="AQ13" s="44" t="s">
-        <v>299</v>
+        <v>797</v>
       </c>
       <c r="AR13" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS13" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT13" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT13" s="51">
+      <c r="AU13" s="51">
         <v>42299</v>
       </c>
-      <c r="AU13" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV13" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="47" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>245</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="44" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>245</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J14" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K14" s="44" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="L14" s="47" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M14" s="44" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N14" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O14" s="44"/>
       <c r="P14" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q14" s="44" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="R14" s="47" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="S14" s="44" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="T14" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U14" s="44">
         <v>1</v>
@@ -7182,96 +7225,99 @@
       <c r="AG14" s="44"/>
       <c r="AH14" s="44"/>
       <c r="AI14" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AJ14" s="44" t="s">
-        <v>992</v>
-      </c>
-      <c r="AK14" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK14" s="44" t="s">
+        <v>990</v>
+      </c>
+      <c r="AL14" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="AL14" s="44" t="s">
+      <c r="AM14" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM14" s="44" t="s">
+      <c r="AN14" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN14" s="44" t="s">
+      <c r="AO14" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44" t="s">
-        <v>800</v>
-      </c>
+      <c r="AP14" s="44"/>
       <c r="AQ14" s="44" t="s">
-        <v>299</v>
+        <v>798</v>
       </c>
       <c r="AR14" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS14" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT14" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT14" s="51">
+      <c r="AU14" s="51">
         <v>42299</v>
       </c>
-      <c r="AU14" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV14" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>248</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>248</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J15" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K15" s="44" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="L15" s="47" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M15" s="44" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N15" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O15" s="44"/>
       <c r="P15" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q15" s="44" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="R15" s="47" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="S15" s="44" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U15" s="44">
         <v>1</v>
@@ -7292,46 +7338,49 @@
       <c r="AG15" s="44"/>
       <c r="AH15" s="44"/>
       <c r="AI15" s="39" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AJ15" s="44" t="s">
-        <v>993</v>
-      </c>
-      <c r="AK15" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK15" s="44" t="s">
+        <v>991</v>
+      </c>
+      <c r="AL15" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="AL15" s="44" t="s">
+      <c r="AM15" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM15" s="44" t="s">
+      <c r="AN15" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN15" s="44" t="s">
+      <c r="AO15" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44" t="s">
-        <v>801</v>
-      </c>
+      <c r="AP15" s="44"/>
       <c r="AQ15" s="44" t="s">
-        <v>299</v>
+        <v>799</v>
       </c>
       <c r="AR15" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS15" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT15" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT15" s="51">
+      <c r="AU15" s="51">
         <v>42299</v>
       </c>
-      <c r="AU15" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV15" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="47" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>162</v>
@@ -7340,26 +7389,26 @@
         <v>225</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>183</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J16" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L16" s="47" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M16" s="44" t="s">
         <v>192</v>
@@ -7372,16 +7421,16 @@
         <v>130</v>
       </c>
       <c r="Q16" s="44" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="R16" s="47" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="S16" s="44" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U16" s="44"/>
       <c r="V16" s="44"/>
@@ -7389,73 +7438,76 @@
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
       <c r="Z16" s="44" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA16" s="44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AB16" s="44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AC16" s="44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD16" s="44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AE16" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF16" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="AF16" s="44" t="s">
-        <v>356</v>
-      </c>
       <c r="AG16" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH16" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="AH16" s="44" t="s">
-        <v>362</v>
-      </c>
       <c r="AI16" s="39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AJ16" s="44" t="s">
-        <v>1007</v>
+        <v>162</v>
       </c>
       <c r="AK16" s="44" t="s">
-        <v>574</v>
+        <v>1005</v>
       </c>
       <c r="AL16" s="44" t="s">
-        <v>848</v>
+        <v>572</v>
       </c>
       <c r="AM16" s="44" t="s">
+        <v>846</v>
+      </c>
+      <c r="AN16" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN16" s="44" t="s">
+      <c r="AO16" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44" t="s">
-        <v>812</v>
-      </c>
+      <c r="AP16" s="44"/>
       <c r="AQ16" s="44" t="s">
-        <v>300</v>
+        <v>810</v>
       </c>
       <c r="AR16" s="44" t="s">
-        <v>441</v>
+        <v>1033</v>
       </c>
       <c r="AS16" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT16" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT16" s="51">
+      <c r="AU16" s="51">
         <v>42299</v>
       </c>
-      <c r="AU16" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV16" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C17" s="44" t="s">
         <v>163</v>
@@ -7464,26 +7516,26 @@
         <v>225</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="44" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>184</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J17" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K17" s="44" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="L17" s="47" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M17" s="44" t="s">
         <v>193</v>
@@ -7496,16 +7548,16 @@
         <v>130</v>
       </c>
       <c r="Q17" s="44" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="R17" s="47" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="S17" s="44" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
@@ -7513,73 +7565,76 @@
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
       <c r="Z17" s="54" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA17" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB17" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="AB17" s="44" t="s">
-        <v>345</v>
-      </c>
       <c r="AC17" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD17" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE17" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="AD17" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE17" s="44" t="s">
+      <c r="AF17" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="AF17" s="44" t="s">
-        <v>357</v>
-      </c>
       <c r="AG17" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="AH17" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="AH17" s="44" t="s">
-        <v>363</v>
-      </c>
       <c r="AI17" s="39" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AJ17" s="44" t="s">
-        <v>1008</v>
+        <v>163</v>
       </c>
       <c r="AK17" s="44" t="s">
-        <v>575</v>
+        <v>1006</v>
       </c>
       <c r="AL17" s="44" t="s">
-        <v>848</v>
+        <v>573</v>
       </c>
       <c r="AM17" s="44" t="s">
+        <v>846</v>
+      </c>
+      <c r="AN17" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN17" s="44" t="s">
+      <c r="AO17" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44" t="s">
-        <v>813</v>
-      </c>
+      <c r="AP17" s="44"/>
       <c r="AQ17" s="44" t="s">
-        <v>300</v>
+        <v>811</v>
       </c>
       <c r="AR17" s="44" t="s">
-        <v>441</v>
+        <v>1033</v>
       </c>
       <c r="AS17" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT17" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT17" s="51">
+      <c r="AU17" s="51">
         <v>42299</v>
       </c>
-      <c r="AU17" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV17" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B18" s="47" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>164</v>
@@ -7592,44 +7647,44 @@
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="44" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>185</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="M18" s="44" t="s">
         <v>194</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O18" s="44"/>
       <c r="P18" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q18" s="44" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="R18" s="47" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="S18" s="44" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
@@ -7637,73 +7692,76 @@
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
       <c r="Z18" s="44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA18" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB18" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC18" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD18" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE18" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="AB18" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC18" s="40" t="s">
+      <c r="AF18" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG18" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="AD18" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE18" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF18" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG18" s="40" t="s">
-        <v>369</v>
-      </c>
       <c r="AH18" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AI18" s="39" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AJ18" s="44" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AK18" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK18" s="44" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AL18" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="AL18" s="44" t="s">
+      <c r="AM18" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM18" s="44" t="s">
+      <c r="AN18" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN18" s="44" t="s">
+      <c r="AO18" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44" t="s">
-        <v>802</v>
-      </c>
+      <c r="AP18" s="44"/>
       <c r="AQ18" s="44" t="s">
-        <v>299</v>
+        <v>800</v>
       </c>
       <c r="AR18" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS18" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT18" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT18" s="51">
+      <c r="AU18" s="51">
         <v>42299</v>
       </c>
-      <c r="AU18" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV18" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B19" s="47" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>250</v>
@@ -7712,48 +7770,48 @@
         <v>225</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="44" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>185</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J19" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K19" s="44" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L19" s="47" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O19" s="44"/>
       <c r="P19" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="R19" s="47" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="S19" s="44" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U19" s="44"/>
       <c r="V19" s="44"/>
@@ -7761,73 +7819,76 @@
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
       <c r="Z19" s="44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA19" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB19" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC19" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD19" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE19" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="AB19" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC19" s="40" t="s">
+      <c r="AF19" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG19" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="AD19" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE19" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF19" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG19" s="40" t="s">
-        <v>369</v>
-      </c>
       <c r="AH19" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AI19" s="39" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AJ19" s="44" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AK19" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK19" s="44" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AL19" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="AL19" s="44" t="s">
+      <c r="AM19" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM19" s="44" t="s">
+      <c r="AN19" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN19" s="44" t="s">
+      <c r="AO19" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44" t="s">
-        <v>803</v>
-      </c>
+      <c r="AP19" s="44"/>
       <c r="AQ19" s="44" t="s">
-        <v>299</v>
+        <v>801</v>
       </c>
       <c r="AR19" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS19" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT19" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT19" s="51">
+      <c r="AU19" s="51">
         <v>42299</v>
       </c>
-      <c r="AU19" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV19" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>252</v>
@@ -7836,48 +7897,48 @@
         <v>225</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="44" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H20" s="44" t="s">
         <v>185</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J20" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O20" s="44"/>
       <c r="P20" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="R20" s="47" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="S20" s="44" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
@@ -7885,73 +7946,76 @@
       <c r="X20" s="44"/>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AA20" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB20" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC20" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD20" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE20" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="AB20" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC20" s="40" t="s">
+      <c r="AF20" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG20" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="AD20" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="AE20" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF20" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG20" s="44" t="s">
-        <v>373</v>
-      </c>
       <c r="AH20" s="44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AI20" s="39" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AJ20" s="44" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AK20" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK20" s="44" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AL20" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="AL20" s="44" t="s">
+      <c r="AM20" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM20" s="44" t="s">
+      <c r="AN20" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN20" s="44" t="s">
+      <c r="AO20" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44" t="s">
-        <v>804</v>
-      </c>
+      <c r="AP20" s="44"/>
       <c r="AQ20" s="44" t="s">
-        <v>299</v>
+        <v>802</v>
       </c>
       <c r="AR20" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS20" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT20" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT20" s="51">
+      <c r="AU20" s="51">
         <v>42299</v>
       </c>
-      <c r="AU20" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV20" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B21" s="47" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>289</v>
@@ -7960,47 +8024,47 @@
         <v>225</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J21" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L21" s="47" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M21" s="44" t="s">
         <v>195</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O21" s="44"/>
       <c r="P21" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q21" s="44" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="R21" s="47" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="S21" s="44" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T21" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
@@ -8008,73 +8072,76 @@
       <c r="X21" s="44"/>
       <c r="Y21" s="44"/>
       <c r="Z21" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AA21" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB21" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC21" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD21" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE21" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="AB21" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC21" s="40" t="s">
+      <c r="AF21" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG21" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="AD21" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="AE21" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF21" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG21" s="44" t="s">
-        <v>373</v>
-      </c>
       <c r="AH21" s="44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AI21" s="39" t="s">
-        <v>597</v>
-      </c>
-      <c r="AJ21" s="44" t="s">
-        <v>1012</v>
+        <v>595</v>
+      </c>
+      <c r="AJ21" s="40" t="s">
+        <v>289</v>
       </c>
       <c r="AK21" s="44" t="s">
-        <v>576</v>
+        <v>1010</v>
       </c>
       <c r="AL21" s="44" t="s">
-        <v>848</v>
+        <v>574</v>
       </c>
       <c r="AM21" s="44" t="s">
-        <v>303</v>
+        <v>846</v>
       </c>
       <c r="AN21" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO21" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="44" t="s">
-        <v>814</v>
-      </c>
+      <c r="AP21" s="44"/>
       <c r="AQ21" s="44" t="s">
-        <v>300</v>
+        <v>812</v>
       </c>
       <c r="AR21" s="44" t="s">
-        <v>441</v>
+        <v>1033</v>
       </c>
       <c r="AS21" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT21" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT21" s="51">
+      <c r="AU21" s="51">
         <v>42299</v>
       </c>
-      <c r="AU21" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV21" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B22" s="47" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>253</v>
@@ -8083,48 +8150,48 @@
         <v>225</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H22" s="44" t="s">
         <v>253</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J22" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M22" s="44" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O22" s="44"/>
       <c r="P22" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q22" s="44" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="R22" s="47" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="S22" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U22" s="44">
         <v>2</v>
@@ -8142,46 +8209,49 @@
       <c r="AG22" s="47"/>
       <c r="AH22" s="44"/>
       <c r="AI22" s="39" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AJ22" s="44" t="s">
-        <v>972</v>
-      </c>
-      <c r="AK22" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK22" s="44" t="s">
+        <v>970</v>
+      </c>
+      <c r="AL22" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="AL22" s="44" t="s">
+      <c r="AM22" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM22" s="44" t="s">
+      <c r="AN22" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN22" s="44" t="s">
+      <c r="AO22" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44" t="s">
-        <v>805</v>
-      </c>
+      <c r="AP22" s="44"/>
       <c r="AQ22" s="44" t="s">
-        <v>299</v>
+        <v>803</v>
       </c>
       <c r="AR22" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS22" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT22" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT22" s="51">
+      <c r="AU22" s="51">
         <v>42299</v>
       </c>
-      <c r="AU22" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV22" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B23" s="47" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>255</v>
@@ -8190,29 +8260,29 @@
         <v>225</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>255</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J23" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K23" s="44" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="L23" s="47" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="N23" s="44" t="s">
         <v>255</v>
@@ -8222,16 +8292,16 @@
         <v>229</v>
       </c>
       <c r="Q23" s="44" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="R23" s="47" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="S23" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U23" s="44">
         <v>2</v>
@@ -8249,46 +8319,49 @@
       <c r="AG23" s="47"/>
       <c r="AH23" s="44"/>
       <c r="AI23" s="39" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AJ23" s="44" t="s">
-        <v>973</v>
-      </c>
-      <c r="AK23" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK23" s="44" t="s">
+        <v>971</v>
+      </c>
+      <c r="AL23" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="AL23" s="44" t="s">
+      <c r="AM23" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM23" s="44" t="s">
+      <c r="AN23" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN23" s="44" t="s">
+      <c r="AO23" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44" t="s">
-        <v>806</v>
-      </c>
+      <c r="AP23" s="44"/>
       <c r="AQ23" s="44" t="s">
-        <v>299</v>
+        <v>804</v>
       </c>
       <c r="AR23" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS23" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT23" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT23" s="51">
+      <c r="AU23" s="51">
         <v>42299</v>
       </c>
-      <c r="AU23" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV23" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B24" s="47" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>268</v>
@@ -8297,29 +8370,29 @@
         <v>215</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="44" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>268</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J24" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="L24" s="47" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M24" s="44" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="N24" s="44" t="s">
         <v>268</v>
@@ -8329,16 +8402,16 @@
         <v>229</v>
       </c>
       <c r="Q24" s="44" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="R24" s="47" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="S24" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="T24" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U24" s="44">
         <v>2</v>
@@ -8356,46 +8429,49 @@
       <c r="AG24" s="47"/>
       <c r="AH24" s="44"/>
       <c r="AI24" s="39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AJ24" s="44" t="s">
-        <v>974</v>
-      </c>
-      <c r="AK24" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK24" s="44" t="s">
+        <v>972</v>
+      </c>
+      <c r="AL24" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="AL24" s="44" t="s">
+      <c r="AM24" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM24" s="44" t="s">
+      <c r="AN24" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN24" s="44" t="s">
+      <c r="AO24" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="44" t="s">
-        <v>767</v>
-      </c>
+      <c r="AP24" s="44"/>
       <c r="AQ24" s="44" t="s">
-        <v>299</v>
+        <v>765</v>
       </c>
       <c r="AR24" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS24" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT24" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT24" s="51">
+      <c r="AU24" s="51">
         <v>42299</v>
       </c>
-      <c r="AU24" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV24" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B25" s="47" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>269</v>
@@ -8404,29 +8480,29 @@
         <v>215</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>269</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J25" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L25" s="47" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M25" s="44" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N25" s="44" t="s">
         <v>269</v>
@@ -8436,16 +8512,16 @@
         <v>229</v>
       </c>
       <c r="Q25" s="44" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="R25" s="47" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="S25" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="T25" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U25" s="44">
         <v>2</v>
@@ -8463,96 +8539,99 @@
       <c r="AG25" s="47"/>
       <c r="AH25" s="44"/>
       <c r="AI25" s="39" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AJ25" s="44" t="s">
-        <v>975</v>
-      </c>
-      <c r="AK25" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK25" s="44" t="s">
+        <v>973</v>
+      </c>
+      <c r="AL25" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="AL25" s="44" t="s">
+      <c r="AM25" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM25" s="44" t="s">
+      <c r="AN25" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN25" s="44" t="s">
+      <c r="AO25" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44" t="s">
-        <v>768</v>
-      </c>
+      <c r="AP25" s="44"/>
       <c r="AQ25" s="44" t="s">
-        <v>299</v>
+        <v>766</v>
       </c>
       <c r="AR25" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS25" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT25" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT25" s="51">
+      <c r="AU25" s="51">
         <v>42299</v>
       </c>
-      <c r="AU25" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV25" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B26" s="47" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="44" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>257</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J26" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="L26" s="47" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="N26" s="44" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O26" s="44"/>
       <c r="P26" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q26" s="44" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="R26" s="47" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="S26" s="44" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="T26" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U26" s="44"/>
       <c r="V26" s="44"/>
@@ -8560,123 +8639,126 @@
       <c r="X26" s="44"/>
       <c r="Y26" s="44"/>
       <c r="Z26" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA26" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB26" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC26" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD26" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="AA26" s="39" t="s">
+      <c r="AE26" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="AB26" s="40" t="s">
+      <c r="AF26" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="AC26" s="40" t="s">
+      <c r="AG26" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="AD26" s="44" t="s">
+      <c r="AH26" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="AE26" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF26" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG26" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH26" s="44" t="s">
-        <v>382</v>
-      </c>
       <c r="AI26" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="AJ26" s="44" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AK26" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="AK26" s="44" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AL26" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="AL26" s="44" t="s">
+      <c r="AM26" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM26" s="44" t="s">
+      <c r="AN26" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN26" s="44" t="s">
+      <c r="AO26" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44" t="s">
-        <v>807</v>
-      </c>
+      <c r="AP26" s="44"/>
       <c r="AQ26" s="44" t="s">
-        <v>299</v>
+        <v>805</v>
       </c>
       <c r="AR26" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS26" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT26" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT26" s="51">
+      <c r="AU26" s="51">
         <v>42299</v>
       </c>
-      <c r="AU26" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV26" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>256</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J27" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K27" s="44" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L27" s="47" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M27" s="61" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O27" s="44"/>
       <c r="P27" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q27" s="44" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="R27" s="47" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="S27" s="44" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U27" s="44"/>
       <c r="V27" s="44"/>
@@ -8684,123 +8766,126 @@
       <c r="X27" s="44"/>
       <c r="Y27" s="44"/>
       <c r="Z27" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA27" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB27" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC27" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD27" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="AA27" s="40" t="s">
+      <c r="AE27" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="AB27" s="40" t="s">
+      <c r="AF27" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="AC27" s="40" t="s">
+      <c r="AG27" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="AD27" s="44" t="s">
+      <c r="AH27" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="AE27" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="AF27" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG27" s="47" t="s">
-        <v>395</v>
-      </c>
-      <c r="AH27" s="44" t="s">
-        <v>391</v>
-      </c>
       <c r="AI27" s="39" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AJ27" s="44" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AK27" s="47" t="s">
+        <v>837</v>
+      </c>
+      <c r="AK27" s="44" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AL27" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="AL27" s="44" t="s">
+      <c r="AM27" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM27" s="44" t="s">
+      <c r="AN27" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN27" s="44" t="s">
+      <c r="AO27" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44" t="s">
-        <v>808</v>
-      </c>
+      <c r="AP27" s="44"/>
       <c r="AQ27" s="44" t="s">
-        <v>299</v>
+        <v>806</v>
       </c>
       <c r="AR27" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS27" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT27" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT27" s="51">
+      <c r="AU27" s="51">
         <v>42299</v>
       </c>
-      <c r="AU27" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV27" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="44" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H28" s="44" t="s">
         <v>258</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J28" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="L28" s="47" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M28" s="61" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O28" s="44"/>
       <c r="P28" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q28" s="44" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="R28" s="47" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="S28" s="44" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T28" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U28" s="44"/>
       <c r="V28" s="44"/>
@@ -8808,123 +8893,126 @@
       <c r="X28" s="44"/>
       <c r="Y28" s="44"/>
       <c r="Z28" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA28" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB28" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC28" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD28" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="AA28" s="40" t="s">
+      <c r="AE28" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="AB28" s="40" t="s">
+      <c r="AF28" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="AC28" s="40" t="s">
+      <c r="AG28" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="AD28" s="44" t="s">
+      <c r="AH28" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="AE28" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF28" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG28" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH28" s="44" t="s">
-        <v>400</v>
-      </c>
       <c r="AI28" s="39" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AJ28" s="44" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AK28" s="47" t="s">
+        <v>838</v>
+      </c>
+      <c r="AK28" s="44" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AL28" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="AL28" s="44" t="s">
+      <c r="AM28" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM28" s="44" t="s">
+      <c r="AN28" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN28" s="44" t="s">
+      <c r="AO28" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44" t="s">
-        <v>809</v>
-      </c>
+      <c r="AP28" s="44"/>
       <c r="AQ28" s="44" t="s">
-        <v>299</v>
+        <v>807</v>
       </c>
       <c r="AR28" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS28" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT28" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT28" s="51">
+      <c r="AU28" s="51">
         <v>42299</v>
       </c>
-      <c r="AU28" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV28" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B29" s="47" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D29" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>259</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J29" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L29" s="47" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="N29" s="44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O29" s="44"/>
       <c r="P29" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="R29" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U29" s="44"/>
       <c r="V29" s="44"/>
@@ -8932,123 +9020,126 @@
       <c r="X29" s="44"/>
       <c r="Y29" s="44"/>
       <c r="Z29" s="44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA29" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB29" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC29" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD29" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE29" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="AB29" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC29" s="40" t="s">
+      <c r="AF29" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG29" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="AD29" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE29" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF29" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG29" s="40" t="s">
-        <v>369</v>
-      </c>
       <c r="AH29" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AI29" s="39" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AJ29" s="44" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AK29" s="47" t="s">
+        <v>839</v>
+      </c>
+      <c r="AK29" s="44" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AL29" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="AL29" s="44" t="s">
+      <c r="AM29" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM29" s="44" t="s">
+      <c r="AN29" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN29" s="44" t="s">
+      <c r="AO29" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44" t="s">
-        <v>810</v>
-      </c>
+      <c r="AP29" s="44"/>
       <c r="AQ29" s="44" t="s">
-        <v>299</v>
+        <v>808</v>
       </c>
       <c r="AR29" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS29" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT29" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT29" s="51">
+      <c r="AU29" s="51">
         <v>42299</v>
       </c>
-      <c r="AU29" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV29" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B30" s="47" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="44" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H30" s="44" t="s">
         <v>260</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J30" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="L30" s="47" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M30" s="61" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N30" s="44" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O30" s="44"/>
       <c r="P30" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q30" s="44" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="R30" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="S30" s="44" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
@@ -9056,123 +9147,126 @@
       <c r="X30" s="44"/>
       <c r="Y30" s="44"/>
       <c r="Z30" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA30" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB30" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC30" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD30" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="AA30" s="40" t="s">
+      <c r="AE30" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="AB30" s="40" t="s">
+      <c r="AF30" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="AC30" s="40" t="s">
+      <c r="AG30" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH30" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="AD30" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE30" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF30" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG30" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH30" s="44" t="s">
-        <v>412</v>
-      </c>
       <c r="AI30" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AJ30" s="44" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AK30" s="47" t="s">
+        <v>840</v>
+      </c>
+      <c r="AK30" s="44" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AL30" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="AL30" s="44" t="s">
+      <c r="AM30" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM30" s="44" t="s">
+      <c r="AN30" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN30" s="44" t="s">
+      <c r="AO30" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="44" t="s">
-        <v>811</v>
-      </c>
+      <c r="AP30" s="44"/>
       <c r="AQ30" s="44" t="s">
-        <v>299</v>
+        <v>809</v>
       </c>
       <c r="AR30" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS30" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT30" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT30" s="51">
+      <c r="AU30" s="51">
         <v>42299</v>
       </c>
-      <c r="AU30" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV30" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B31" s="47" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>270</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E31" s="44" t="s">
         <v>223</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H31" s="44" t="s">
         <v>270</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J31" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K31" s="44" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L31" s="47" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="M31" s="61" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="N31" s="44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O31" s="44"/>
       <c r="P31" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q31" s="44" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="R31" s="47" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="S31" s="44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U31" s="44">
         <v>2</v>
@@ -9190,77 +9284,80 @@
       <c r="AG31" s="47"/>
       <c r="AH31" s="44"/>
       <c r="AI31" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AJ31" s="44" t="s">
-        <v>976</v>
-      </c>
-      <c r="AK31" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK31" s="44" t="s">
+        <v>974</v>
+      </c>
+      <c r="AL31" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="AL31" s="44" t="s">
+      <c r="AM31" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM31" s="44" t="s">
+      <c r="AN31" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN31" s="44" t="s">
+      <c r="AO31" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44" t="s">
-        <v>769</v>
-      </c>
+      <c r="AP31" s="44"/>
       <c r="AQ31" s="44" t="s">
-        <v>299</v>
+        <v>767</v>
       </c>
       <c r="AR31" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS31" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT31" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT31" s="51">
+      <c r="AU31" s="51">
         <v>42299</v>
       </c>
-      <c r="AU31" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV31" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B32" s="47" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D32" s="44" t="s">
         <v>215</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I32" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J32" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K32" s="44" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L32" s="47" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M32" s="61" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N32" s="44" t="s">
         <v>191</v>
@@ -9270,16 +9367,16 @@
         <v>130</v>
       </c>
       <c r="Q32" s="44" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="R32" s="47" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="S32" s="44" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U32" s="44"/>
       <c r="V32" s="44"/>
@@ -9287,73 +9384,76 @@
       <c r="X32" s="44"/>
       <c r="Y32" s="44"/>
       <c r="Z32" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA32" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB32" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="AA32" s="55" t="s">
+      <c r="AC32" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="AB32" s="44" t="s">
+      <c r="AD32" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="AC32" s="44" t="s">
+      <c r="AE32" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="AD32" s="44" t="s">
+      <c r="AF32" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="AE32" s="44" t="s">
+      <c r="AG32" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="AF32" s="44" t="s">
+      <c r="AH32" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="AG32" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="AH32" s="44" t="s">
-        <v>332</v>
-      </c>
       <c r="AI32" s="39" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AJ32" s="44" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AK32" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK32" s="44" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AL32" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="AL32" s="44" t="s">
+      <c r="AM32" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM32" s="44" t="s">
+      <c r="AN32" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AN32" s="44" t="s">
+      <c r="AO32" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44" t="s">
-        <v>770</v>
-      </c>
+      <c r="AP32" s="44"/>
       <c r="AQ32" s="44" t="s">
-        <v>299</v>
+        <v>768</v>
       </c>
       <c r="AR32" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS32" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT32" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT32" s="51">
+      <c r="AU32" s="51">
         <v>42299</v>
       </c>
-      <c r="AU32" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="33" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV32" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B33" s="47" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>271</v>
@@ -9362,29 +9462,29 @@
         <v>140</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J33" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K33" s="44" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="L33" s="47" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M33" s="61" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N33" s="44" t="s">
         <v>191</v>
@@ -9394,16 +9494,16 @@
         <v>130</v>
       </c>
       <c r="Q33" s="44" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="R33" s="47" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="S33" s="44" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T33" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U33" s="44"/>
       <c r="V33" s="44"/>
@@ -9411,73 +9511,76 @@
       <c r="X33" s="44"/>
       <c r="Y33" s="44"/>
       <c r="Z33" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA33" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB33" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="AA33" s="56" t="s">
+      <c r="AC33" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="AB33" s="46" t="s">
+      <c r="AD33" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="AC33" s="46" t="s">
+      <c r="AE33" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="AD33" s="46" t="s">
+      <c r="AF33" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="AE33" s="46" t="s">
+      <c r="AG33" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="AF33" s="46" t="s">
+      <c r="AH33" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="AG33" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH33" s="46" t="s">
-        <v>312</v>
-      </c>
       <c r="AI33" s="39" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AJ33" s="44" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AK33" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK33" s="44" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AL33" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="AL33" s="44" t="s">
+      <c r="AM33" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM33" s="44" t="s">
-        <v>303</v>
-      </c>
       <c r="AN33" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO33" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="44" t="s">
-        <v>771</v>
-      </c>
+      <c r="AP33" s="44"/>
       <c r="AQ33" s="44" t="s">
-        <v>299</v>
+        <v>769</v>
       </c>
       <c r="AR33" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS33" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT33" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT33" s="51">
+      <c r="AU33" s="51">
         <v>42299</v>
       </c>
-      <c r="AU33" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="34" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV33" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B34" s="47" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>290</v>
@@ -9486,47 +9589,47 @@
         <v>140</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J34" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K34" s="44" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L34" s="47" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M34" s="61" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="N34" s="44" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O34" s="44"/>
       <c r="P34" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q34" s="44" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="R34" s="47" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="S34" s="44" t="s">
         <v>212</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U34" s="44"/>
       <c r="V34" s="44"/>
@@ -9534,123 +9637,126 @@
       <c r="X34" s="44"/>
       <c r="Y34" s="44"/>
       <c r="Z34" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AA34" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB34" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC34" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD34" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE34" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="AB34" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC34" s="40" t="s">
+      <c r="AF34" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG34" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="AD34" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="AE34" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF34" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG34" s="44" t="s">
-        <v>373</v>
-      </c>
       <c r="AH34" s="44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AI34" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="AJ34" s="44" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AK34" s="58" t="s">
+        <v>608</v>
+      </c>
+      <c r="AJ34" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK34" s="44" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AL34" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="AL34" s="44" t="s">
+      <c r="AM34" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM34" s="44" t="s">
-        <v>303</v>
-      </c>
       <c r="AN34" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO34" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="44" t="s">
-        <v>772</v>
-      </c>
+      <c r="AP34" s="44"/>
       <c r="AQ34" s="44" t="s">
-        <v>299</v>
+        <v>770</v>
       </c>
       <c r="AR34" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS34" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT34" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT34" s="51">
+      <c r="AU34" s="51">
         <v>42299</v>
       </c>
-      <c r="AU34" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="35" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV34" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="35" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B35" s="47" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="44" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>257</v>
       </c>
       <c r="I35" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J35" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="L35" s="47" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M35" s="61" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="N35" s="44" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O35" s="44"/>
       <c r="P35" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q35" s="44" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="R35" s="47" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="S35" s="44" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="T35" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U35" s="44"/>
       <c r="V35" s="44"/>
@@ -9658,123 +9764,126 @@
       <c r="X35" s="44"/>
       <c r="Y35" s="44"/>
       <c r="Z35" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA35" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB35" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC35" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD35" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="AA35" s="39" t="s">
+      <c r="AE35" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="AB35" s="40" t="s">
+      <c r="AF35" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="AC35" s="40" t="s">
+      <c r="AG35" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="AD35" s="44" t="s">
+      <c r="AH35" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="AE35" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF35" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG35" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH35" s="44" t="s">
-        <v>382</v>
-      </c>
       <c r="AI35" s="39" t="s">
-        <v>611</v>
-      </c>
-      <c r="AJ35" s="44" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AK35" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="AK35" s="44" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AL35" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="AL35" s="44" t="s">
+      <c r="AM35" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM35" s="44" t="s">
+      <c r="AN35" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN35" s="44" t="s">
+      <c r="AO35" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="44" t="s">
-        <v>773</v>
-      </c>
+      <c r="AP35" s="44"/>
       <c r="AQ35" s="44" t="s">
-        <v>299</v>
+        <v>771</v>
       </c>
       <c r="AR35" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS35" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT35" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT35" s="51">
+      <c r="AU35" s="51">
         <v>42299</v>
       </c>
-      <c r="AU35" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="36" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV35" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B36" s="47" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="44" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H36" s="44" t="s">
         <v>256</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J36" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K36" s="44" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="L36" s="47" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M36" s="61" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N36" s="44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O36" s="44"/>
       <c r="P36" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q36" s="44" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="R36" s="47" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="S36" s="44" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="T36" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U36" s="44"/>
       <c r="V36" s="44"/>
@@ -9782,123 +9891,126 @@
       <c r="X36" s="44"/>
       <c r="Y36" s="44"/>
       <c r="Z36" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA36" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB36" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC36" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD36" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="AA36" s="40" t="s">
+      <c r="AE36" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="AB36" s="40" t="s">
+      <c r="AF36" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="AC36" s="40" t="s">
+      <c r="AG36" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="AD36" s="44" t="s">
+      <c r="AH36" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="AE36" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="AF36" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG36" s="47" t="s">
-        <v>395</v>
-      </c>
-      <c r="AH36" s="44" t="s">
-        <v>391</v>
-      </c>
       <c r="AI36" s="39" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AJ36" s="44" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AK36" s="47" t="s">
+        <v>841</v>
+      </c>
+      <c r="AK36" s="44" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AL36" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="AL36" s="44" t="s">
+      <c r="AM36" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM36" s="44" t="s">
+      <c r="AN36" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN36" s="44" t="s">
+      <c r="AO36" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO36" s="44"/>
-      <c r="AP36" s="44" t="s">
-        <v>774</v>
-      </c>
+      <c r="AP36" s="44"/>
       <c r="AQ36" s="44" t="s">
-        <v>299</v>
+        <v>772</v>
       </c>
       <c r="AR36" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS36" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT36" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT36" s="51">
+      <c r="AU36" s="51">
         <v>42299</v>
       </c>
-      <c r="AU36" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="37" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV36" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B37" s="47" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F37" s="44"/>
       <c r="G37" s="44" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H37" s="44" t="s">
         <v>258</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J37" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K37" s="44" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="L37" s="47" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M37" s="61" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N37" s="44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O37" s="44"/>
       <c r="P37" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q37" s="44" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="R37" s="47" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="S37" s="44" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T37" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U37" s="44"/>
       <c r="V37" s="44"/>
@@ -9906,123 +10018,126 @@
       <c r="X37" s="44"/>
       <c r="Y37" s="44"/>
       <c r="Z37" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA37" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB37" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC37" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD37" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="AA37" s="40" t="s">
+      <c r="AE37" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="AB37" s="40" t="s">
+      <c r="AF37" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="AC37" s="40" t="s">
+      <c r="AG37" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="AD37" s="44" t="s">
+      <c r="AH37" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="AE37" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF37" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG37" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH37" s="44" t="s">
-        <v>400</v>
-      </c>
       <c r="AI37" s="39" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AJ37" s="44" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AK37" s="47" t="s">
+        <v>842</v>
+      </c>
+      <c r="AK37" s="44" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AL37" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="AL37" s="44" t="s">
+      <c r="AM37" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM37" s="44" t="s">
+      <c r="AN37" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN37" s="44" t="s">
+      <c r="AO37" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO37" s="44"/>
-      <c r="AP37" s="44" t="s">
-        <v>775</v>
-      </c>
+      <c r="AP37" s="44"/>
       <c r="AQ37" s="44" t="s">
-        <v>299</v>
+        <v>773</v>
       </c>
       <c r="AR37" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS37" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT37" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT37" s="51">
+      <c r="AU37" s="51">
         <v>42299</v>
       </c>
-      <c r="AU37" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV37" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="38" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B38" s="47" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H38" s="44" t="s">
         <v>259</v>
       </c>
       <c r="I38" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J38" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K38" s="44" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="L38" s="47" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M38" s="61" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="N38" s="44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O38" s="44"/>
       <c r="P38" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q38" s="44" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="R38" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="S38" s="44" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="T38" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U38" s="44"/>
       <c r="V38" s="44"/>
@@ -10030,123 +10145,126 @@
       <c r="X38" s="44"/>
       <c r="Y38" s="44"/>
       <c r="Z38" s="44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA38" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB38" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC38" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD38" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE38" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="AB38" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC38" s="40" t="s">
+      <c r="AF38" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG38" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="AD38" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE38" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF38" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG38" s="40" t="s">
-        <v>369</v>
-      </c>
       <c r="AH38" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AI38" s="39" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AJ38" s="44" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AK38" s="47" t="s">
+        <v>843</v>
+      </c>
+      <c r="AK38" s="44" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AL38" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="AL38" s="44" t="s">
+      <c r="AM38" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM38" s="44" t="s">
+      <c r="AN38" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN38" s="44" t="s">
+      <c r="AO38" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO38" s="44"/>
-      <c r="AP38" s="44" t="s">
-        <v>776</v>
-      </c>
+      <c r="AP38" s="44"/>
       <c r="AQ38" s="44" t="s">
-        <v>299</v>
+        <v>774</v>
       </c>
       <c r="AR38" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS38" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT38" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT38" s="51">
+      <c r="AU38" s="51">
         <v>42299</v>
       </c>
-      <c r="AU38" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV38" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B39" s="47" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="44" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H39" s="44" t="s">
         <v>260</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J39" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K39" s="44" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="L39" s="47" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M39" s="61" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N39" s="44" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O39" s="44"/>
       <c r="P39" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q39" s="44" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="R39" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="S39" s="44" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U39" s="44"/>
       <c r="V39" s="44"/>
@@ -10154,73 +10272,76 @@
       <c r="X39" s="44"/>
       <c r="Y39" s="44"/>
       <c r="Z39" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA39" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB39" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC39" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD39" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="AA39" s="40" t="s">
+      <c r="AE39" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="AB39" s="40" t="s">
+      <c r="AF39" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="AC39" s="40" t="s">
+      <c r="AG39" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH39" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="AD39" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE39" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF39" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG39" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH39" s="44" t="s">
-        <v>412</v>
-      </c>
       <c r="AI39" s="39" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AJ39" s="44" t="s">
+        <v>844</v>
+      </c>
+      <c r="AK39" s="44" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AL39" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM39" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN39" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO39" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="44" t="s">
+        <v>775</v>
+      </c>
+      <c r="AR39" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AK39" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL39" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM39" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN39" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO39" s="44"/>
-      <c r="AP39" s="44" t="s">
-        <v>777</v>
-      </c>
-      <c r="AQ39" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR39" s="44" t="s">
-        <v>440</v>
-      </c>
       <c r="AS39" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT39" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT39" s="51">
+      <c r="AU39" s="51">
         <v>42299</v>
       </c>
-      <c r="AU39" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV39" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B40" s="47" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>230</v>
@@ -10229,48 +10350,48 @@
         <v>225</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="44" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H40" s="44" t="s">
         <v>230</v>
       </c>
       <c r="I40" s="44" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J40" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K40" s="44" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L40" s="47" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="M40" s="61" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N40" s="44" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O40" s="44"/>
       <c r="P40" s="44" t="s">
         <v>130</v>
       </c>
       <c r="Q40" s="44" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="R40" s="47" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="S40" s="44" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="T40" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U40" s="44"/>
       <c r="V40" s="44"/>
@@ -10278,73 +10399,76 @@
       <c r="X40" s="44"/>
       <c r="Y40" s="44"/>
       <c r="Z40" s="44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA40" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB40" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC40" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD40" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE40" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="AB40" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC40" s="40" t="s">
+      <c r="AF40" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG40" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="AD40" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE40" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF40" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG40" s="40" t="s">
-        <v>369</v>
-      </c>
       <c r="AH40" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AI40" s="39" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AJ40" s="44" t="s">
-        <v>1026</v>
+        <v>230</v>
       </c>
       <c r="AK40" s="44" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AL40" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="AL40" s="44" t="s">
+      <c r="AM40" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM40" s="44" t="s">
-        <v>301</v>
-      </c>
       <c r="AN40" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO40" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO40" s="44"/>
-      <c r="AP40" s="44" t="s">
-        <v>849</v>
-      </c>
+      <c r="AP40" s="44"/>
       <c r="AQ40" s="44" t="s">
-        <v>300</v>
+        <v>847</v>
       </c>
       <c r="AR40" s="44" t="s">
-        <v>441</v>
+        <v>1033</v>
       </c>
       <c r="AS40" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT40" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT40" s="51">
+      <c r="AU40" s="51">
         <v>42299</v>
       </c>
-      <c r="AU40" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV40" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="41" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B41" s="47" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>165</v>
@@ -10353,26 +10477,26 @@
         <v>226</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="44" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H41" s="44" t="s">
         <v>165</v>
       </c>
       <c r="I41" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J41" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K41" s="44" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L41" s="47" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M41" s="44" t="s">
         <v>198</v>
@@ -10385,10 +10509,10 @@
         <v>229</v>
       </c>
       <c r="Q41" s="44" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="R41" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S41" s="44" t="s">
         <v>141</v>
@@ -10417,46 +10541,49 @@
       <c r="AG41" s="44"/>
       <c r="AH41" s="44"/>
       <c r="AI41" s="39" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AJ41" s="44" t="s">
-        <v>977</v>
+        <v>165</v>
       </c>
       <c r="AK41" s="44" t="s">
-        <v>577</v>
+        <v>975</v>
       </c>
       <c r="AL41" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM41" s="44" t="s">
+        <v>846</v>
+      </c>
+      <c r="AN41" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO41" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP41" s="44"/>
+      <c r="AQ41" s="44" t="s">
         <v>848</v>
       </c>
-      <c r="AM41" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN41" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO41" s="44"/>
-      <c r="AP41" s="44" t="s">
-        <v>850</v>
-      </c>
-      <c r="AQ41" s="44" t="s">
-        <v>300</v>
-      </c>
       <c r="AR41" s="44" t="s">
-        <v>441</v>
+        <v>1033</v>
       </c>
       <c r="AS41" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT41" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT41" s="51">
+      <c r="AU41" s="51">
         <v>42299</v>
       </c>
-      <c r="AU41" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV41" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B42" s="47" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>296</v>
@@ -10465,26 +10592,26 @@
         <v>226</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="44" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H42" s="44" t="s">
         <v>296</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J42" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K42" s="44" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L42" s="47" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M42" s="44" t="s">
         <v>199</v>
@@ -10497,13 +10624,13 @@
         <v>229</v>
       </c>
       <c r="Q42" s="44" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="R42" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="S42" s="44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T42" s="45" t="s">
         <v>213</v>
@@ -10527,46 +10654,49 @@
       <c r="AG42" s="44"/>
       <c r="AH42" s="44"/>
       <c r="AI42" s="39" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AJ42" s="44" t="s">
-        <v>983</v>
+        <v>296</v>
       </c>
       <c r="AK42" s="44" t="s">
+        <v>981</v>
+      </c>
+      <c r="AL42" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="AL42" s="44" t="s">
+      <c r="AM42" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM42" s="44" t="s">
+      <c r="AN42" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN42" s="44" t="s">
+      <c r="AO42" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO42" s="44"/>
-      <c r="AP42" s="44" t="s">
-        <v>778</v>
-      </c>
+      <c r="AP42" s="44"/>
       <c r="AQ42" s="44" t="s">
-        <v>299</v>
+        <v>776</v>
       </c>
       <c r="AR42" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS42" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT42" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT42" s="51">
+      <c r="AU42" s="51">
         <v>42299</v>
       </c>
-      <c r="AU42" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV42" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B43" s="47" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>297</v>
@@ -10575,26 +10705,26 @@
         <v>226</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F43" s="44"/>
       <c r="G43" s="44" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H43" s="44" t="s">
         <v>297</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J43" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K43" s="44" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L43" s="47" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M43" s="44" t="s">
         <v>201</v>
@@ -10607,13 +10737,13 @@
         <v>229</v>
       </c>
       <c r="Q43" s="44" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="R43" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="S43" s="44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T43" s="45" t="s">
         <v>213</v>
@@ -10637,46 +10767,49 @@
       <c r="AG43" s="44"/>
       <c r="AH43" s="44"/>
       <c r="AI43" s="39" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AJ43" s="44" t="s">
-        <v>984</v>
+        <v>297</v>
       </c>
       <c r="AK43" s="44" t="s">
+        <v>982</v>
+      </c>
+      <c r="AL43" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="AL43" s="44" t="s">
+      <c r="AM43" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM43" s="44" t="s">
+      <c r="AN43" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN43" s="44" t="s">
+      <c r="AO43" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44" t="s">
-        <v>779</v>
-      </c>
+      <c r="AP43" s="44"/>
       <c r="AQ43" s="44" t="s">
-        <v>299</v>
+        <v>777</v>
       </c>
       <c r="AR43" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS43" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT43" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT43" s="51">
+      <c r="AU43" s="51">
         <v>42299</v>
       </c>
-      <c r="AU43" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV43" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B44" s="47" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>295</v>
@@ -10685,29 +10818,29 @@
         <v>226</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="44" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H44" s="44" t="s">
         <v>295</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J44" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K44" s="44" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="L44" s="47" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M44" s="44" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="N44" s="44" t="s">
         <v>200</v>
@@ -10717,13 +10850,13 @@
         <v>229</v>
       </c>
       <c r="Q44" s="44" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="R44" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="S44" s="44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T44" s="45" t="s">
         <v>213</v>
@@ -10747,46 +10880,49 @@
       <c r="AG44" s="44"/>
       <c r="AH44" s="44"/>
       <c r="AI44" s="39" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AJ44" s="44" t="s">
-        <v>985</v>
-      </c>
-      <c r="AK44" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK44" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="AL44" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="AL44" s="44" t="s">
+      <c r="AM44" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM44" s="44" t="s">
+      <c r="AN44" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN44" s="44" t="s">
+      <c r="AO44" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO44" s="44"/>
-      <c r="AP44" s="44" t="s">
-        <v>780</v>
-      </c>
+      <c r="AP44" s="44"/>
       <c r="AQ44" s="44" t="s">
-        <v>299</v>
+        <v>778</v>
       </c>
       <c r="AR44" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS44" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT44" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT44" s="51">
+      <c r="AU44" s="51">
         <v>42299</v>
       </c>
-      <c r="AU44" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV44" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="45" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B45" s="47" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>298</v>
@@ -10795,29 +10931,29 @@
         <v>226</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="44" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>298</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J45" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K45" s="44" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N45" s="44" t="s">
         <v>200</v>
@@ -10827,13 +10963,13 @@
         <v>229</v>
       </c>
       <c r="Q45" s="44" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="R45" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="S45" s="44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T45" s="45" t="s">
         <v>213</v>
@@ -10857,46 +10993,49 @@
       <c r="AG45" s="44"/>
       <c r="AH45" s="44"/>
       <c r="AI45" s="39" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AJ45" s="44" t="s">
-        <v>986</v>
-      </c>
-      <c r="AK45" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK45" s="44" t="s">
+        <v>984</v>
+      </c>
+      <c r="AL45" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="AL45" s="44" t="s">
+      <c r="AM45" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM45" s="44" t="s">
+      <c r="AN45" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN45" s="44" t="s">
+      <c r="AO45" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO45" s="44"/>
-      <c r="AP45" s="44" t="s">
-        <v>781</v>
-      </c>
+      <c r="AP45" s="44"/>
       <c r="AQ45" s="44" t="s">
-        <v>299</v>
+        <v>779</v>
       </c>
       <c r="AR45" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS45" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT45" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT45" s="51">
+      <c r="AU45" s="51">
         <v>42299</v>
       </c>
-      <c r="AU45" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV45" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B46" s="47" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>166</v>
@@ -10905,26 +11044,26 @@
         <v>226</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F46" s="44"/>
       <c r="G46" s="44" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H46" s="44" t="s">
         <v>166</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J46" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K46" s="44" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="L46" s="47" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="M46" s="44" t="s">
         <v>202</v>
@@ -10937,13 +11076,13 @@
         <v>229</v>
       </c>
       <c r="Q46" s="44" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="R46" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="S46" s="44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T46" s="45" t="s">
         <v>213</v>
@@ -10967,46 +11106,49 @@
       <c r="AG46" s="44"/>
       <c r="AH46" s="44"/>
       <c r="AI46" s="39" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AJ46" s="44" t="s">
-        <v>987</v>
-      </c>
-      <c r="AK46" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK46" s="44" t="s">
+        <v>985</v>
+      </c>
+      <c r="AL46" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="AL46" s="44" t="s">
+      <c r="AM46" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM46" s="44" t="s">
+      <c r="AN46" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN46" s="44" t="s">
+      <c r="AO46" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO46" s="44"/>
-      <c r="AP46" s="44" t="s">
-        <v>782</v>
-      </c>
+      <c r="AP46" s="44"/>
       <c r="AQ46" s="44" t="s">
-        <v>299</v>
+        <v>780</v>
       </c>
       <c r="AR46" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS46" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT46" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT46" s="51">
+      <c r="AU46" s="51">
         <v>42299</v>
       </c>
-      <c r="AU46" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV46" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="47" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B47" s="47" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C47" s="44" t="s">
         <v>167</v>
@@ -11015,26 +11157,26 @@
         <v>226</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F47" s="44"/>
       <c r="G47" s="44" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H47" s="44" t="s">
         <v>186</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J47" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K47" s="44" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="L47" s="47" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M47" s="44" t="s">
         <v>204</v>
@@ -11047,13 +11189,13 @@
         <v>229</v>
       </c>
       <c r="Q47" s="44" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="R47" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="S47" s="44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T47" s="45" t="s">
         <v>213</v>
@@ -11077,46 +11219,49 @@
       <c r="AG47" s="44"/>
       <c r="AH47" s="44"/>
       <c r="AI47" s="39" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AJ47" s="44" t="s">
-        <v>988</v>
+        <v>167</v>
       </c>
       <c r="AK47" s="44" t="s">
+        <v>986</v>
+      </c>
+      <c r="AL47" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="AL47" s="44" t="s">
+      <c r="AM47" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM47" s="44" t="s">
+      <c r="AN47" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN47" s="44" t="s">
+      <c r="AO47" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO47" s="44"/>
-      <c r="AP47" s="44" t="s">
-        <v>817</v>
-      </c>
+      <c r="AP47" s="44"/>
       <c r="AQ47" s="44" t="s">
-        <v>300</v>
+        <v>815</v>
       </c>
       <c r="AR47" s="44" t="s">
-        <v>441</v>
+        <v>1033</v>
       </c>
       <c r="AS47" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT47" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT47" s="51">
+      <c r="AU47" s="51">
         <v>42299</v>
       </c>
-      <c r="AU47" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="48" spans="2:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV47" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="48" spans="2:48" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="47" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C48" s="44" t="s">
         <v>168</v>
@@ -11125,42 +11270,42 @@
         <v>226</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F48" s="44"/>
       <c r="G48" s="44" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H48" s="44" t="s">
         <v>187</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J48" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K48" s="44" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="L48" s="47" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M48" s="44" t="s">
         <v>206</v>
       </c>
       <c r="N48" s="45" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="O48" s="44"/>
       <c r="P48" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q48" s="44" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="R48" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S48" s="44" t="s">
         <v>141</v>
@@ -11189,46 +11334,49 @@
       <c r="AG48" s="44"/>
       <c r="AH48" s="44"/>
       <c r="AI48" s="39" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AJ48" s="44" t="s">
-        <v>978</v>
+        <v>168</v>
       </c>
       <c r="AK48" s="44" t="s">
+        <v>976</v>
+      </c>
+      <c r="AL48" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="AL48" s="44" t="s">
+      <c r="AM48" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM48" s="44" t="s">
+      <c r="AN48" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN48" s="44" t="s">
+      <c r="AO48" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO48" s="44"/>
-      <c r="AP48" s="44" t="s">
-        <v>818</v>
-      </c>
+      <c r="AP48" s="44"/>
       <c r="AQ48" s="44" t="s">
-        <v>300</v>
+        <v>816</v>
       </c>
       <c r="AR48" s="44" t="s">
-        <v>441</v>
+        <v>1033</v>
       </c>
       <c r="AS48" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT48" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT48" s="51">
+      <c r="AU48" s="51">
         <v>42299</v>
       </c>
-      <c r="AU48" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV48" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B49" s="47" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C49" s="44" t="s">
         <v>169</v>
@@ -11237,42 +11385,42 @@
         <v>226</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F49" s="44"/>
       <c r="G49" s="44" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>169</v>
       </c>
       <c r="I49" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J49" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K49" s="44" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L49" s="47" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="M49" s="44" t="s">
         <v>207</v>
       </c>
       <c r="N49" s="44" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="O49" s="44"/>
       <c r="P49" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q49" s="44" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="R49" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S49" s="44" t="s">
         <v>141</v>
@@ -11301,46 +11449,49 @@
       <c r="AG49" s="44"/>
       <c r="AH49" s="44"/>
       <c r="AI49" s="39" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AJ49" s="44" t="s">
-        <v>979</v>
-      </c>
-      <c r="AK49" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK49" s="44" t="s">
+        <v>977</v>
+      </c>
+      <c r="AL49" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="AL49" s="44" t="s">
+      <c r="AM49" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM49" s="44" t="s">
+      <c r="AN49" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN49" s="44" t="s">
+      <c r="AO49" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO49" s="44"/>
-      <c r="AP49" s="44" t="s">
-        <v>783</v>
-      </c>
+      <c r="AP49" s="44"/>
       <c r="AQ49" s="44" t="s">
-        <v>299</v>
+        <v>781</v>
       </c>
       <c r="AR49" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS49" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT49" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT49" s="51">
+      <c r="AU49" s="51">
         <v>42299</v>
       </c>
-      <c r="AU49" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV49" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B50" s="47" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C50" s="44" t="s">
         <v>170</v>
@@ -11349,42 +11500,42 @@
         <v>226</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F50" s="44"/>
       <c r="G50" s="44" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H50" s="44" t="s">
         <v>170</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J50" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="L50" s="47" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M50" s="44" t="s">
         <v>208</v>
       </c>
       <c r="N50" s="44" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="O50" s="44"/>
       <c r="P50" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q50" s="44" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="R50" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S50" s="44" t="s">
         <v>141</v>
@@ -11413,46 +11564,49 @@
       <c r="AG50" s="44"/>
       <c r="AH50" s="44"/>
       <c r="AI50" s="39" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AJ50" s="44" t="s">
-        <v>980</v>
-      </c>
-      <c r="AK50" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK50" s="44" t="s">
+        <v>978</v>
+      </c>
+      <c r="AL50" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="AL50" s="44" t="s">
+      <c r="AM50" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM50" s="44" t="s">
+      <c r="AN50" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN50" s="44" t="s">
+      <c r="AO50" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO50" s="44"/>
-      <c r="AP50" s="44" t="s">
-        <v>784</v>
-      </c>
+      <c r="AP50" s="44"/>
       <c r="AQ50" s="44" t="s">
-        <v>299</v>
+        <v>782</v>
       </c>
       <c r="AR50" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS50" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT50" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT50" s="51">
+      <c r="AU50" s="51">
         <v>42299</v>
       </c>
-      <c r="AU50" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV50" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B51" s="47" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C51" s="44" t="s">
         <v>171</v>
@@ -11461,42 +11615,42 @@
         <v>226</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F51" s="44"/>
       <c r="G51" s="44" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H51" s="44" t="s">
         <v>171</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J51" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K51" s="44" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="L51" s="47" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M51" s="44" t="s">
         <v>209</v>
       </c>
       <c r="N51" s="44" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="O51" s="44"/>
       <c r="P51" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q51" s="44" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="R51" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S51" s="44" t="s">
         <v>141</v>
@@ -11525,46 +11679,49 @@
       <c r="AG51" s="44"/>
       <c r="AH51" s="44"/>
       <c r="AI51" s="39" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AJ51" s="44" t="s">
-        <v>981</v>
-      </c>
-      <c r="AK51" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK51" s="44" t="s">
+        <v>979</v>
+      </c>
+      <c r="AL51" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="AL51" s="44" t="s">
+      <c r="AM51" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM51" s="44" t="s">
+      <c r="AN51" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN51" s="44" t="s">
+      <c r="AO51" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO51" s="44"/>
-      <c r="AP51" s="44" t="s">
-        <v>785</v>
-      </c>
+      <c r="AP51" s="44"/>
       <c r="AQ51" s="44" t="s">
-        <v>299</v>
+        <v>783</v>
       </c>
       <c r="AR51" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS51" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT51" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT51" s="51">
+      <c r="AU51" s="51">
         <v>42299</v>
       </c>
-      <c r="AU51" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV51" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B52" s="47" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C52" s="44" t="s">
         <v>172</v>
@@ -11573,42 +11730,42 @@
         <v>226</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F52" s="44"/>
       <c r="G52" s="44" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H52" s="44" t="s">
         <v>172</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J52" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K52" s="44" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="L52" s="47" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="M52" s="44" t="s">
         <v>210</v>
       </c>
       <c r="N52" s="44" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="O52" s="44"/>
       <c r="P52" s="44" t="s">
         <v>229</v>
       </c>
       <c r="Q52" s="44" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="R52" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S52" s="44" t="s">
         <v>141</v>
@@ -11637,96 +11794,99 @@
       <c r="AG52" s="44"/>
       <c r="AH52" s="44"/>
       <c r="AI52" s="39" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AJ52" s="44" t="s">
-        <v>982</v>
-      </c>
-      <c r="AK52" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK52" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="AL52" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="AL52" s="44" t="s">
+      <c r="AM52" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM52" s="44" t="s">
+      <c r="AN52" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN52" s="44" t="s">
+      <c r="AO52" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO52" s="44"/>
-      <c r="AP52" s="44" t="s">
-        <v>786</v>
-      </c>
+      <c r="AP52" s="44"/>
       <c r="AQ52" s="44" t="s">
-        <v>299</v>
+        <v>784</v>
       </c>
       <c r="AR52" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS52" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT52" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT52" s="51">
+      <c r="AU52" s="51">
         <v>42299</v>
       </c>
-      <c r="AU52" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV52" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
       <c r="B53" s="47" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D53" s="44" t="s">
         <v>140</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F53" s="44"/>
       <c r="G53" s="44" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I53" s="62" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J53" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K53" s="44" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="L53" s="47" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="M53" s="44" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="N53" s="44" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="O53" s="44" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="P53" s="44" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q53" s="44" t="s">
+        <v>809</v>
+      </c>
+      <c r="R53" s="47" t="s">
+        <v>879</v>
+      </c>
+      <c r="S53" s="44" t="s">
         <v>880</v>
-      </c>
-      <c r="Q53" s="44" t="s">
-        <v>811</v>
-      </c>
-      <c r="R53" s="47" t="s">
-        <v>881</v>
-      </c>
-      <c r="S53" s="44" t="s">
-        <v>882</v>
       </c>
       <c r="T53" s="45" t="s">
         <v>213</v>
@@ -11741,120 +11901,123 @@
       <c r="X53" s="44"/>
       <c r="Y53" s="44"/>
       <c r="Z53" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AA53" s="47" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AB53" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AC53" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AD53" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AE53" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AF53" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AG53" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AH53" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AI53" s="39" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="AJ53" s="44" t="s">
-        <v>989</v>
+        <v>892</v>
       </c>
       <c r="AK53" s="44" t="s">
-        <v>867</v>
+        <v>987</v>
       </c>
       <c r="AL53" s="44" t="s">
+        <v>865</v>
+      </c>
+      <c r="AM53" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM53" s="44" t="s">
+      <c r="AN53" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN53" s="44" t="s">
+      <c r="AO53" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO53" s="44"/>
-      <c r="AP53" s="44" t="s">
-        <v>811</v>
-      </c>
+      <c r="AP53" s="44"/>
       <c r="AQ53" s="44" t="s">
-        <v>299</v>
+        <v>809</v>
       </c>
       <c r="AR53" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS53" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT53" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT53" s="51">
+      <c r="AU53" s="51">
         <v>42299</v>
       </c>
-      <c r="AU53" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV53" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
       <c r="B54" s="47" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D54" s="44" t="s">
         <v>225</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F54" s="44"/>
       <c r="G54" s="44" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I54" s="62" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J54" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K54" s="44" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L54" s="47" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="M54" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="N54" s="44" t="s">
         <v>876</v>
       </c>
-      <c r="N54" s="44" t="s">
+      <c r="O54" s="44" t="s">
+        <v>889</v>
+      </c>
+      <c r="P54" s="44" t="s">
         <v>878</v>
       </c>
-      <c r="O54" s="44" t="s">
-        <v>891</v>
-      </c>
-      <c r="P54" s="44" t="s">
-        <v>880</v>
-      </c>
       <c r="Q54" s="44" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="R54" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S54" s="44" t="s">
         <v>141</v>
@@ -11883,93 +12046,96 @@
       <c r="AG54" s="44"/>
       <c r="AH54" s="44"/>
       <c r="AI54" s="39" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AJ54" s="44" t="s">
-        <v>990</v>
+        <v>853</v>
       </c>
       <c r="AK54" s="44" t="s">
-        <v>856</v>
+        <v>988</v>
       </c>
       <c r="AL54" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="AM54" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM54" s="44" t="s">
+      <c r="AN54" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN54" s="44" t="s">
+      <c r="AO54" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO54" s="44"/>
-      <c r="AP54" s="44" t="s">
-        <v>868</v>
-      </c>
+      <c r="AP54" s="44"/>
       <c r="AQ54" s="44" t="s">
-        <v>299</v>
+        <v>866</v>
       </c>
       <c r="AR54" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS54" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT54" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT54" s="51">
+      <c r="AU54" s="51">
         <v>42299</v>
       </c>
-      <c r="AU54" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV54" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
       <c r="B55" s="47" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>140</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F55" s="44"/>
       <c r="G55" s="44" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I55" s="62" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J55" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K55" s="44" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="L55" s="47" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="M55" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="N55" s="44" t="s">
         <v>877</v>
       </c>
-      <c r="N55" s="44" t="s">
-        <v>879</v>
-      </c>
       <c r="O55" s="44" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="P55" s="44" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="Q55" s="44" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="R55" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S55" s="44" t="s">
         <v>141</v>
@@ -11998,93 +12164,96 @@
       <c r="AG55" s="44"/>
       <c r="AH55" s="44"/>
       <c r="AI55" s="39" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AJ55" s="44" t="s">
-        <v>889</v>
+        <v>855</v>
       </c>
       <c r="AK55" s="44" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="AL55" s="44" t="s">
+        <v>891</v>
+      </c>
+      <c r="AM55" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM55" s="44" t="s">
+      <c r="AN55" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN55" s="44" t="s">
+      <c r="AO55" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO55" s="44"/>
-      <c r="AP55" s="44" t="s">
-        <v>869</v>
-      </c>
+      <c r="AP55" s="44"/>
       <c r="AQ55" s="44" t="s">
-        <v>299</v>
+        <v>867</v>
       </c>
       <c r="AR55" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS55" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT55" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT55" s="51">
+      <c r="AU55" s="51">
         <v>42299</v>
       </c>
-      <c r="AU55" s="44" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV55" s="44" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
       <c r="B56" s="47" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D56" s="44" t="s">
         <v>140</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F56" s="44"/>
       <c r="G56" s="44" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H56" s="44" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I56" s="62" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J56" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K56" s="44" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="L56" s="47" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="M56" s="44" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N56" s="44" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="O56" s="44" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="P56" s="44" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="Q56" s="44" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="R56" s="47" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S56" s="44" t="s">
         <v>141</v>
@@ -12104,74 +12273,77 @@
       <c r="X56" s="44"/>
       <c r="Y56" s="44"/>
       <c r="Z56" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AA56" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AB56" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AC56" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AD56" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AE56" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AF56" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AG56" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AH56" s="44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AI56" s="39" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AJ56" s="44" t="s">
-        <v>890</v>
+        <v>856</v>
       </c>
       <c r="AK56" s="44" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
       <c r="AL56" s="44" t="s">
+        <v>857</v>
+      </c>
+      <c r="AM56" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AM56" s="44" t="s">
+      <c r="AN56" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AN56" s="44" t="s">
+      <c r="AO56" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AO56" s="44"/>
-      <c r="AP56" s="44" t="s">
-        <v>870</v>
-      </c>
+      <c r="AP56" s="44"/>
       <c r="AQ56" s="44" t="s">
-        <v>299</v>
+        <v>868</v>
       </c>
       <c r="AR56" s="44" t="s">
-        <v>440</v>
+        <v>1025</v>
       </c>
       <c r="AS56" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT56" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AT56" s="51">
+      <c r="AU56" s="51">
         <v>42299</v>
       </c>
-      <c r="AU56" s="44" t="s">
-        <v>572</v>
+      <c r="AV56" s="44" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AK34" r:id="rId1" display="WED@"/>
+    <hyperlink ref="AL34" r:id="rId1" display="WED@"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
@@ -12201,455 +12373,455 @@
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AM2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
       <c r="C8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M23" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M25" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M26" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O27" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O28" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M29" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M31" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="O31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M32" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M33" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M35" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O35" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M36" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O36" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M37" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O37" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O38" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M39" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M40" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M41" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M42" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M44" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M45" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M46" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M47" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M48" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M49" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M50" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M51" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M52" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -12676,205 +12848,205 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" t="s">
         <v>544</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>545</v>
       </c>
-      <c r="D1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E1" t="s">
-        <v>547</v>
-      </c>
       <c r="F1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B3" t="s">
         <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s">
         <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
         <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s">
         <v>182</v>
       </c>
       <c r="C6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F6" t="s">
+        <v>995</v>
+      </c>
+      <c r="G6" t="s">
         <v>556</v>
-      </c>
-      <c r="D6" t="s">
-        <v>548</v>
-      </c>
-      <c r="E6" t="s">
-        <v>564</v>
-      </c>
-      <c r="F6" t="s">
-        <v>997</v>
-      </c>
-      <c r="G6" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s">
         <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F7" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -12898,58 +13070,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/ontology_cip_2015_10_26_short.xlsx
+++ b/ontology_cip_2015_10_26_short.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1089">
   <si>
     <t>List of columns in template and short description:</t>
   </si>
@@ -3146,6 +3146,171 @@
   </si>
   <si>
     <t>Z. Huaman</t>
+  </si>
+  <si>
+    <t>variable Number of plants planted</t>
+  </si>
+  <si>
+    <t>variable Number of plants established</t>
+  </si>
+  <si>
+    <t>variable Virus symptoms 1</t>
+  </si>
+  <si>
+    <t>variable Virus symptoms 2</t>
+  </si>
+  <si>
+    <t>variable Vine vigor 1</t>
+  </si>
+  <si>
+    <t>variable Early Blight: (Alternaria) 1</t>
+  </si>
+  <si>
+    <t>variable Early Blight: (Alternaria) 2</t>
+  </si>
+  <si>
+    <t>variable Number of plants harvested</t>
+  </si>
+  <si>
+    <t>variable Number of plants with storage roots</t>
+  </si>
+  <si>
+    <t>variable Number of commercial storage roots/plot</t>
+  </si>
+  <si>
+    <t>variable Number of non-commercial storage roots/plot</t>
+  </si>
+  <si>
+    <t>variable Weight of commercial storage roots/net plot in kg</t>
+  </si>
+  <si>
+    <t>variable Weight of non-commercial storage roots/net plot in kg</t>
+  </si>
+  <si>
+    <t>variable Weight of vines/net plot in kg</t>
+  </si>
+  <si>
+    <t>variable Predominant Skin color</t>
+  </si>
+  <si>
+    <t>variable Predominant Flesh color</t>
+  </si>
+  <si>
+    <t>variable Storage root size</t>
+  </si>
+  <si>
+    <t>variable Storage root form</t>
+  </si>
+  <si>
+    <t>variable Storage root damages</t>
+  </si>
+  <si>
+    <t>variable Reaction to sweet potato weevil 1</t>
+  </si>
+  <si>
+    <t>variable Fresh weight of storage root samples</t>
+  </si>
+  <si>
+    <t>variable Dry weight of storage root samples</t>
+  </si>
+  <si>
+    <t>variable Fresh weight of vines</t>
+  </si>
+  <si>
+    <t>variable Dry weight of vines</t>
+  </si>
+  <si>
+    <t>variable Fibers in cooked samples 1</t>
+  </si>
+  <si>
+    <t>variable Storage root sweetness 1</t>
+  </si>
+  <si>
+    <t>variable Storage root texture 1</t>
+  </si>
+  <si>
+    <t>variable Overall taste of cooked sample 1</t>
+  </si>
+  <si>
+    <t>variable Overall appearance of cooked sample 1</t>
+  </si>
+  <si>
+    <t>variable Plot size at harvest</t>
+  </si>
+  <si>
+    <t>variable Vine vigor 2</t>
+  </si>
+  <si>
+    <t>variable Virus symptoms 3</t>
+  </si>
+  <si>
+    <t>variable Reaction to sweet potato weevil 2</t>
+  </si>
+  <si>
+    <t>variable Fibers in cooked samples 2</t>
+  </si>
+  <si>
+    <t>variable Storage root sweetness 2</t>
+  </si>
+  <si>
+    <t>variable Storage root texture 2</t>
+  </si>
+  <si>
+    <t>variable Overall taste of cooked sample 2</t>
+  </si>
+  <si>
+    <t>variable Overall appearance of cooked sample 2</t>
+  </si>
+  <si>
+    <t>variable Sprouting ability</t>
+  </si>
+  <si>
+    <t>variable Protein content</t>
+  </si>
+  <si>
+    <t>variable Content of iron on dry weight basis</t>
+  </si>
+  <si>
+    <t>variable Content of zinc on dry weight basis</t>
+  </si>
+  <si>
+    <t>variable Content of calcium on dry weight basis</t>
+  </si>
+  <si>
+    <t>variable Content of magnesium on dry weight basis</t>
+  </si>
+  <si>
+    <t>variable Beta carotene content</t>
+  </si>
+  <si>
+    <t>variable Total carotenoids</t>
+  </si>
+  <si>
+    <t>variable Storage root starch content</t>
+  </si>
+  <si>
+    <t>variable Fructose content</t>
+  </si>
+  <si>
+    <t>variable Glucose content</t>
+  </si>
+  <si>
+    <t>variable Sucrose content</t>
+  </si>
+  <si>
+    <t>variable Maltose content</t>
+  </si>
+  <si>
+    <t>variable Yield of total roots per hectar</t>
+  </si>
+  <si>
+    <t>variable Storage root dry matter content</t>
+  </si>
+  <si>
+    <t>variable Survival index</t>
+  </si>
+  <si>
+    <t>variable Harvest index</t>
   </si>
 </sst>
 </file>
@@ -5521,11 +5686,11 @@
   <dimension ref="A1:AV56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="topRight" activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomRight" activeCell="AR16" sqref="AR16"/>
+      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5802,7 +5967,7 @@
         <v>576</v>
       </c>
       <c r="AJ2" s="44" t="s">
-        <v>231</v>
+        <v>1034</v>
       </c>
       <c r="AK2" s="44" t="s">
         <v>1026</v>
@@ -5915,7 +6080,7 @@
         <v>577</v>
       </c>
       <c r="AJ3" s="44" t="s">
-        <v>233</v>
+        <v>1035</v>
       </c>
       <c r="AK3" s="44" t="s">
         <v>1027</v>
@@ -6042,7 +6207,7 @@
         <v>578</v>
       </c>
       <c r="AJ4" s="44" t="s">
-        <v>265</v>
+        <v>1036</v>
       </c>
       <c r="AK4" s="44" t="s">
         <v>1000</v>
@@ -6169,7 +6334,7 @@
         <v>579</v>
       </c>
       <c r="AJ5" s="44" t="s">
-        <v>264</v>
+        <v>1037</v>
       </c>
       <c r="AK5" s="44" t="s">
         <v>1001</v>
@@ -6296,7 +6461,7 @@
         <v>580</v>
       </c>
       <c r="AJ6" s="44" t="s">
-        <v>374</v>
+        <v>1038</v>
       </c>
       <c r="AK6" s="44" t="s">
         <v>1002</v>
@@ -6423,7 +6588,7 @@
         <v>581</v>
       </c>
       <c r="AJ7" s="44" t="s">
-        <v>263</v>
+        <v>1039</v>
       </c>
       <c r="AK7" s="44" t="s">
         <v>1003</v>
@@ -6550,7 +6715,7 @@
         <v>582</v>
       </c>
       <c r="AJ8" s="44" t="s">
-        <v>262</v>
+        <v>1040</v>
       </c>
       <c r="AK8" s="44" t="s">
         <v>1004</v>
@@ -6663,7 +6828,7 @@
         <v>583</v>
       </c>
       <c r="AJ9" s="44" t="s">
-        <v>238</v>
+        <v>1041</v>
       </c>
       <c r="AK9" s="44" t="s">
         <v>1028</v>
@@ -6776,7 +6941,7 @@
         <v>584</v>
       </c>
       <c r="AJ10" s="44" t="s">
-        <v>240</v>
+        <v>1042</v>
       </c>
       <c r="AK10" s="44" t="s">
         <v>1029</v>
@@ -6889,7 +7054,7 @@
         <v>585</v>
       </c>
       <c r="AJ11" s="44" t="s">
-        <v>332</v>
+        <v>1043</v>
       </c>
       <c r="AK11" s="44" t="s">
         <v>1030</v>
@@ -7002,7 +7167,7 @@
         <v>586</v>
       </c>
       <c r="AJ12" s="44" t="s">
-        <v>333</v>
+        <v>1044</v>
       </c>
       <c r="AK12" s="44" t="s">
         <v>1031</v>
@@ -7115,7 +7280,7 @@
         <v>587</v>
       </c>
       <c r="AJ13" s="44" t="s">
-        <v>244</v>
+        <v>1045</v>
       </c>
       <c r="AK13" s="44" t="s">
         <v>989</v>
@@ -7228,7 +7393,7 @@
         <v>588</v>
       </c>
       <c r="AJ14" s="44" t="s">
-        <v>245</v>
+        <v>1046</v>
       </c>
       <c r="AK14" s="44" t="s">
         <v>990</v>
@@ -7341,7 +7506,7 @@
         <v>589</v>
       </c>
       <c r="AJ15" s="44" t="s">
-        <v>248</v>
+        <v>1047</v>
       </c>
       <c r="AK15" s="44" t="s">
         <v>991</v>
@@ -7468,7 +7633,7 @@
         <v>590</v>
       </c>
       <c r="AJ16" s="44" t="s">
-        <v>162</v>
+        <v>1048</v>
       </c>
       <c r="AK16" s="44" t="s">
         <v>1005</v>
@@ -7595,7 +7760,7 @@
         <v>591</v>
       </c>
       <c r="AJ17" s="44" t="s">
-        <v>163</v>
+        <v>1049</v>
       </c>
       <c r="AK17" s="44" t="s">
         <v>1006</v>
@@ -7722,7 +7887,7 @@
         <v>592</v>
       </c>
       <c r="AJ18" s="44" t="s">
-        <v>164</v>
+        <v>1050</v>
       </c>
       <c r="AK18" s="44" t="s">
         <v>1007</v>
@@ -7849,7 +8014,7 @@
         <v>593</v>
       </c>
       <c r="AJ19" s="44" t="s">
-        <v>250</v>
+        <v>1051</v>
       </c>
       <c r="AK19" s="44" t="s">
         <v>1008</v>
@@ -7976,7 +8141,7 @@
         <v>594</v>
       </c>
       <c r="AJ20" s="44" t="s">
-        <v>252</v>
+        <v>1052</v>
       </c>
       <c r="AK20" s="44" t="s">
         <v>1009</v>
@@ -8102,7 +8267,7 @@
         <v>595</v>
       </c>
       <c r="AJ21" s="40" t="s">
-        <v>289</v>
+        <v>1053</v>
       </c>
       <c r="AK21" s="44" t="s">
         <v>1010</v>
@@ -8212,7 +8377,7 @@
         <v>596</v>
       </c>
       <c r="AJ22" s="44" t="s">
-        <v>253</v>
+        <v>1054</v>
       </c>
       <c r="AK22" s="44" t="s">
         <v>970</v>
@@ -8322,7 +8487,7 @@
         <v>597</v>
       </c>
       <c r="AJ23" s="44" t="s">
-        <v>255</v>
+        <v>1055</v>
       </c>
       <c r="AK23" s="44" t="s">
         <v>971</v>
@@ -8432,7 +8597,7 @@
         <v>598</v>
       </c>
       <c r="AJ24" s="44" t="s">
-        <v>268</v>
+        <v>1056</v>
       </c>
       <c r="AK24" s="44" t="s">
         <v>972</v>
@@ -8542,7 +8707,7 @@
         <v>599</v>
       </c>
       <c r="AJ25" s="44" t="s">
-        <v>269</v>
+        <v>1057</v>
       </c>
       <c r="AK25" s="44" t="s">
         <v>973</v>
@@ -8669,7 +8834,7 @@
         <v>600</v>
       </c>
       <c r="AJ26" s="3" t="s">
-        <v>835</v>
+        <v>1058</v>
       </c>
       <c r="AK26" s="44" t="s">
         <v>1011</v>
@@ -8796,7 +8961,7 @@
         <v>601</v>
       </c>
       <c r="AJ27" s="44" t="s">
-        <v>837</v>
+        <v>1059</v>
       </c>
       <c r="AK27" s="44" t="s">
         <v>1012</v>
@@ -8923,7 +9088,7 @@
         <v>602</v>
       </c>
       <c r="AJ28" s="44" t="s">
-        <v>838</v>
+        <v>1060</v>
       </c>
       <c r="AK28" s="44" t="s">
         <v>1013</v>
@@ -9050,7 +9215,7 @@
         <v>603</v>
       </c>
       <c r="AJ29" s="44" t="s">
-        <v>839</v>
+        <v>1061</v>
       </c>
       <c r="AK29" s="44" t="s">
         <v>1014</v>
@@ -9177,7 +9342,7 @@
         <v>604</v>
       </c>
       <c r="AJ30" s="44" t="s">
-        <v>840</v>
+        <v>1062</v>
       </c>
       <c r="AK30" s="44" t="s">
         <v>1015</v>
@@ -9287,7 +9452,7 @@
         <v>605</v>
       </c>
       <c r="AJ31" s="44" t="s">
-        <v>270</v>
+        <v>1063</v>
       </c>
       <c r="AK31" s="44" t="s">
         <v>974</v>
@@ -9414,7 +9579,7 @@
         <v>606</v>
       </c>
       <c r="AJ32" s="44" t="s">
-        <v>375</v>
+        <v>1064</v>
       </c>
       <c r="AK32" s="44" t="s">
         <v>1016</v>
@@ -9541,7 +9706,7 @@
         <v>607</v>
       </c>
       <c r="AJ33" s="44" t="s">
-        <v>271</v>
+        <v>1065</v>
       </c>
       <c r="AK33" s="44" t="s">
         <v>1017</v>
@@ -9667,7 +9832,7 @@
         <v>608</v>
       </c>
       <c r="AJ34" s="40" t="s">
-        <v>290</v>
+        <v>1066</v>
       </c>
       <c r="AK34" s="44" t="s">
         <v>1018</v>
@@ -9794,7 +9959,7 @@
         <v>609</v>
       </c>
       <c r="AJ35" s="3" t="s">
-        <v>836</v>
+        <v>1067</v>
       </c>
       <c r="AK35" s="44" t="s">
         <v>1019</v>
@@ -9921,7 +10086,7 @@
         <v>610</v>
       </c>
       <c r="AJ36" s="44" t="s">
-        <v>841</v>
+        <v>1068</v>
       </c>
       <c r="AK36" s="44" t="s">
         <v>1020</v>
@@ -10048,7 +10213,7 @@
         <v>611</v>
       </c>
       <c r="AJ37" s="44" t="s">
-        <v>842</v>
+        <v>1069</v>
       </c>
       <c r="AK37" s="44" t="s">
         <v>1021</v>
@@ -10175,7 +10340,7 @@
         <v>612</v>
       </c>
       <c r="AJ38" s="44" t="s">
-        <v>843</v>
+        <v>1070</v>
       </c>
       <c r="AK38" s="44" t="s">
         <v>1022</v>
@@ -10302,7 +10467,7 @@
         <v>613</v>
       </c>
       <c r="AJ39" s="44" t="s">
-        <v>844</v>
+        <v>1071</v>
       </c>
       <c r="AK39" s="44" t="s">
         <v>1023</v>
@@ -10429,7 +10594,7 @@
         <v>614</v>
       </c>
       <c r="AJ40" s="44" t="s">
-        <v>230</v>
+        <v>1072</v>
       </c>
       <c r="AK40" s="44" t="s">
         <v>1024</v>
@@ -10544,7 +10709,7 @@
         <v>615</v>
       </c>
       <c r="AJ41" s="44" t="s">
-        <v>165</v>
+        <v>1073</v>
       </c>
       <c r="AK41" s="44" t="s">
         <v>975</v>
@@ -10657,7 +10822,7 @@
         <v>616</v>
       </c>
       <c r="AJ42" s="44" t="s">
-        <v>296</v>
+        <v>1074</v>
       </c>
       <c r="AK42" s="44" t="s">
         <v>981</v>
@@ -10770,7 +10935,7 @@
         <v>617</v>
       </c>
       <c r="AJ43" s="44" t="s">
-        <v>297</v>
+        <v>1075</v>
       </c>
       <c r="AK43" s="44" t="s">
         <v>982</v>
@@ -10883,7 +11048,7 @@
         <v>618</v>
       </c>
       <c r="AJ44" s="44" t="s">
-        <v>295</v>
+        <v>1076</v>
       </c>
       <c r="AK44" s="44" t="s">
         <v>983</v>
@@ -10996,7 +11161,7 @@
         <v>619</v>
       </c>
       <c r="AJ45" s="44" t="s">
-        <v>298</v>
+        <v>1077</v>
       </c>
       <c r="AK45" s="44" t="s">
         <v>984</v>
@@ -11109,7 +11274,7 @@
         <v>620</v>
       </c>
       <c r="AJ46" s="44" t="s">
-        <v>166</v>
+        <v>1078</v>
       </c>
       <c r="AK46" s="44" t="s">
         <v>985</v>
@@ -11222,7 +11387,7 @@
         <v>621</v>
       </c>
       <c r="AJ47" s="44" t="s">
-        <v>167</v>
+        <v>1079</v>
       </c>
       <c r="AK47" s="44" t="s">
         <v>986</v>
@@ -11337,7 +11502,7 @@
         <v>622</v>
       </c>
       <c r="AJ48" s="44" t="s">
-        <v>168</v>
+        <v>1080</v>
       </c>
       <c r="AK48" s="44" t="s">
         <v>976</v>
@@ -11452,7 +11617,7 @@
         <v>623</v>
       </c>
       <c r="AJ49" s="44" t="s">
-        <v>169</v>
+        <v>1081</v>
       </c>
       <c r="AK49" s="44" t="s">
         <v>977</v>
@@ -11567,7 +11732,7 @@
         <v>624</v>
       </c>
       <c r="AJ50" s="44" t="s">
-        <v>170</v>
+        <v>1082</v>
       </c>
       <c r="AK50" s="44" t="s">
         <v>978</v>
@@ -11682,7 +11847,7 @@
         <v>625</v>
       </c>
       <c r="AJ51" s="44" t="s">
-        <v>171</v>
+        <v>1083</v>
       </c>
       <c r="AK51" s="44" t="s">
         <v>979</v>
@@ -11797,7 +11962,7 @@
         <v>626</v>
       </c>
       <c r="AJ52" s="44" t="s">
-        <v>172</v>
+        <v>1084</v>
       </c>
       <c r="AK52" s="44" t="s">
         <v>980</v>
@@ -11931,7 +12096,7 @@
         <v>881</v>
       </c>
       <c r="AJ53" s="44" t="s">
-        <v>892</v>
+        <v>1085</v>
       </c>
       <c r="AK53" s="44" t="s">
         <v>987</v>
@@ -12049,7 +12214,7 @@
         <v>882</v>
       </c>
       <c r="AJ54" s="44" t="s">
-        <v>853</v>
+        <v>1086</v>
       </c>
       <c r="AK54" s="44" t="s">
         <v>988</v>
@@ -12167,7 +12332,7 @@
         <v>883</v>
       </c>
       <c r="AJ55" s="44" t="s">
-        <v>855</v>
+        <v>1087</v>
       </c>
       <c r="AK55" s="44" t="s">
         <v>887</v>
@@ -12303,7 +12468,7 @@
         <v>884</v>
       </c>
       <c r="AJ56" s="44" t="s">
-        <v>856</v>
+        <v>1088</v>
       </c>
       <c r="AK56" s="44" t="s">
         <v>888</v>

--- a/ontology_cip_2015_10_26_short.xlsx
+++ b/ontology_cip_2015_10_26_short.xlsx
@@ -3142,175 +3142,175 @@
     <t>PltNCR_Ct_plplot</t>
   </si>
   <si>
-    <t>Variable IBP name</t>
-  </si>
-  <si>
     <t>Z. Huaman</t>
   </si>
   <si>
-    <t>variable Number of plants planted</t>
-  </si>
-  <si>
-    <t>variable Number of plants established</t>
-  </si>
-  <si>
-    <t>variable Virus symptoms 1</t>
-  </si>
-  <si>
-    <t>variable Virus symptoms 2</t>
-  </si>
-  <si>
-    <t>variable Vine vigor 1</t>
-  </si>
-  <si>
-    <t>variable Early Blight: (Alternaria) 1</t>
-  </si>
-  <si>
-    <t>variable Early Blight: (Alternaria) 2</t>
-  </si>
-  <si>
-    <t>variable Number of plants harvested</t>
-  </si>
-  <si>
-    <t>variable Number of plants with storage roots</t>
-  </si>
-  <si>
-    <t>variable Number of commercial storage roots/plot</t>
-  </si>
-  <si>
-    <t>variable Number of non-commercial storage roots/plot</t>
-  </si>
-  <si>
-    <t>variable Weight of commercial storage roots/net plot in kg</t>
-  </si>
-  <si>
-    <t>variable Weight of non-commercial storage roots/net plot in kg</t>
-  </si>
-  <si>
-    <t>variable Weight of vines/net plot in kg</t>
-  </si>
-  <si>
-    <t>variable Predominant Skin color</t>
-  </si>
-  <si>
-    <t>variable Predominant Flesh color</t>
-  </si>
-  <si>
-    <t>variable Storage root size</t>
-  </si>
-  <si>
-    <t>variable Storage root form</t>
-  </si>
-  <si>
-    <t>variable Storage root damages</t>
-  </si>
-  <si>
-    <t>variable Reaction to sweet potato weevil 1</t>
-  </si>
-  <si>
-    <t>variable Fresh weight of storage root samples</t>
-  </si>
-  <si>
-    <t>variable Dry weight of storage root samples</t>
-  </si>
-  <si>
-    <t>variable Fresh weight of vines</t>
-  </si>
-  <si>
-    <t>variable Dry weight of vines</t>
-  </si>
-  <si>
-    <t>variable Fibers in cooked samples 1</t>
-  </si>
-  <si>
-    <t>variable Storage root sweetness 1</t>
-  </si>
-  <si>
-    <t>variable Storage root texture 1</t>
-  </si>
-  <si>
-    <t>variable Overall taste of cooked sample 1</t>
-  </si>
-  <si>
-    <t>variable Overall appearance of cooked sample 1</t>
-  </si>
-  <si>
-    <t>variable Plot size at harvest</t>
-  </si>
-  <si>
-    <t>variable Vine vigor 2</t>
-  </si>
-  <si>
-    <t>variable Virus symptoms 3</t>
-  </si>
-  <si>
-    <t>variable Reaction to sweet potato weevil 2</t>
-  </si>
-  <si>
-    <t>variable Fibers in cooked samples 2</t>
-  </si>
-  <si>
-    <t>variable Storage root sweetness 2</t>
-  </si>
-  <si>
-    <t>variable Storage root texture 2</t>
-  </si>
-  <si>
-    <t>variable Overall taste of cooked sample 2</t>
-  </si>
-  <si>
-    <t>variable Overall appearance of cooked sample 2</t>
-  </si>
-  <si>
-    <t>variable Sprouting ability</t>
-  </si>
-  <si>
-    <t>variable Protein content</t>
-  </si>
-  <si>
-    <t>variable Content of iron on dry weight basis</t>
-  </si>
-  <si>
-    <t>variable Content of zinc on dry weight basis</t>
-  </si>
-  <si>
-    <t>variable Content of calcium on dry weight basis</t>
-  </si>
-  <si>
-    <t>variable Content of magnesium on dry weight basis</t>
-  </si>
-  <si>
-    <t>variable Beta carotene content</t>
-  </si>
-  <si>
-    <t>variable Total carotenoids</t>
-  </si>
-  <si>
-    <t>variable Storage root starch content</t>
-  </si>
-  <si>
-    <t>variable Fructose content</t>
-  </si>
-  <si>
-    <t>variable Glucose content</t>
-  </si>
-  <si>
-    <t>variable Sucrose content</t>
-  </si>
-  <si>
-    <t>variable Maltose content</t>
-  </si>
-  <si>
-    <t>variable Yield of total roots per hectar</t>
-  </si>
-  <si>
-    <t>variable Storage root dry matter content</t>
-  </si>
-  <si>
-    <t>variable Survival index</t>
-  </si>
-  <si>
-    <t>variable Harvest index</t>
+    <t>Virus symptoms 1 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Virus symptoms 2 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Vine vigor 1 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Early Blight 2 symptoms estimating 1-9</t>
+  </si>
+  <si>
+    <t>Early Blight 1 symptoms estimating 1-9</t>
+  </si>
+  <si>
+    <t>Variable label</t>
+  </si>
+  <si>
+    <t>Predominant Skin color estimating 1-9</t>
+  </si>
+  <si>
+    <t>Predominant Flesh color estimating 1-9</t>
+  </si>
+  <si>
+    <t>Storage root size estimating 1-9</t>
+  </si>
+  <si>
+    <t>Storage root form estimating 1-9</t>
+  </si>
+  <si>
+    <t>Storage root damages estimatimg 1-9</t>
+  </si>
+  <si>
+    <t>Sweet potato weevil symptoms 1 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Weight of commercial storage roots measuring kg per plot</t>
+  </si>
+  <si>
+    <t>Weight of non-commercial storage roots measuring kg per plot</t>
+  </si>
+  <si>
+    <t>Weight of vines measuring kg per plot</t>
+  </si>
+  <si>
+    <t>Dry weight of storage root samples measuring g of sample</t>
+  </si>
+  <si>
+    <t>Fresh weight of storage root samples measuring g of sample</t>
+  </si>
+  <si>
+    <t>Fresh weight of vines measuring g of sample</t>
+  </si>
+  <si>
+    <t>Dry weight of vines measuring g of sample</t>
+  </si>
+  <si>
+    <t>Fibers in cooked samples 1 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Storage root sweetness 1 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Storage root texture 1 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Overall taste of cooked sample 1 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Overall appearance of cooked sample 1 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Vine vigor 2 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Virus symptoms 3 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Sweet potato weevil symptom 2 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Fibers in cooked samples 2 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Storage root sweetness 2 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Storage root texture 2 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Overall taste of cooked sample 2 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Overall appearance of cooked sample 2 estimating 1-9</t>
+  </si>
+  <si>
+    <t>Sprouting ability estimating 1-9</t>
+  </si>
+  <si>
+    <t>Protein content measuring percent</t>
+  </si>
+  <si>
+    <t>Content of iron on dry weight basis measuring mg per 100g</t>
+  </si>
+  <si>
+    <t>Content of zinc on dry weight basis measuring mg per 100g</t>
+  </si>
+  <si>
+    <t>Content of calcium on dry weight basis measuringm g per 100g</t>
+  </si>
+  <si>
+    <t>Content of magnesium on dry weight basis measuring mg per 100g</t>
+  </si>
+  <si>
+    <t>Beta carotene content measuring mg per 100g</t>
+  </si>
+  <si>
+    <t>Total carotenoids measuring mg per 100g</t>
+  </si>
+  <si>
+    <t>Storage root starch content measuring percent</t>
+  </si>
+  <si>
+    <t>Fructose content measuring percent</t>
+  </si>
+  <si>
+    <t>Glucose content measuring percent</t>
+  </si>
+  <si>
+    <t>Sucrose content measuring percent</t>
+  </si>
+  <si>
+    <t>Maltose content measuring percent</t>
+  </si>
+  <si>
+    <t>Yield of total roots per hectar computing tons per ha</t>
+  </si>
+  <si>
+    <t>Storage root dry matter content computing percent</t>
+  </si>
+  <si>
+    <t>Survival index computing percent</t>
+  </si>
+  <si>
+    <t>Harvest index computing percent</t>
+  </si>
+  <si>
+    <t>Plot size at harvest measuring square meter of net plot</t>
+  </si>
+  <si>
+    <t>Plants planted counting number per plot</t>
+  </si>
+  <si>
+    <t>Plants established counting number per plot</t>
+  </si>
+  <si>
+    <t>Plants harvested counting number per plot</t>
+  </si>
+  <si>
+    <t>Plants with storage roots counting number per plot</t>
+  </si>
+  <si>
+    <t>Number of commercial storage roots counting number per plot</t>
+  </si>
+  <si>
+    <t>Number of non-commercial storage roots counting number per plot</t>
   </si>
 </sst>
 </file>
@@ -5686,18 +5686,18 @@
   <dimension ref="A1:AV56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="topRight" activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ8"/>
+      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="40" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="40" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="40" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="40" customWidth="1"/>
@@ -5713,7 +5713,7 @@
     <col min="16" max="16" width="25" style="40" customWidth="1"/>
     <col min="17" max="17" width="24.28515625" style="41" customWidth="1"/>
     <col min="18" max="18" width="22.28515625" style="39" customWidth="1"/>
-    <col min="19" max="19" width="13" style="40" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="40" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" style="40" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" style="40" customWidth="1"/>
     <col min="22" max="22" width="8.28515625" style="42" customWidth="1"/>
@@ -5727,9 +5727,9 @@
     <col min="31" max="31" width="12.7109375" style="40" customWidth="1"/>
     <col min="32" max="32" width="10.7109375" style="40" customWidth="1"/>
     <col min="33" max="33" width="11.85546875" style="41" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="21.85546875" style="3" customWidth="1"/>
     <col min="35" max="35" width="18.140625" style="39" customWidth="1"/>
-    <col min="36" max="36" width="27.7109375" style="40" customWidth="1"/>
+    <col min="36" max="36" width="45.7109375" style="40" customWidth="1"/>
     <col min="37" max="37" width="19.85546875" style="40" customWidth="1"/>
     <col min="38" max="38" width="20" style="40" customWidth="1"/>
     <col min="39" max="39" width="30.5703125" style="40" customWidth="1"/>
@@ -5852,10 +5852,10 @@
         <v>121</v>
       </c>
       <c r="AJ1" s="16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AK1" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>1032</v>
       </c>
       <c r="AL1" s="16" t="s">
         <v>66</v>
@@ -5967,7 +5967,7 @@
         <v>576</v>
       </c>
       <c r="AJ2" s="44" t="s">
-        <v>1034</v>
+        <v>1083</v>
       </c>
       <c r="AK2" s="44" t="s">
         <v>1026</v>
@@ -6080,7 +6080,7 @@
         <v>577</v>
       </c>
       <c r="AJ3" s="44" t="s">
-        <v>1035</v>
+        <v>1084</v>
       </c>
       <c r="AK3" s="44" t="s">
         <v>1027</v>
@@ -6207,7 +6207,7 @@
         <v>578</v>
       </c>
       <c r="AJ4" s="44" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AK4" s="44" t="s">
         <v>1000</v>
@@ -6334,7 +6334,7 @@
         <v>579</v>
       </c>
       <c r="AJ5" s="44" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="AK5" s="44" t="s">
         <v>1001</v>
@@ -6461,7 +6461,7 @@
         <v>580</v>
       </c>
       <c r="AJ6" s="44" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AK6" s="44" t="s">
         <v>1002</v>
@@ -6588,7 +6588,7 @@
         <v>581</v>
       </c>
       <c r="AJ7" s="44" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AK7" s="44" t="s">
         <v>1003</v>
@@ -6715,7 +6715,7 @@
         <v>582</v>
       </c>
       <c r="AJ8" s="44" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="AK8" s="44" t="s">
         <v>1004</v>
@@ -6828,7 +6828,7 @@
         <v>583</v>
       </c>
       <c r="AJ9" s="44" t="s">
-        <v>1041</v>
+        <v>1085</v>
       </c>
       <c r="AK9" s="44" t="s">
         <v>1028</v>
@@ -6941,7 +6941,7 @@
         <v>584</v>
       </c>
       <c r="AJ10" s="44" t="s">
-        <v>1042</v>
+        <v>1086</v>
       </c>
       <c r="AK10" s="44" t="s">
         <v>1029</v>
@@ -7054,7 +7054,7 @@
         <v>585</v>
       </c>
       <c r="AJ11" s="44" t="s">
-        <v>1043</v>
+        <v>1087</v>
       </c>
       <c r="AK11" s="44" t="s">
         <v>1030</v>
@@ -7167,7 +7167,7 @@
         <v>586</v>
       </c>
       <c r="AJ12" s="44" t="s">
-        <v>1044</v>
+        <v>1088</v>
       </c>
       <c r="AK12" s="44" t="s">
         <v>1031</v>
@@ -7633,7 +7633,7 @@
         <v>590</v>
       </c>
       <c r="AJ16" s="44" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="AK16" s="44" t="s">
         <v>1005</v>
@@ -7655,7 +7655,7 @@
         <v>810</v>
       </c>
       <c r="AR16" s="44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AS16" s="44" t="s">
         <v>439</v>
@@ -7760,7 +7760,7 @@
         <v>591</v>
       </c>
       <c r="AJ17" s="44" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="AK17" s="44" t="s">
         <v>1006</v>
@@ -7782,7 +7782,7 @@
         <v>811</v>
       </c>
       <c r="AR17" s="44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AS17" s="44" t="s">
         <v>439</v>
@@ -7887,7 +7887,7 @@
         <v>592</v>
       </c>
       <c r="AJ18" s="44" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="AK18" s="44" t="s">
         <v>1007</v>
@@ -8014,7 +8014,7 @@
         <v>593</v>
       </c>
       <c r="AJ19" s="44" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="AK19" s="44" t="s">
         <v>1008</v>
@@ -8141,7 +8141,7 @@
         <v>594</v>
       </c>
       <c r="AJ20" s="44" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="AK20" s="44" t="s">
         <v>1009</v>
@@ -8267,7 +8267,7 @@
         <v>595</v>
       </c>
       <c r="AJ21" s="40" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="AK21" s="44" t="s">
         <v>1010</v>
@@ -8289,7 +8289,7 @@
         <v>812</v>
       </c>
       <c r="AR21" s="44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AS21" s="44" t="s">
         <v>439</v>
@@ -8377,7 +8377,7 @@
         <v>596</v>
       </c>
       <c r="AJ22" s="44" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AK22" s="44" t="s">
         <v>970</v>
@@ -8487,7 +8487,7 @@
         <v>597</v>
       </c>
       <c r="AJ23" s="44" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="AK23" s="44" t="s">
         <v>971</v>
@@ -8597,7 +8597,7 @@
         <v>598</v>
       </c>
       <c r="AJ24" s="44" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="AK24" s="44" t="s">
         <v>972</v>
@@ -8707,7 +8707,7 @@
         <v>599</v>
       </c>
       <c r="AJ25" s="44" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AK25" s="44" t="s">
         <v>973</v>
@@ -8834,7 +8834,7 @@
         <v>600</v>
       </c>
       <c r="AJ26" s="3" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="AK26" s="44" t="s">
         <v>1011</v>
@@ -8961,7 +8961,7 @@
         <v>601</v>
       </c>
       <c r="AJ27" s="44" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="AK27" s="44" t="s">
         <v>1012</v>
@@ -9088,7 +9088,7 @@
         <v>602</v>
       </c>
       <c r="AJ28" s="44" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="AK28" s="44" t="s">
         <v>1013</v>
@@ -9215,7 +9215,7 @@
         <v>603</v>
       </c>
       <c r="AJ29" s="44" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="AK29" s="44" t="s">
         <v>1014</v>
@@ -9342,7 +9342,7 @@
         <v>604</v>
       </c>
       <c r="AJ30" s="44" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="AK30" s="44" t="s">
         <v>1015</v>
@@ -9452,7 +9452,7 @@
         <v>605</v>
       </c>
       <c r="AJ31" s="44" t="s">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="AK31" s="44" t="s">
         <v>974</v>
@@ -9579,7 +9579,7 @@
         <v>606</v>
       </c>
       <c r="AJ32" s="44" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AK32" s="44" t="s">
         <v>1016</v>
@@ -9706,7 +9706,7 @@
         <v>607</v>
       </c>
       <c r="AJ33" s="44" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="AK33" s="44" t="s">
         <v>1017</v>
@@ -9832,7 +9832,7 @@
         <v>608</v>
       </c>
       <c r="AJ34" s="40" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="AK34" s="44" t="s">
         <v>1018</v>
@@ -9959,7 +9959,7 @@
         <v>609</v>
       </c>
       <c r="AJ35" s="3" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="AK35" s="44" t="s">
         <v>1019</v>
@@ -10086,7 +10086,7 @@
         <v>610</v>
       </c>
       <c r="AJ36" s="44" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="AK36" s="44" t="s">
         <v>1020</v>
@@ -10213,7 +10213,7 @@
         <v>611</v>
       </c>
       <c r="AJ37" s="44" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="AK37" s="44" t="s">
         <v>1021</v>
@@ -10340,7 +10340,7 @@
         <v>612</v>
       </c>
       <c r="AJ38" s="44" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="AK38" s="44" t="s">
         <v>1022</v>
@@ -10467,7 +10467,7 @@
         <v>613</v>
       </c>
       <c r="AJ39" s="44" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="AK39" s="44" t="s">
         <v>1023</v>
@@ -10594,7 +10594,7 @@
         <v>614</v>
       </c>
       <c r="AJ40" s="44" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="AK40" s="44" t="s">
         <v>1024</v>
@@ -10616,7 +10616,7 @@
         <v>847</v>
       </c>
       <c r="AR40" s="44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AS40" s="44" t="s">
         <v>439</v>
@@ -10709,7 +10709,7 @@
         <v>615</v>
       </c>
       <c r="AJ41" s="44" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="AK41" s="44" t="s">
         <v>975</v>
@@ -10731,7 +10731,7 @@
         <v>848</v>
       </c>
       <c r="AR41" s="44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AS41" s="44" t="s">
         <v>439</v>
@@ -10822,7 +10822,7 @@
         <v>616</v>
       </c>
       <c r="AJ42" s="44" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="AK42" s="44" t="s">
         <v>981</v>
@@ -10935,7 +10935,7 @@
         <v>617</v>
       </c>
       <c r="AJ43" s="44" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="AK43" s="44" t="s">
         <v>982</v>
@@ -11048,7 +11048,7 @@
         <v>618</v>
       </c>
       <c r="AJ44" s="44" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="AK44" s="44" t="s">
         <v>983</v>
@@ -11161,7 +11161,7 @@
         <v>619</v>
       </c>
       <c r="AJ45" s="44" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="AK45" s="44" t="s">
         <v>984</v>
@@ -11274,7 +11274,7 @@
         <v>620</v>
       </c>
       <c r="AJ46" s="44" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="AK46" s="44" t="s">
         <v>985</v>
@@ -11387,7 +11387,7 @@
         <v>621</v>
       </c>
       <c r="AJ47" s="44" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="AK47" s="44" t="s">
         <v>986</v>
@@ -11409,7 +11409,7 @@
         <v>815</v>
       </c>
       <c r="AR47" s="44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AS47" s="44" t="s">
         <v>439</v>
@@ -11502,7 +11502,7 @@
         <v>622</v>
       </c>
       <c r="AJ48" s="44" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="AK48" s="44" t="s">
         <v>976</v>
@@ -11524,7 +11524,7 @@
         <v>816</v>
       </c>
       <c r="AR48" s="44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AS48" s="44" t="s">
         <v>439</v>
@@ -11617,7 +11617,7 @@
         <v>623</v>
       </c>
       <c r="AJ49" s="44" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="AK49" s="44" t="s">
         <v>977</v>
@@ -11732,7 +11732,7 @@
         <v>624</v>
       </c>
       <c r="AJ50" s="44" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="AK50" s="44" t="s">
         <v>978</v>
@@ -11847,7 +11847,7 @@
         <v>625</v>
       </c>
       <c r="AJ51" s="44" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="AK51" s="44" t="s">
         <v>979</v>
@@ -11962,7 +11962,7 @@
         <v>626</v>
       </c>
       <c r="AJ52" s="44" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="AK52" s="44" t="s">
         <v>980</v>
@@ -12096,7 +12096,7 @@
         <v>881</v>
       </c>
       <c r="AJ53" s="44" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="AK53" s="44" t="s">
         <v>987</v>
@@ -12214,7 +12214,7 @@
         <v>882</v>
       </c>
       <c r="AJ54" s="44" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="AK54" s="44" t="s">
         <v>988</v>
@@ -12332,7 +12332,7 @@
         <v>883</v>
       </c>
       <c r="AJ55" s="44" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="AK55" s="44" t="s">
         <v>887</v>
@@ -12468,7 +12468,7 @@
         <v>884</v>
       </c>
       <c r="AJ56" s="44" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="AK56" s="44" t="s">
         <v>888</v>

--- a/ontology_cip_2015_10_26_short.xlsx
+++ b/ontology_cip_2015_10_26_short.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="3" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="Meta2" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sweetpotato ontology'!$B$1:$AV$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sweetpotato ontology'!$B$1:$AY$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="1104">
   <si>
     <t>List of columns in template and short description:</t>
   </si>
@@ -3311,6 +3311,51 @@
   </si>
   <si>
     <t>Number of non-commercial storage roots counting number per plot</t>
+  </si>
+  <si>
+    <t>Synonym FAO</t>
+  </si>
+  <si>
+    <t>Synonym NCSU</t>
+  </si>
+  <si>
+    <t>SCOL</t>
+  </si>
+  <si>
+    <t>RTSKN1</t>
+  </si>
+  <si>
+    <t>RTFSH1</t>
+  </si>
+  <si>
+    <t>WED1</t>
+  </si>
+  <si>
+    <t>FCOL</t>
+  </si>
+  <si>
+    <t>Synonym SASHA</t>
+  </si>
+  <si>
+    <t>ALT1</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>PROTEIN</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>This template is a modified version of 5.0.1 intended currently for internal use at CIP (International Potato Center). Modifications include additional columns in the variable section and a modified usage of the scale category labels.</t>
+  </si>
+  <si>
+    <t>A tool is in preparation as of November, 2015 to map this file format to 5.0.1. Contact: Reinhard Simon (r.simon@cgiar.org)</t>
   </si>
 </sst>
 </file>
@@ -3410,7 +3455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3495,6 +3540,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3556,7 +3607,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3694,6 +3745,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3794,7 +3850,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3862,7 +3918,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>166007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4246,8 +4302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU125"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4265,8 +4321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="P2" s="32"/>
       <c r="Y2" s="48" t="s">
         <v>216</v>
@@ -4351,14 +4406,26 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="63" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
       <c r="P9" s="32"/>
       <c r="AU9" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="63" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
       <c r="P10" s="32"/>
       <c r="AU10" s="32">
         <v>0</v>
@@ -5683,14 +5750,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV56"/>
+  <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="topRight" activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
+      <selection pane="bottomRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5731,21 +5798,24 @@
     <col min="35" max="35" width="18.140625" style="39" customWidth="1"/>
     <col min="36" max="36" width="45.7109375" style="40" customWidth="1"/>
     <col min="37" max="37" width="19.85546875" style="40" customWidth="1"/>
-    <col min="38" max="38" width="20" style="40" customWidth="1"/>
-    <col min="39" max="39" width="30.5703125" style="40" customWidth="1"/>
-    <col min="40" max="40" width="12.85546875" style="40" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" style="40" customWidth="1"/>
-    <col min="42" max="42" width="11" style="40" customWidth="1"/>
-    <col min="43" max="43" width="28.28515625" style="40" customWidth="1"/>
-    <col min="44" max="44" width="16.28515625" style="40" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" style="40" customWidth="1"/>
-    <col min="46" max="46" width="17.28515625" style="40" customWidth="1"/>
-    <col min="47" max="47" width="18.42578125" style="40" customWidth="1"/>
-    <col min="48" max="48" width="12.28515625" style="41" customWidth="1"/>
-    <col min="49" max="16384" width="5" style="3"/>
+    <col min="38" max="38" width="15.7109375" style="40" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" style="40" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" style="40" customWidth="1"/>
+    <col min="41" max="41" width="20" style="40" customWidth="1"/>
+    <col min="42" max="42" width="30.5703125" style="40" customWidth="1"/>
+    <col min="43" max="43" width="12.85546875" style="40" customWidth="1"/>
+    <col min="44" max="44" width="14.7109375" style="40" customWidth="1"/>
+    <col min="45" max="45" width="11" style="40" customWidth="1"/>
+    <col min="46" max="46" width="28.28515625" style="40" customWidth="1"/>
+    <col min="47" max="47" width="16.28515625" style="40" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" style="40" customWidth="1"/>
+    <col min="49" max="49" width="17.28515625" style="40" customWidth="1"/>
+    <col min="50" max="50" width="18.42578125" style="40" customWidth="1"/>
+    <col min="51" max="51" width="12.28515625" style="41" customWidth="1"/>
+    <col min="52" max="16384" width="5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
@@ -5858,40 +5928,49 @@
         <v>65</v>
       </c>
       <c r="AL1" s="16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AO1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AW1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AX1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AV1" s="16" t="s">
+      <c r="AY1" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
         <v>627</v>
       </c>
@@ -5975,36 +6054,41 @@
       <c r="AL2" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="AM2" s="44" t="s">
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP2" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN2" s="44" t="s">
+      <c r="AQ2" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="AO2" s="44" t="s">
+      <c r="AR2" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44" t="s">
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="AR2" s="44" t="s">
+      <c r="AU2" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS2" s="44" t="s">
+      <c r="AV2" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT2" s="44" t="s">
+      <c r="AW2" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU2" s="51">
+      <c r="AX2" s="51">
         <v>42299</v>
       </c>
-      <c r="AV2" s="44" t="s">
+      <c r="AY2" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
         <v>628</v>
       </c>
@@ -6088,36 +6172,41 @@
       <c r="AL3" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="AM3" s="44" t="s">
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP3" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN3" s="44" t="s">
+      <c r="AQ3" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AO3" s="44" t="s">
+      <c r="AR3" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44" t="s">
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="AR3" s="44" t="s">
+      <c r="AU3" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS3" s="44" t="s">
+      <c r="AV3" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT3" s="44" t="s">
+      <c r="AW3" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU3" s="51">
+      <c r="AX3" s="51">
         <v>42299</v>
       </c>
-      <c r="AV3" s="44" t="s">
+      <c r="AY3" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
         <v>629</v>
       </c>
@@ -6215,36 +6304,41 @@
       <c r="AL4" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="AM4" s="44" t="s">
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP4" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN4" s="44" t="s">
+      <c r="AQ4" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AO4" s="44" t="s">
+      <c r="AR4" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44" t="s">
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="AR4" s="44" t="s">
+      <c r="AU4" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS4" s="44" t="s">
+      <c r="AV4" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT4" s="44" t="s">
+      <c r="AW4" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU4" s="51">
+      <c r="AX4" s="51">
         <v>42299</v>
       </c>
-      <c r="AV4" s="44" t="s">
+      <c r="AY4" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
         <v>630</v>
       </c>
@@ -6342,36 +6436,41 @@
       <c r="AL5" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="AM5" s="44" t="s">
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP5" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN5" s="44" t="s">
+      <c r="AQ5" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AO5" s="44" t="s">
+      <c r="AR5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44" t="s">
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="AR5" s="44" t="s">
+      <c r="AU5" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS5" s="44" t="s">
+      <c r="AV5" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT5" s="44" t="s">
+      <c r="AW5" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU5" s="51">
+      <c r="AX5" s="51">
         <v>42299</v>
       </c>
-      <c r="AV5" s="44" t="s">
+      <c r="AY5" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>631</v>
       </c>
@@ -6469,36 +6568,41 @@
       <c r="AL6" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="AM6" s="44" t="s">
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP6" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN6" s="44" t="s">
+      <c r="AQ6" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AO6" s="44" t="s">
+      <c r="AR6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44" t="s">
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44" t="s">
         <v>790</v>
       </c>
-      <c r="AR6" s="44" t="s">
+      <c r="AU6" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS6" s="44" t="s">
+      <c r="AV6" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT6" s="44" t="s">
+      <c r="AW6" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU6" s="51">
+      <c r="AX6" s="51">
         <v>42299</v>
       </c>
-      <c r="AV6" s="44" t="s">
+      <c r="AY6" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
         <v>632</v>
       </c>
@@ -6594,38 +6698,45 @@
         <v>1003</v>
       </c>
       <c r="AL7" s="47" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AM7" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="47" t="s">
         <v>571</v>
       </c>
-      <c r="AM7" s="44" t="s">
+      <c r="AP7" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="AN7" s="44" t="s">
+      <c r="AQ7" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AO7" s="44" t="s">
+      <c r="AR7" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44" t="s">
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44" t="s">
         <v>791</v>
       </c>
-      <c r="AR7" s="44" t="s">
+      <c r="AU7" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS7" s="44" t="s">
+      <c r="AV7" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT7" s="44" t="s">
+      <c r="AW7" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU7" s="51">
+      <c r="AX7" s="51">
         <v>42299</v>
       </c>
-      <c r="AV7" s="44" t="s">
+      <c r="AY7" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B8" s="47" t="s">
         <v>633</v>
       </c>
@@ -6723,36 +6834,41 @@
       <c r="AL8" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="AM8" s="44" t="s">
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="AP8" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN8" s="44" t="s">
+      <c r="AQ8" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AO8" s="44" t="s">
+      <c r="AR8" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44" t="s">
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44" t="s">
         <v>792</v>
       </c>
-      <c r="AR8" s="44" t="s">
+      <c r="AU8" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS8" s="44" t="s">
+      <c r="AV8" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT8" s="44" t="s">
+      <c r="AW8" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU8" s="51">
+      <c r="AX8" s="51">
         <v>42299</v>
       </c>
-      <c r="AV8" s="44" t="s">
+      <c r="AY8" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
         <v>634</v>
       </c>
@@ -6836,36 +6952,41 @@
       <c r="AL9" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="AM9" s="44" t="s">
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP9" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN9" s="44" t="s">
+      <c r="AQ9" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO9" s="44" t="s">
+      <c r="AR9" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44" t="s">
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="AR9" s="44" t="s">
+      <c r="AU9" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS9" s="44" t="s">
+      <c r="AV9" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT9" s="44" t="s">
+      <c r="AW9" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU9" s="51">
+      <c r="AX9" s="51">
         <v>42299</v>
       </c>
-      <c r="AV9" s="44" t="s">
+      <c r="AY9" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
         <v>635</v>
       </c>
@@ -6949,36 +7070,41 @@
       <c r="AL10" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="AM10" s="44" t="s">
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP10" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN10" s="44" t="s">
+      <c r="AQ10" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO10" s="44" t="s">
+      <c r="AR10" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44" t="s">
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="AR10" s="44" t="s">
+      <c r="AU10" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS10" s="44" t="s">
+      <c r="AV10" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT10" s="44" t="s">
+      <c r="AW10" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU10" s="51">
+      <c r="AX10" s="51">
         <v>42299</v>
       </c>
-      <c r="AV10" s="44" t="s">
+      <c r="AY10" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B11" s="47" t="s">
         <v>636</v>
       </c>
@@ -7062,36 +7188,41 @@
       <c r="AL11" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="AM11" s="44" t="s">
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP11" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN11" s="44" t="s">
+      <c r="AQ11" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO11" s="44" t="s">
+      <c r="AR11" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44" t="s">
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="AR11" s="44" t="s">
+      <c r="AU11" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS11" s="44" t="s">
+      <c r="AV11" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT11" s="44" t="s">
+      <c r="AW11" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU11" s="51">
+      <c r="AX11" s="51">
         <v>42299</v>
       </c>
-      <c r="AV11" s="44" t="s">
+      <c r="AY11" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>637</v>
       </c>
@@ -7175,36 +7306,41 @@
       <c r="AL12" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="AM12" s="44" t="s">
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP12" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN12" s="44" t="s">
+      <c r="AQ12" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO12" s="44" t="s">
+      <c r="AR12" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44" t="s">
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44" t="s">
         <v>796</v>
       </c>
-      <c r="AR12" s="44" t="s">
+      <c r="AU12" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS12" s="44" t="s">
+      <c r="AV12" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT12" s="44" t="s">
+      <c r="AW12" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU12" s="51">
+      <c r="AX12" s="51">
         <v>42299</v>
       </c>
-      <c r="AV12" s="44" t="s">
+      <c r="AY12" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
         <v>638</v>
       </c>
@@ -7288,36 +7424,41 @@
       <c r="AL13" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="AM13" s="44" t="s">
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP13" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN13" s="44" t="s">
+      <c r="AQ13" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO13" s="44" t="s">
+      <c r="AR13" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44" t="s">
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44" t="s">
         <v>797</v>
       </c>
-      <c r="AR13" s="44" t="s">
+      <c r="AU13" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS13" s="44" t="s">
+      <c r="AV13" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT13" s="44" t="s">
+      <c r="AW13" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU13" s="51">
+      <c r="AX13" s="51">
         <v>42299</v>
       </c>
-      <c r="AV13" s="44" t="s">
+      <c r="AY13" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B14" s="47" t="s">
         <v>639</v>
       </c>
@@ -7401,36 +7542,41 @@
       <c r="AL14" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="AM14" s="44" t="s">
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP14" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN14" s="44" t="s">
+      <c r="AQ14" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO14" s="44" t="s">
+      <c r="AR14" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44" t="s">
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44" t="s">
         <v>798</v>
       </c>
-      <c r="AR14" s="44" t="s">
+      <c r="AU14" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS14" s="44" t="s">
+      <c r="AV14" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT14" s="44" t="s">
+      <c r="AW14" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU14" s="51">
+      <c r="AX14" s="51">
         <v>42299</v>
       </c>
-      <c r="AV14" s="44" t="s">
+      <c r="AY14" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
         <v>640</v>
       </c>
@@ -7514,36 +7660,41 @@
       <c r="AL15" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="AM15" s="44" t="s">
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP15" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN15" s="44" t="s">
+      <c r="AQ15" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO15" s="44" t="s">
+      <c r="AR15" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44" t="s">
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44" t="s">
         <v>799</v>
       </c>
-      <c r="AR15" s="44" t="s">
+      <c r="AU15" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS15" s="44" t="s">
+      <c r="AV15" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT15" s="44" t="s">
+      <c r="AW15" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU15" s="51">
+      <c r="AX15" s="51">
         <v>42299</v>
       </c>
-      <c r="AV15" s="44" t="s">
+      <c r="AY15" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B16" s="47" t="s">
         <v>641</v>
       </c>
@@ -7639,38 +7790,45 @@
         <v>1005</v>
       </c>
       <c r="AL16" s="44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AM16" s="44" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="AM16" s="44" t="s">
+      <c r="AP16" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="AN16" s="44" t="s">
+      <c r="AQ16" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO16" s="44" t="s">
+      <c r="AR16" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44" t="s">
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44" t="s">
         <v>810</v>
       </c>
-      <c r="AR16" s="44" t="s">
+      <c r="AU16" s="44" t="s">
         <v>1032</v>
       </c>
-      <c r="AS16" s="44" t="s">
+      <c r="AV16" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AT16" s="44" t="s">
+      <c r="AW16" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU16" s="51">
+      <c r="AX16" s="51">
         <v>42299</v>
       </c>
-      <c r="AV16" s="44" t="s">
+      <c r="AY16" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
         <v>642</v>
       </c>
@@ -7766,38 +7924,45 @@
         <v>1006</v>
       </c>
       <c r="AL17" s="44" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AM17" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="AM17" s="44" t="s">
+      <c r="AP17" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="AN17" s="44" t="s">
+      <c r="AQ17" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO17" s="44" t="s">
+      <c r="AR17" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44" t="s">
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44" t="s">
         <v>811</v>
       </c>
-      <c r="AR17" s="44" t="s">
+      <c r="AU17" s="44" t="s">
         <v>1032</v>
       </c>
-      <c r="AS17" s="44" t="s">
+      <c r="AV17" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AT17" s="44" t="s">
+      <c r="AW17" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU17" s="51">
+      <c r="AX17" s="51">
         <v>42299</v>
       </c>
-      <c r="AV17" s="44" t="s">
+      <c r="AY17" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B18" s="47" t="s">
         <v>643</v>
       </c>
@@ -7895,36 +8060,41 @@
       <c r="AL18" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="AM18" s="44" t="s">
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP18" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN18" s="44" t="s">
+      <c r="AQ18" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO18" s="44" t="s">
+      <c r="AR18" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44" t="s">
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="AR18" s="44" t="s">
+      <c r="AU18" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS18" s="44" t="s">
+      <c r="AV18" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT18" s="44" t="s">
+      <c r="AW18" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU18" s="51">
+      <c r="AX18" s="51">
         <v>42299</v>
       </c>
-      <c r="AV18" s="44" t="s">
+      <c r="AY18" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B19" s="47" t="s">
         <v>644</v>
       </c>
@@ -8022,36 +8192,41 @@
       <c r="AL19" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="AM19" s="44" t="s">
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP19" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN19" s="44" t="s">
+      <c r="AQ19" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO19" s="44" t="s">
+      <c r="AR19" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44" t="s">
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44" t="s">
         <v>801</v>
       </c>
-      <c r="AR19" s="44" t="s">
+      <c r="AU19" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS19" s="44" t="s">
+      <c r="AV19" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT19" s="44" t="s">
+      <c r="AW19" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU19" s="51">
+      <c r="AX19" s="51">
         <v>42299</v>
       </c>
-      <c r="AV19" s="44" t="s">
+      <c r="AY19" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>645</v>
       </c>
@@ -8149,36 +8324,41 @@
       <c r="AL20" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="AM20" s="44" t="s">
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP20" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN20" s="44" t="s">
+      <c r="AQ20" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO20" s="44" t="s">
+      <c r="AR20" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44" t="s">
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44" t="s">
         <v>802</v>
       </c>
-      <c r="AR20" s="44" t="s">
+      <c r="AU20" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS20" s="44" t="s">
+      <c r="AV20" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT20" s="44" t="s">
+      <c r="AW20" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU20" s="51">
+      <c r="AX20" s="51">
         <v>42299</v>
       </c>
-      <c r="AV20" s="44" t="s">
+      <c r="AY20" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B21" s="47" t="s">
         <v>646</v>
       </c>
@@ -8273,38 +8453,45 @@
         <v>1010</v>
       </c>
       <c r="AL21" s="44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AM21" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44" t="s">
         <v>574</v>
       </c>
-      <c r="AM21" s="44" t="s">
+      <c r="AP21" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="AN21" s="44" t="s">
+      <c r="AQ21" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="AO21" s="44" t="s">
+      <c r="AR21" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44" t="s">
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44" t="s">
         <v>812</v>
       </c>
-      <c r="AR21" s="44" t="s">
+      <c r="AU21" s="44" t="s">
         <v>1032</v>
       </c>
-      <c r="AS21" s="44" t="s">
+      <c r="AV21" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AT21" s="44" t="s">
+      <c r="AW21" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU21" s="51">
+      <c r="AX21" s="51">
         <v>42299</v>
       </c>
-      <c r="AV21" s="44" t="s">
+      <c r="AY21" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B22" s="47" t="s">
         <v>647</v>
       </c>
@@ -8385,36 +8572,41 @@
       <c r="AL22" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="AM22" s="44" t="s">
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP22" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN22" s="44" t="s">
+      <c r="AQ22" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO22" s="44" t="s">
+      <c r="AR22" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44" t="s">
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44" t="s">
         <v>803</v>
       </c>
-      <c r="AR22" s="44" t="s">
+      <c r="AU22" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS22" s="44" t="s">
+      <c r="AV22" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT22" s="44" t="s">
+      <c r="AW22" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU22" s="51">
+      <c r="AX22" s="51">
         <v>42299</v>
       </c>
-      <c r="AV22" s="44" t="s">
+      <c r="AY22" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B23" s="47" t="s">
         <v>648</v>
       </c>
@@ -8495,36 +8687,41 @@
       <c r="AL23" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="AM23" s="44" t="s">
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP23" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN23" s="44" t="s">
+      <c r="AQ23" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO23" s="44" t="s">
+      <c r="AR23" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44" t="s">
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44" t="s">
         <v>804</v>
       </c>
-      <c r="AR23" s="44" t="s">
+      <c r="AU23" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS23" s="44" t="s">
+      <c r="AV23" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT23" s="44" t="s">
+      <c r="AW23" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU23" s="51">
+      <c r="AX23" s="51">
         <v>42299</v>
       </c>
-      <c r="AV23" s="44" t="s">
+      <c r="AY23" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B24" s="47" t="s">
         <v>649</v>
       </c>
@@ -8605,36 +8802,41 @@
       <c r="AL24" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="AM24" s="44" t="s">
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP24" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN24" s="44" t="s">
+      <c r="AQ24" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO24" s="44" t="s">
+      <c r="AR24" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP24" s="44"/>
-      <c r="AQ24" s="44" t="s">
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44" t="s">
         <v>765</v>
       </c>
-      <c r="AR24" s="44" t="s">
+      <c r="AU24" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS24" s="44" t="s">
+      <c r="AV24" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT24" s="44" t="s">
+      <c r="AW24" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU24" s="51">
+      <c r="AX24" s="51">
         <v>42299</v>
       </c>
-      <c r="AV24" s="44" t="s">
+      <c r="AY24" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B25" s="47" t="s">
         <v>650</v>
       </c>
@@ -8715,36 +8917,41 @@
       <c r="AL25" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="AM25" s="44" t="s">
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP25" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN25" s="44" t="s">
+      <c r="AQ25" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO25" s="44" t="s">
+      <c r="AR25" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44" t="s">
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44" t="s">
         <v>766</v>
       </c>
-      <c r="AR25" s="44" t="s">
+      <c r="AU25" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS25" s="44" t="s">
+      <c r="AV25" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT25" s="44" t="s">
+      <c r="AW25" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU25" s="51">
+      <c r="AX25" s="51">
         <v>42299</v>
       </c>
-      <c r="AV25" s="44" t="s">
+      <c r="AY25" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B26" s="47" t="s">
         <v>651</v>
       </c>
@@ -8842,36 +9049,41 @@
       <c r="AL26" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="AM26" s="44" t="s">
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP26" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN26" s="44" t="s">
+      <c r="AQ26" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO26" s="44" t="s">
+      <c r="AR26" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44" t="s">
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44" t="s">
         <v>805</v>
       </c>
-      <c r="AR26" s="44" t="s">
+      <c r="AU26" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS26" s="44" t="s">
+      <c r="AV26" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT26" s="44" t="s">
+      <c r="AW26" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU26" s="51">
+      <c r="AX26" s="51">
         <v>42299</v>
       </c>
-      <c r="AV26" s="44" t="s">
+      <c r="AY26" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
         <v>652</v>
       </c>
@@ -8969,36 +9181,41 @@
       <c r="AL27" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="AM27" s="44" t="s">
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="AP27" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN27" s="44" t="s">
+      <c r="AQ27" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO27" s="44" t="s">
+      <c r="AR27" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44" t="s">
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44" t="s">
         <v>806</v>
       </c>
-      <c r="AR27" s="44" t="s">
+      <c r="AU27" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS27" s="44" t="s">
+      <c r="AV27" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT27" s="44" t="s">
+      <c r="AW27" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU27" s="51">
+      <c r="AX27" s="51">
         <v>42299</v>
       </c>
-      <c r="AV27" s="44" t="s">
+      <c r="AY27" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
         <v>653</v>
       </c>
@@ -9096,36 +9313,41 @@
       <c r="AL28" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="AM28" s="44" t="s">
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP28" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN28" s="44" t="s">
+      <c r="AQ28" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO28" s="44" t="s">
+      <c r="AR28" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44" t="s">
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44" t="s">
         <v>807</v>
       </c>
-      <c r="AR28" s="44" t="s">
+      <c r="AU28" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS28" s="44" t="s">
+      <c r="AV28" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT28" s="44" t="s">
+      <c r="AW28" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU28" s="51">
+      <c r="AX28" s="51">
         <v>42299</v>
       </c>
-      <c r="AV28" s="44" t="s">
+      <c r="AY28" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B29" s="47" t="s">
         <v>654</v>
       </c>
@@ -9223,36 +9445,41 @@
       <c r="AL29" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="AM29" s="44" t="s">
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP29" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN29" s="44" t="s">
+      <c r="AQ29" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO29" s="44" t="s">
+      <c r="AR29" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44" t="s">
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44" t="s">
         <v>808</v>
       </c>
-      <c r="AR29" s="44" t="s">
+      <c r="AU29" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS29" s="44" t="s">
+      <c r="AV29" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT29" s="44" t="s">
+      <c r="AW29" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU29" s="51">
+      <c r="AX29" s="51">
         <v>42299</v>
       </c>
-      <c r="AV29" s="44" t="s">
+      <c r="AY29" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B30" s="47" t="s">
         <v>655</v>
       </c>
@@ -9350,36 +9577,41 @@
       <c r="AL30" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="AM30" s="44" t="s">
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP30" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN30" s="44" t="s">
+      <c r="AQ30" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO30" s="44" t="s">
+      <c r="AR30" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44" t="s">
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44" t="s">
         <v>809</v>
       </c>
-      <c r="AR30" s="44" t="s">
+      <c r="AU30" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS30" s="44" t="s">
+      <c r="AV30" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT30" s="44" t="s">
+      <c r="AW30" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU30" s="51">
+      <c r="AX30" s="51">
         <v>42299</v>
       </c>
-      <c r="AV30" s="44" t="s">
+      <c r="AY30" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B31" s="47" t="s">
         <v>656</v>
       </c>
@@ -9460,36 +9692,41 @@
       <c r="AL31" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="AM31" s="44" t="s">
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP31" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN31" s="44" t="s">
+      <c r="AQ31" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO31" s="44" t="s">
+      <c r="AR31" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44" t="s">
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44" t="s">
         <v>767</v>
       </c>
-      <c r="AR31" s="44" t="s">
+      <c r="AU31" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS31" s="44" t="s">
+      <c r="AV31" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT31" s="44" t="s">
+      <c r="AW31" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU31" s="51">
+      <c r="AX31" s="51">
         <v>42299</v>
       </c>
-      <c r="AV31" s="44" t="s">
+      <c r="AY31" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B32" s="47" t="s">
         <v>657</v>
       </c>
@@ -9587,36 +9824,41 @@
       <c r="AL32" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="AM32" s="44" t="s">
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP32" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN32" s="44" t="s">
+      <c r="AQ32" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AO32" s="44" t="s">
+      <c r="AR32" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44" t="s">
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44" t="s">
         <v>768</v>
       </c>
-      <c r="AR32" s="44" t="s">
+      <c r="AU32" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS32" s="44" t="s">
+      <c r="AV32" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT32" s="44" t="s">
+      <c r="AW32" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU32" s="51">
+      <c r="AX32" s="51">
         <v>42299</v>
       </c>
-      <c r="AV32" s="44" t="s">
+      <c r="AY32" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B33" s="47" t="s">
         <v>658</v>
       </c>
@@ -9714,36 +9956,41 @@
       <c r="AL33" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="AM33" s="44" t="s">
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP33" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN33" s="44" t="s">
+      <c r="AQ33" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="AO33" s="44" t="s">
+      <c r="AR33" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44" t="s">
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44" t="s">
         <v>769</v>
       </c>
-      <c r="AR33" s="44" t="s">
+      <c r="AU33" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS33" s="44" t="s">
+      <c r="AV33" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT33" s="44" t="s">
+      <c r="AW33" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU33" s="51">
+      <c r="AX33" s="51">
         <v>42299</v>
       </c>
-      <c r="AV33" s="44" t="s">
+      <c r="AY33" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B34" s="47" t="s">
         <v>659</v>
       </c>
@@ -9840,36 +10087,41 @@
       <c r="AL34" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="AM34" s="44" t="s">
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP34" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN34" s="44" t="s">
+      <c r="AQ34" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="AO34" s="44" t="s">
+      <c r="AR34" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP34" s="44"/>
-      <c r="AQ34" s="44" t="s">
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44" t="s">
         <v>770</v>
       </c>
-      <c r="AR34" s="44" t="s">
+      <c r="AU34" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS34" s="44" t="s">
+      <c r="AV34" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT34" s="44" t="s">
+      <c r="AW34" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU34" s="51">
+      <c r="AX34" s="51">
         <v>42299</v>
       </c>
-      <c r="AV34" s="44" t="s">
+      <c r="AY34" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B35" s="47" t="s">
         <v>660</v>
       </c>
@@ -9967,36 +10219,41 @@
       <c r="AL35" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="AM35" s="44" t="s">
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP35" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN35" s="44" t="s">
+      <c r="AQ35" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO35" s="44" t="s">
+      <c r="AR35" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44" t="s">
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44" t="s">
         <v>771</v>
       </c>
-      <c r="AR35" s="44" t="s">
+      <c r="AU35" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS35" s="44" t="s">
+      <c r="AV35" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT35" s="44" t="s">
+      <c r="AW35" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU35" s="51">
+      <c r="AX35" s="51">
         <v>42299</v>
       </c>
-      <c r="AV35" s="44" t="s">
+      <c r="AY35" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B36" s="47" t="s">
         <v>661</v>
       </c>
@@ -10094,36 +10351,41 @@
       <c r="AL36" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="AM36" s="44" t="s">
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP36" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN36" s="44" t="s">
+      <c r="AQ36" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO36" s="44" t="s">
+      <c r="AR36" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="44" t="s">
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44" t="s">
         <v>772</v>
       </c>
-      <c r="AR36" s="44" t="s">
+      <c r="AU36" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS36" s="44" t="s">
+      <c r="AV36" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT36" s="44" t="s">
+      <c r="AW36" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU36" s="51">
+      <c r="AX36" s="51">
         <v>42299</v>
       </c>
-      <c r="AV36" s="44" t="s">
+      <c r="AY36" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B37" s="47" t="s">
         <v>662</v>
       </c>
@@ -10221,36 +10483,41 @@
       <c r="AL37" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="AM37" s="44" t="s">
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP37" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN37" s="44" t="s">
+      <c r="AQ37" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO37" s="44" t="s">
+      <c r="AR37" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP37" s="44"/>
-      <c r="AQ37" s="44" t="s">
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44" t="s">
         <v>773</v>
       </c>
-      <c r="AR37" s="44" t="s">
+      <c r="AU37" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS37" s="44" t="s">
+      <c r="AV37" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT37" s="44" t="s">
+      <c r="AW37" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU37" s="51">
+      <c r="AX37" s="51">
         <v>42299</v>
       </c>
-      <c r="AV37" s="44" t="s">
+      <c r="AY37" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B38" s="47" t="s">
         <v>663</v>
       </c>
@@ -10348,36 +10615,41 @@
       <c r="AL38" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="AM38" s="44" t="s">
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP38" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN38" s="44" t="s">
+      <c r="AQ38" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO38" s="44" t="s">
+      <c r="AR38" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP38" s="44"/>
-      <c r="AQ38" s="44" t="s">
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44" t="s">
         <v>774</v>
       </c>
-      <c r="AR38" s="44" t="s">
+      <c r="AU38" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS38" s="44" t="s">
+      <c r="AV38" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT38" s="44" t="s">
+      <c r="AW38" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU38" s="51">
+      <c r="AX38" s="51">
         <v>42299</v>
       </c>
-      <c r="AV38" s="44" t="s">
+      <c r="AY38" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B39" s="47" t="s">
         <v>664</v>
       </c>
@@ -10475,36 +10747,41 @@
       <c r="AL39" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="AM39" s="44" t="s">
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="AP39" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN39" s="44" t="s">
+      <c r="AQ39" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO39" s="44" t="s">
+      <c r="AR39" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP39" s="44"/>
-      <c r="AQ39" s="44" t="s">
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="44" t="s">
         <v>775</v>
       </c>
-      <c r="AR39" s="44" t="s">
+      <c r="AU39" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS39" s="44" t="s">
+      <c r="AV39" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT39" s="44" t="s">
+      <c r="AW39" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU39" s="51">
+      <c r="AX39" s="51">
         <v>42299</v>
       </c>
-      <c r="AV39" s="44" t="s">
+      <c r="AY39" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B40" s="47" t="s">
         <v>665</v>
       </c>
@@ -10602,36 +10879,41 @@
       <c r="AL40" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="AM40" s="44" t="s">
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP40" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN40" s="44" t="s">
+      <c r="AQ40" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="AO40" s="44" t="s">
+      <c r="AR40" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP40" s="44"/>
-      <c r="AQ40" s="44" t="s">
+      <c r="AS40" s="44"/>
+      <c r="AT40" s="44" t="s">
         <v>847</v>
       </c>
-      <c r="AR40" s="44" t="s">
+      <c r="AU40" s="44" t="s">
         <v>1032</v>
       </c>
-      <c r="AS40" s="44" t="s">
+      <c r="AV40" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AT40" s="44" t="s">
+      <c r="AW40" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU40" s="51">
+      <c r="AX40" s="51">
         <v>42299</v>
       </c>
-      <c r="AV40" s="44" t="s">
+      <c r="AY40" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B41" s="47" t="s">
         <v>666</v>
       </c>
@@ -10715,38 +10997,45 @@
         <v>975</v>
       </c>
       <c r="AL41" s="44" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AM41" s="44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="AM41" s="44" t="s">
+      <c r="AP41" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="AN41" s="44" t="s">
+      <c r="AQ41" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO41" s="44" t="s">
+      <c r="AR41" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP41" s="44"/>
-      <c r="AQ41" s="44" t="s">
+      <c r="AS41" s="44"/>
+      <c r="AT41" s="44" t="s">
         <v>848</v>
       </c>
-      <c r="AR41" s="44" t="s">
+      <c r="AU41" s="44" t="s">
         <v>1032</v>
       </c>
-      <c r="AS41" s="44" t="s">
+      <c r="AV41" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AT41" s="44" t="s">
+      <c r="AW41" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU41" s="51">
+      <c r="AX41" s="51">
         <v>42299</v>
       </c>
-      <c r="AV41" s="44" t="s">
+      <c r="AY41" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B42" s="47" t="s">
         <v>667</v>
       </c>
@@ -10830,36 +11119,41 @@
       <c r="AL42" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="AM42" s="44" t="s">
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP42" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN42" s="44" t="s">
+      <c r="AQ42" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO42" s="44" t="s">
+      <c r="AR42" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP42" s="44"/>
-      <c r="AQ42" s="44" t="s">
+      <c r="AS42" s="44"/>
+      <c r="AT42" s="44" t="s">
         <v>776</v>
       </c>
-      <c r="AR42" s="44" t="s">
+      <c r="AU42" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS42" s="44" t="s">
+      <c r="AV42" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT42" s="44" t="s">
+      <c r="AW42" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU42" s="51">
+      <c r="AX42" s="51">
         <v>42299</v>
       </c>
-      <c r="AV42" s="44" t="s">
+      <c r="AY42" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B43" s="47" t="s">
         <v>668</v>
       </c>
@@ -10943,36 +11237,41 @@
       <c r="AL43" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="AM43" s="44" t="s">
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP43" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN43" s="44" t="s">
+      <c r="AQ43" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO43" s="44" t="s">
+      <c r="AR43" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="44" t="s">
+      <c r="AS43" s="44"/>
+      <c r="AT43" s="44" t="s">
         <v>777</v>
       </c>
-      <c r="AR43" s="44" t="s">
+      <c r="AU43" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS43" s="44" t="s">
+      <c r="AV43" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT43" s="44" t="s">
+      <c r="AW43" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU43" s="51">
+      <c r="AX43" s="51">
         <v>42299</v>
       </c>
-      <c r="AV43" s="44" t="s">
+      <c r="AY43" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B44" s="47" t="s">
         <v>669</v>
       </c>
@@ -11056,36 +11355,41 @@
       <c r="AL44" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="AM44" s="44" t="s">
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP44" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN44" s="44" t="s">
+      <c r="AQ44" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO44" s="44" t="s">
+      <c r="AR44" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP44" s="44"/>
-      <c r="AQ44" s="44" t="s">
+      <c r="AS44" s="44"/>
+      <c r="AT44" s="44" t="s">
         <v>778</v>
       </c>
-      <c r="AR44" s="44" t="s">
+      <c r="AU44" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS44" s="44" t="s">
+      <c r="AV44" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT44" s="44" t="s">
+      <c r="AW44" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU44" s="51">
+      <c r="AX44" s="51">
         <v>42299</v>
       </c>
-      <c r="AV44" s="44" t="s">
+      <c r="AY44" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B45" s="47" t="s">
         <v>670</v>
       </c>
@@ -11169,36 +11473,41 @@
       <c r="AL45" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="AM45" s="44" t="s">
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP45" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN45" s="44" t="s">
+      <c r="AQ45" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO45" s="44" t="s">
+      <c r="AR45" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP45" s="44"/>
-      <c r="AQ45" s="44" t="s">
+      <c r="AS45" s="44"/>
+      <c r="AT45" s="44" t="s">
         <v>779</v>
       </c>
-      <c r="AR45" s="44" t="s">
+      <c r="AU45" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS45" s="44" t="s">
+      <c r="AV45" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT45" s="44" t="s">
+      <c r="AW45" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU45" s="51">
+      <c r="AX45" s="51">
         <v>42299</v>
       </c>
-      <c r="AV45" s="44" t="s">
+      <c r="AY45" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B46" s="47" t="s">
         <v>671</v>
       </c>
@@ -11282,36 +11591,41 @@
       <c r="AL46" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="AM46" s="44" t="s">
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP46" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN46" s="44" t="s">
+      <c r="AQ46" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO46" s="44" t="s">
+      <c r="AR46" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP46" s="44"/>
-      <c r="AQ46" s="44" t="s">
+      <c r="AS46" s="44"/>
+      <c r="AT46" s="44" t="s">
         <v>780</v>
       </c>
-      <c r="AR46" s="44" t="s">
+      <c r="AU46" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS46" s="44" t="s">
+      <c r="AV46" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT46" s="44" t="s">
+      <c r="AW46" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU46" s="51">
+      <c r="AX46" s="51">
         <v>42299</v>
       </c>
-      <c r="AV46" s="44" t="s">
+      <c r="AY46" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B47" s="47" t="s">
         <v>672</v>
       </c>
@@ -11395,36 +11709,41 @@
       <c r="AL47" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="AM47" s="44" t="s">
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP47" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN47" s="44" t="s">
+      <c r="AQ47" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO47" s="44" t="s">
+      <c r="AR47" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP47" s="44"/>
-      <c r="AQ47" s="44" t="s">
+      <c r="AS47" s="44"/>
+      <c r="AT47" s="44" t="s">
         <v>815</v>
       </c>
-      <c r="AR47" s="44" t="s">
+      <c r="AU47" s="44" t="s">
         <v>1032</v>
       </c>
-      <c r="AS47" s="44" t="s">
+      <c r="AV47" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AT47" s="44" t="s">
+      <c r="AW47" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU47" s="51">
+      <c r="AX47" s="51">
         <v>42299</v>
       </c>
-      <c r="AV47" s="44" t="s">
+      <c r="AY47" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="2:48" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="47" t="s">
         <v>673</v>
       </c>
@@ -11510,36 +11829,41 @@
       <c r="AL48" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="AM48" s="44" t="s">
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP48" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN48" s="44" t="s">
+      <c r="AQ48" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO48" s="44" t="s">
+      <c r="AR48" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP48" s="44"/>
-      <c r="AQ48" s="44" t="s">
+      <c r="AS48" s="44"/>
+      <c r="AT48" s="44" t="s">
         <v>816</v>
       </c>
-      <c r="AR48" s="44" t="s">
+      <c r="AU48" s="44" t="s">
         <v>1032</v>
       </c>
-      <c r="AS48" s="44" t="s">
+      <c r="AV48" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AT48" s="44" t="s">
+      <c r="AW48" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU48" s="51">
+      <c r="AX48" s="51">
         <v>42299</v>
       </c>
-      <c r="AV48" s="44" t="s">
+      <c r="AY48" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B49" s="47" t="s">
         <v>674</v>
       </c>
@@ -11625,36 +11949,41 @@
       <c r="AL49" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="AM49" s="44" t="s">
+      <c r="AM49" s="44"/>
+      <c r="AN49" s="44"/>
+      <c r="AO49" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP49" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN49" s="44" t="s">
+      <c r="AQ49" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO49" s="44" t="s">
+      <c r="AR49" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP49" s="44"/>
-      <c r="AQ49" s="44" t="s">
+      <c r="AS49" s="44"/>
+      <c r="AT49" s="44" t="s">
         <v>781</v>
       </c>
-      <c r="AR49" s="44" t="s">
+      <c r="AU49" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS49" s="44" t="s">
+      <c r="AV49" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT49" s="44" t="s">
+      <c r="AW49" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU49" s="51">
+      <c r="AX49" s="51">
         <v>42299</v>
       </c>
-      <c r="AV49" s="44" t="s">
+      <c r="AY49" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B50" s="47" t="s">
         <v>675</v>
       </c>
@@ -11740,36 +12069,41 @@
       <c r="AL50" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="AM50" s="44" t="s">
+      <c r="AM50" s="44"/>
+      <c r="AN50" s="44"/>
+      <c r="AO50" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP50" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN50" s="44" t="s">
+      <c r="AQ50" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO50" s="44" t="s">
+      <c r="AR50" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP50" s="44"/>
-      <c r="AQ50" s="44" t="s">
+      <c r="AS50" s="44"/>
+      <c r="AT50" s="44" t="s">
         <v>782</v>
       </c>
-      <c r="AR50" s="44" t="s">
+      <c r="AU50" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS50" s="44" t="s">
+      <c r="AV50" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT50" s="44" t="s">
+      <c r="AW50" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU50" s="51">
+      <c r="AX50" s="51">
         <v>42299</v>
       </c>
-      <c r="AV50" s="44" t="s">
+      <c r="AY50" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B51" s="47" t="s">
         <v>676</v>
       </c>
@@ -11855,36 +12189,41 @@
       <c r="AL51" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="AM51" s="44" t="s">
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="44"/>
+      <c r="AO51" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP51" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN51" s="44" t="s">
+      <c r="AQ51" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO51" s="44" t="s">
+      <c r="AR51" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP51" s="44"/>
-      <c r="AQ51" s="44" t="s">
+      <c r="AS51" s="44"/>
+      <c r="AT51" s="44" t="s">
         <v>783</v>
       </c>
-      <c r="AR51" s="44" t="s">
+      <c r="AU51" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS51" s="44" t="s">
+      <c r="AV51" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT51" s="44" t="s">
+      <c r="AW51" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU51" s="51">
+      <c r="AX51" s="51">
         <v>42299</v>
       </c>
-      <c r="AV51" s="44" t="s">
+      <c r="AY51" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B52" s="47" t="s">
         <v>677</v>
       </c>
@@ -11970,36 +12309,41 @@
       <c r="AL52" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="AM52" s="44" t="s">
+      <c r="AM52" s="44"/>
+      <c r="AN52" s="44"/>
+      <c r="AO52" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP52" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN52" s="44" t="s">
+      <c r="AQ52" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO52" s="44" t="s">
+      <c r="AR52" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP52" s="44"/>
-      <c r="AQ52" s="44" t="s">
+      <c r="AS52" s="44"/>
+      <c r="AT52" s="44" t="s">
         <v>784</v>
       </c>
-      <c r="AR52" s="44" t="s">
+      <c r="AU52" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS52" s="44" t="s">
+      <c r="AV52" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT52" s="44" t="s">
+      <c r="AW52" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU52" s="51">
+      <c r="AX52" s="51">
         <v>42299</v>
       </c>
-      <c r="AV52" s="44" t="s">
+      <c r="AY52" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
       <c r="B53" s="47" t="s">
         <v>861</v>
@@ -12104,36 +12448,41 @@
       <c r="AL53" s="44" t="s">
         <v>865</v>
       </c>
-      <c r="AM53" s="44" t="s">
+      <c r="AM53" s="44"/>
+      <c r="AN53" s="44"/>
+      <c r="AO53" s="44" t="s">
+        <v>865</v>
+      </c>
+      <c r="AP53" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN53" s="44" t="s">
+      <c r="AQ53" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO53" s="44" t="s">
+      <c r="AR53" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP53" s="44"/>
-      <c r="AQ53" s="44" t="s">
+      <c r="AS53" s="44"/>
+      <c r="AT53" s="44" t="s">
         <v>809</v>
       </c>
-      <c r="AR53" s="44" t="s">
+      <c r="AU53" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS53" s="44" t="s">
+      <c r="AV53" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT53" s="44" t="s">
+      <c r="AW53" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU53" s="51">
+      <c r="AX53" s="51">
         <v>42299</v>
       </c>
-      <c r="AV53" s="44" t="s">
+      <c r="AY53" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
       <c r="B54" s="47" t="s">
         <v>862</v>
@@ -12222,36 +12571,41 @@
       <c r="AL54" s="44" t="s">
         <v>854</v>
       </c>
-      <c r="AM54" s="44" t="s">
+      <c r="AM54" s="44"/>
+      <c r="AN54" s="44"/>
+      <c r="AO54" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="AP54" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN54" s="44" t="s">
+      <c r="AQ54" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO54" s="44" t="s">
+      <c r="AR54" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP54" s="44"/>
-      <c r="AQ54" s="44" t="s">
+      <c r="AS54" s="44"/>
+      <c r="AT54" s="44" t="s">
         <v>866</v>
       </c>
-      <c r="AR54" s="44" t="s">
+      <c r="AU54" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS54" s="44" t="s">
+      <c r="AV54" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT54" s="44" t="s">
+      <c r="AW54" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU54" s="51">
+      <c r="AX54" s="51">
         <v>42299</v>
       </c>
-      <c r="AV54" s="44" t="s">
+      <c r="AY54" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
       <c r="B55" s="47" t="s">
         <v>863</v>
@@ -12340,36 +12694,41 @@
       <c r="AL55" s="44" t="s">
         <v>891</v>
       </c>
-      <c r="AM55" s="44" t="s">
+      <c r="AM55" s="44"/>
+      <c r="AN55" s="44"/>
+      <c r="AO55" s="44" t="s">
+        <v>891</v>
+      </c>
+      <c r="AP55" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN55" s="44" t="s">
+      <c r="AQ55" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO55" s="44" t="s">
+      <c r="AR55" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP55" s="44"/>
-      <c r="AQ55" s="44" t="s">
+      <c r="AS55" s="44"/>
+      <c r="AT55" s="44" t="s">
         <v>867</v>
       </c>
-      <c r="AR55" s="44" t="s">
+      <c r="AU55" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS55" s="44" t="s">
+      <c r="AV55" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT55" s="44" t="s">
+      <c r="AW55" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU55" s="51">
+      <c r="AX55" s="51">
         <v>42299</v>
       </c>
-      <c r="AV55" s="44" t="s">
+      <c r="AY55" s="44" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
       <c r="B56" s="47" t="s">
         <v>864</v>
@@ -12476,42 +12835,48 @@
       <c r="AL56" s="44" t="s">
         <v>857</v>
       </c>
-      <c r="AM56" s="44" t="s">
+      <c r="AM56" s="44"/>
+      <c r="AN56" s="44"/>
+      <c r="AO56" s="44" t="s">
+        <v>857</v>
+      </c>
+      <c r="AP56" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AN56" s="44" t="s">
+      <c r="AQ56" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AO56" s="44" t="s">
+      <c r="AR56" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AP56" s="44"/>
-      <c r="AQ56" s="44" t="s">
+      <c r="AS56" s="44"/>
+      <c r="AT56" s="44" t="s">
         <v>868</v>
       </c>
-      <c r="AR56" s="44" t="s">
+      <c r="AU56" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="AS56" s="44" t="s">
+      <c r="AV56" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AT56" s="44" t="s">
+      <c r="AW56" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU56" s="51">
+      <c r="AX56" s="51">
         <v>42299</v>
       </c>
-      <c r="AV56" s="44" t="s">
+      <c r="AY56" s="44" t="s">
         <v>570</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AL34" r:id="rId1" display="WED@"/>
+    <hyperlink ref="AO34" r:id="rId1" display="WED@"/>
+    <hyperlink ref="AL34" r:id="rId2" display="WED@"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/ontology_cip_2015_10_26_short.xlsx
+++ b/ontology_cip_2015_10_26_short.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1107">
   <si>
     <t>List of columns in template and short description:</t>
   </si>
@@ -3356,6 +3356,15 @@
   </si>
   <si>
     <t>A tool is in preparation as of November, 2015 to map this file format to 5.0.1. Contact: Reinhard Simon (r.simon@cgiar.org)</t>
+  </si>
+  <si>
+    <t>Abbreviation used by SASHA trials</t>
+  </si>
+  <si>
+    <t>Abbreviatinons corresponding to FAO descriptor list</t>
+  </si>
+  <si>
+    <t>Human readable label in English</t>
   </si>
 </sst>
 </file>
@@ -4300,10 +4309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU125"/>
+  <dimension ref="A1:AU130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4746,22 +4755,20 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>142</v>
-      </c>
+      <c r="A45" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="13"/>
       <c r="C45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
         <v>127</v>
@@ -4769,16 +4776,18 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="C47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" t="s">
@@ -4787,7 +4796,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" t="s">
@@ -4796,7 +4805,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" t="s">
@@ -4805,7 +4814,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" t="s">
@@ -4814,41 +4823,39 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>144</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B53" s="13"/>
       <c r="C53" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B55" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="C55" t="s">
         <v>126</v>
@@ -4856,21 +4863,21 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>76</v>
+        <v>1038</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>1106</v>
       </c>
       <c r="C56" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
         <v>126</v>
@@ -4878,10 +4885,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>56</v>
+        <v>1096</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>1104</v>
       </c>
       <c r="C58" t="s">
         <v>126</v>
@@ -4889,10 +4896,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>71</v>
+        <v>1089</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>123</v>
+        <v>1105</v>
       </c>
       <c r="C59" t="s">
         <v>126</v>
@@ -4900,30 +4907,30 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>79</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="B60" s="19"/>
       <c r="C60" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="C61" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>112</v>
+        <v>53</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="C62" t="s">
         <v>126</v>
@@ -4931,10 +4938,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>113</v>
+        <v>51</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="C63" t="s">
         <v>126</v>
@@ -4942,10 +4949,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>114</v>
+        <v>71</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="C64" t="s">
         <v>126</v>
@@ -4953,10 +4960,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>115</v>
+        <v>78</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C65" t="s">
         <v>126</v>
@@ -4964,399 +4971,368 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B66" s="19"/>
       <c r="C66" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>6</v>
+      <c r="A67" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>126</v>
       </c>
     </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+    <row r="79" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="D74" s="33"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="25" t="s">
+      <c r="B79" s="31"/>
+      <c r="D79" s="33"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C80" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D80" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E80" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="26" t="s">
+      <c r="F80" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G75" s="26"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B76"/>
-      <c r="D76" s="24" t="s">
+      <c r="G80" s="26"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81"/>
+      <c r="D81" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E81" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F76">
+      <c r="F81">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="27" t="s">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C77">
+      <c r="C82">
         <v>2</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D82" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="G77">
+      <c r="E82" s="9"/>
+      <c r="G82">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C78">
+      <c r="C83">
         <v>3</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D83" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G78">
+      <c r="G83">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C79">
+      <c r="C84">
         <v>4</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D84" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G79">
+      <c r="G84">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C80">
+      <c r="C85">
         <v>5</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D85" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G80">
+      <c r="G85">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C81">
+      <c r="C86">
         <v>6</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D86" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G81">
+      <c r="G86">
         <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82">
-        <v>7</v>
-      </c>
-      <c r="D82" s="24"/>
-      <c r="G82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83">
-        <v>8</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C84">
-        <v>9</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85">
-        <v>10</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85">
-        <v>4</v>
-      </c>
-      <c r="G85">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86">
-        <v>11</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F86">
-        <v>5</v>
-      </c>
-      <c r="G86">
-        <v>11</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>12</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F87">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D87" s="24"/>
       <c r="G87">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C88">
-        <v>13</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93">
+        <v>13</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C89">
+      <c r="C94">
         <v>14</v>
       </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="34" t="s">
+      <c r="D94" s="24"/>
+      <c r="E94" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F89">
+      <c r="F94">
         <v>7</v>
       </c>
-      <c r="G89">
+      <c r="G94">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90"/>
-      <c r="D90" s="24" t="s">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95"/>
+      <c r="D95" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E90" s="34" t="s">
+      <c r="E95" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F90">
+      <c r="F95">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91"/>
-      <c r="D91" s="24" t="s">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+      <c r="D96" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="34" t="s">
+      <c r="E96" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F91">
+      <c r="F96">
         <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92"/>
-      <c r="D92" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93"/>
-      <c r="D93" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F93">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94">
-        <v>15</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F94">
-        <v>12</v>
-      </c>
-      <c r="G94">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95">
-        <v>16</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F95">
-        <v>13</v>
-      </c>
-      <c r="G95">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96">
-        <v>17</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F96">
-        <v>14</v>
-      </c>
-      <c r="G96">
-        <v>17</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -5364,274 +5340,286 @@
       <c r="D97" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E97" s="17" t="s">
-        <v>63</v>
+      <c r="E97" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="F97">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98"/>
-      <c r="D98" s="28" t="s">
+      <c r="D98" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>49</v>
+      <c r="E98" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="F98">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C99">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99">
+        <v>12</v>
       </c>
       <c r="G99">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="17" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C100">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F100">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G100">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101">
+        <v>14</v>
       </c>
       <c r="G101">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102">
-        <v>21</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>55</v>
+      <c r="B102"/>
+      <c r="D102" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="F102">
-        <v>18</v>
-      </c>
-      <c r="G102">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103"/>
       <c r="D103" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>57</v>
+      <c r="E103" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="F103">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104">
+        <v>18</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104">
-        <v>22</v>
-      </c>
-      <c r="D104" s="28" t="s">
+      <c r="D105" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F104">
+      <c r="E105" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105">
+        <v>17</v>
+      </c>
+      <c r="G105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106">
         <v>20</v>
-      </c>
-      <c r="G104">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105">
-        <v>23</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G105">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C106">
-        <v>24</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>93</v>
       </c>
       <c r="G106">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107"/>
+      <c r="B107" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107">
+        <v>21</v>
+      </c>
       <c r="D107" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D108" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E107" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F107">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108">
-        <v>25</v>
-      </c>
-      <c r="D108" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>60</v>
+      <c r="E108" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109">
         <v>22</v>
-      </c>
-      <c r="G108">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109">
-        <v>26</v>
       </c>
       <c r="D109" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>61</v>
+      <c r="E109" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="F109">
+        <v>20</v>
+      </c>
+      <c r="G109">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110">
         <v>23</v>
       </c>
-      <c r="G109">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110"/>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G110">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111">
+        <v>24</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G111">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112"/>
+      <c r="D112" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E110" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F110">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C111">
-        <v>27</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G111">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112">
-        <v>28</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G112">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E112" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="C113">
+        <v>25</v>
       </c>
       <c r="D113" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F113" t="s">
-        <v>152</v>
-      </c>
-      <c r="G113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114"/>
+        <v>60</v>
+      </c>
+      <c r="F113">
+        <v>22</v>
+      </c>
+      <c r="G113">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114">
+        <v>26</v>
+      </c>
       <c r="D114" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F114" t="s">
-        <v>147</v>
+        <v>94</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114">
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
@@ -5639,53 +5627,71 @@
       <c r="D115" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E115" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F115" t="s">
-        <v>148</v>
+      <c r="E115" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F115">
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116"/>
-      <c r="D116" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F116" t="s">
-        <v>149</v>
+      <c r="B116" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116">
+        <v>27</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F117" t="s">
-        <v>145</v>
+      <c r="B117" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>28</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G117">
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="16" t="s">
-        <v>51</v>
+      <c r="B118" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" t="s">
+        <v>102</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="F118" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="G118" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119"/>
-      <c r="D119" s="28"/>
+      <c r="D119" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="E119" s="16" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="F119" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
@@ -5694,49 +5700,103 @@
         <v>91</v>
       </c>
       <c r="E120" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121"/>
+      <c r="D121" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125"/>
+      <c r="D125" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E125" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F125" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E121" s="16" t="s">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E126" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F126" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E122" s="16" t="s">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E127" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F127" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E123" s="16" t="s">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E128" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F128" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E124" s="16" t="s">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F129" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E125" s="16" t="s">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F130" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5753,7 +5813,7 @@
   <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="topRight" activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>

--- a/ontology_cip_2015_10_26_short.xlsx
+++ b/ontology_cip_2015_10_26_short.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1111">
   <si>
     <t>List of columns in template and short description:</t>
   </si>
@@ -2704,9 +2704,6 @@
     <t>RYTHA = (CRW + NCRW)/PS2</t>
   </si>
   <si>
-    <t>HI = 100 * CRW + NCRW/(VW + CRW + NCRW)</t>
-  </si>
-  <si>
     <t>IdxSrv_Cp_pct</t>
   </si>
   <si>
@@ -3365,6 +3362,21 @@
   </si>
   <si>
     <t>Human readable label in English</t>
+  </si>
+  <si>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>FRU</t>
+  </si>
+  <si>
+    <t>GLU</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>HI = 100 * (CRW + NCRW)/(VW + CRW + NCRW)</t>
   </si>
 </sst>
 </file>
@@ -4311,7 +4323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -4416,7 +4428,7 @@
     </row>
     <row r="9" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
@@ -4429,7 +4441,7 @@
     </row>
     <row r="10" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="65"/>
@@ -4863,10 +4875,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C56" t="s">
         <v>126</v>
@@ -4885,10 +4897,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C58" t="s">
         <v>126</v>
@@ -4896,10 +4908,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C59" t="s">
         <v>126</v>
@@ -4907,7 +4919,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" t="s">
@@ -5812,12 +5824,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N38" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="topRight" activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomRight" activeCell="AL2" sqref="AL2"/>
+      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5982,19 +5994,19 @@
         <v>121</v>
       </c>
       <c r="AJ1" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AK1" s="16" t="s">
         <v>65</v>
       </c>
       <c r="AL1" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AM1" s="16" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AN1" s="16" t="s">
         <v>1089</v>
-      </c>
-      <c r="AN1" s="16" t="s">
-        <v>1090</v>
       </c>
       <c r="AO1" s="16" t="s">
         <v>66</v>
@@ -6041,11 +6053,11 @@
         <v>412</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="44" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>231</v>
@@ -6066,7 +6078,7 @@
         <v>428</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="44" t="s">
@@ -6106,10 +6118,10 @@
         <v>576</v>
       </c>
       <c r="AJ2" s="44" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AK2" s="44" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AL2" s="47" t="s">
         <v>232</v>
@@ -6133,7 +6145,7 @@
         <v>786</v>
       </c>
       <c r="AU2" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV2" s="44" t="s">
         <v>438</v>
@@ -6159,11 +6171,11 @@
         <v>412</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F3" s="44"/>
       <c r="G3" s="44" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>233</v>
@@ -6224,10 +6236,10 @@
         <v>577</v>
       </c>
       <c r="AJ3" s="44" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AK3" s="44" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AL3" s="47" t="s">
         <v>234</v>
@@ -6251,7 +6263,7 @@
         <v>787</v>
       </c>
       <c r="AU3" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV3" s="44" t="s">
         <v>438</v>
@@ -6277,11 +6289,11 @@
         <v>140</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>419</v>
@@ -6320,7 +6332,9 @@
       <c r="T4" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U4" s="44"/>
+      <c r="U4" s="44">
+        <v>0</v>
+      </c>
       <c r="V4" s="44"/>
       <c r="W4" s="44"/>
       <c r="X4" s="44"/>
@@ -6356,10 +6370,10 @@
         <v>578</v>
       </c>
       <c r="AJ4" s="44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AK4" s="44" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AL4" s="47" t="s">
         <v>235</v>
@@ -6383,7 +6397,7 @@
         <v>788</v>
       </c>
       <c r="AU4" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV4" s="44" t="s">
         <v>438</v>
@@ -6409,11 +6423,11 @@
         <v>140</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>420</v>
@@ -6452,7 +6466,9 @@
       <c r="T5" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U5" s="44"/>
+      <c r="U5" s="44">
+        <v>0</v>
+      </c>
       <c r="V5" s="44"/>
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
@@ -6488,10 +6504,10 @@
         <v>579</v>
       </c>
       <c r="AJ5" s="44" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AK5" s="44" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AL5" s="47" t="s">
         <v>236</v>
@@ -6515,7 +6531,7 @@
         <v>789</v>
       </c>
       <c r="AU5" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV5" s="44" t="s">
         <v>438</v>
@@ -6541,11 +6557,11 @@
         <v>140</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>421</v>
@@ -6584,7 +6600,9 @@
       <c r="T6" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U6" s="44"/>
+      <c r="U6" s="44">
+        <v>0</v>
+      </c>
       <c r="V6" s="44"/>
       <c r="W6" s="44"/>
       <c r="X6" s="44"/>
@@ -6620,10 +6638,10 @@
         <v>580</v>
       </c>
       <c r="AJ6" s="44" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AK6" s="44" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AL6" s="47" t="s">
         <v>266</v>
@@ -6647,7 +6665,7 @@
         <v>790</v>
       </c>
       <c r="AU6" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV6" s="44" t="s">
         <v>438</v>
@@ -6673,11 +6691,11 @@
         <v>140</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="44" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>417</v>
@@ -6716,7 +6734,9 @@
       <c r="T7" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U7" s="44"/>
+      <c r="U7" s="44">
+        <v>0</v>
+      </c>
       <c r="V7" s="44"/>
       <c r="W7" s="44"/>
       <c r="X7" s="44"/>
@@ -6752,16 +6772,16 @@
         <v>581</v>
       </c>
       <c r="AJ7" s="44" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AK7" s="44" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AL7" s="47" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AM7" s="44" t="s">
         <v>1097</v>
-      </c>
-      <c r="AM7" s="44" t="s">
-        <v>1098</v>
       </c>
       <c r="AN7" s="44"/>
       <c r="AO7" s="47" t="s">
@@ -6781,7 +6801,7 @@
         <v>791</v>
       </c>
       <c r="AU7" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV7" s="44" t="s">
         <v>438</v>
@@ -6807,11 +6827,11 @@
         <v>140</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>418</v>
@@ -6850,7 +6870,9 @@
       <c r="T8" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U8" s="44"/>
+      <c r="U8" s="44">
+        <v>0</v>
+      </c>
       <c r="V8" s="44"/>
       <c r="W8" s="44"/>
       <c r="X8" s="44"/>
@@ -6886,10 +6908,10 @@
         <v>582</v>
       </c>
       <c r="AJ8" s="44" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AK8" s="44" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AL8" s="47" t="s">
         <v>237</v>
@@ -6913,7 +6935,7 @@
         <v>792</v>
       </c>
       <c r="AU8" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV8" s="44" t="s">
         <v>438</v>
@@ -6939,11 +6961,11 @@
         <v>412</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>238</v>
@@ -7004,10 +7026,10 @@
         <v>583</v>
       </c>
       <c r="AJ9" s="44" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AK9" s="44" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AL9" s="47" t="s">
         <v>239</v>
@@ -7031,7 +7053,7 @@
         <v>793</v>
       </c>
       <c r="AU9" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV9" s="44" t="s">
         <v>438</v>
@@ -7057,11 +7079,11 @@
         <v>412</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>240</v>
@@ -7122,10 +7144,10 @@
         <v>584</v>
       </c>
       <c r="AJ10" s="44" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AK10" s="44" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AL10" s="47" t="s">
         <v>241</v>
@@ -7149,7 +7171,7 @@
         <v>794</v>
       </c>
       <c r="AU10" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV10" s="44" t="s">
         <v>438</v>
@@ -7175,11 +7197,11 @@
         <v>140</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" s="44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>332</v>
@@ -7240,10 +7262,10 @@
         <v>585</v>
       </c>
       <c r="AJ11" s="44" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AK11" s="44" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AL11" s="47" t="s">
         <v>242</v>
@@ -7267,7 +7289,7 @@
         <v>795</v>
       </c>
       <c r="AU11" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV11" s="44" t="s">
         <v>438</v>
@@ -7293,11 +7315,11 @@
         <v>140</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>333</v>
@@ -7358,10 +7380,10 @@
         <v>586</v>
       </c>
       <c r="AJ12" s="44" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AK12" s="44" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AL12" s="47" t="s">
         <v>243</v>
@@ -7385,7 +7407,7 @@
         <v>796</v>
       </c>
       <c r="AU12" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV12" s="44" t="s">
         <v>438</v>
@@ -7411,11 +7433,11 @@
         <v>412</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="44" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>244</v>
@@ -7455,7 +7477,7 @@
         <v>336</v>
       </c>
       <c r="U13" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" s="44">
         <v>0</v>
@@ -7476,10 +7498,10 @@
         <v>587</v>
       </c>
       <c r="AJ13" s="44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AK13" s="44" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AL13" s="47" t="s">
         <v>246</v>
@@ -7503,7 +7525,7 @@
         <v>797</v>
       </c>
       <c r="AU13" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV13" s="44" t="s">
         <v>438</v>
@@ -7529,11 +7551,11 @@
         <v>412</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="44" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>245</v>
@@ -7573,7 +7595,7 @@
         <v>336</v>
       </c>
       <c r="U14" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" s="44">
         <v>0</v>
@@ -7594,10 +7616,10 @@
         <v>588</v>
       </c>
       <c r="AJ14" s="44" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AK14" s="44" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AL14" s="47" t="s">
         <v>247</v>
@@ -7621,7 +7643,7 @@
         <v>798</v>
       </c>
       <c r="AU14" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV14" s="44" t="s">
         <v>438</v>
@@ -7647,11 +7669,11 @@
         <v>412</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>248</v>
@@ -7691,7 +7713,7 @@
         <v>336</v>
       </c>
       <c r="U15" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" s="44">
         <v>0</v>
@@ -7712,10 +7734,10 @@
         <v>589</v>
       </c>
       <c r="AJ15" s="44" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AK15" s="44" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AL15" s="47" t="s">
         <v>249</v>
@@ -7739,7 +7761,7 @@
         <v>799</v>
       </c>
       <c r="AU15" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV15" s="44" t="s">
         <v>438</v>
@@ -7765,11 +7787,11 @@
         <v>225</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>183</v>
@@ -7808,7 +7830,9 @@
       <c r="T16" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="U16" s="44"/>
+      <c r="U16" s="44">
+        <v>0</v>
+      </c>
       <c r="V16" s="44"/>
       <c r="W16" s="44"/>
       <c r="X16" s="44"/>
@@ -7844,16 +7868,16 @@
         <v>590</v>
       </c>
       <c r="AJ16" s="44" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AK16" s="44" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AL16" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AM16" s="44" t="s">
         <v>1091</v>
-      </c>
-      <c r="AM16" s="44" t="s">
-        <v>1092</v>
       </c>
       <c r="AN16" s="44"/>
       <c r="AO16" s="44" t="s">
@@ -7873,7 +7897,7 @@
         <v>810</v>
       </c>
       <c r="AU16" s="44" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV16" s="44" t="s">
         <v>439</v>
@@ -7899,11 +7923,11 @@
         <v>225</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="44" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>184</v>
@@ -7942,7 +7966,9 @@
       <c r="T17" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="U17" s="44"/>
+      <c r="U17" s="44">
+        <v>0</v>
+      </c>
       <c r="V17" s="44"/>
       <c r="W17" s="44"/>
       <c r="X17" s="44"/>
@@ -7978,16 +8004,16 @@
         <v>591</v>
       </c>
       <c r="AJ17" s="44" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AK17" s="44" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AL17" s="44" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AM17" s="44" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AN17" s="44"/>
       <c r="AO17" s="44" t="s">
@@ -8007,7 +8033,7 @@
         <v>811</v>
       </c>
       <c r="AU17" s="44" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV17" s="44" t="s">
         <v>439</v>
@@ -8037,7 +8063,7 @@
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="44" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>185</v>
@@ -8076,7 +8102,9 @@
       <c r="T18" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U18" s="44"/>
+      <c r="U18" s="44">
+        <v>0</v>
+      </c>
       <c r="V18" s="44"/>
       <c r="W18" s="44"/>
       <c r="X18" s="44"/>
@@ -8112,10 +8140,10 @@
         <v>592</v>
       </c>
       <c r="AJ18" s="44" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AK18" s="44" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AL18" s="47" t="s">
         <v>173</v>
@@ -8139,7 +8167,7 @@
         <v>800</v>
       </c>
       <c r="AU18" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV18" s="44" t="s">
         <v>438</v>
@@ -8165,11 +8193,11 @@
         <v>225</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="44" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>185</v>
@@ -8208,7 +8236,9 @@
       <c r="T19" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U19" s="44"/>
+      <c r="U19" s="44">
+        <v>0</v>
+      </c>
       <c r="V19" s="44"/>
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
@@ -8244,10 +8274,10 @@
         <v>593</v>
       </c>
       <c r="AJ19" s="44" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AK19" s="44" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AL19" s="47" t="s">
         <v>251</v>
@@ -8271,7 +8301,7 @@
         <v>801</v>
       </c>
       <c r="AU19" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV19" s="44" t="s">
         <v>438</v>
@@ -8297,11 +8327,11 @@
         <v>225</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="44" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H20" s="44" t="s">
         <v>185</v>
@@ -8340,7 +8370,9 @@
       <c r="T20" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U20" s="44"/>
+      <c r="U20" s="44">
+        <v>0</v>
+      </c>
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
       <c r="X20" s="44"/>
@@ -8376,10 +8408,10 @@
         <v>594</v>
       </c>
       <c r="AJ20" s="44" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AK20" s="44" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AL20" s="47" t="s">
         <v>276</v>
@@ -8403,7 +8435,7 @@
         <v>802</v>
       </c>
       <c r="AU20" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV20" s="44" t="s">
         <v>438</v>
@@ -8429,10 +8461,10 @@
         <v>225</v>
       </c>
       <c r="E21" s="44" t="s">
+        <v>925</v>
+      </c>
+      <c r="G21" s="44" t="s">
         <v>926</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>927</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>426</v>
@@ -8471,7 +8503,9 @@
       <c r="T21" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U21" s="44"/>
+      <c r="U21" s="44">
+        <v>0</v>
+      </c>
       <c r="V21" s="44"/>
       <c r="W21" s="44"/>
       <c r="X21" s="44"/>
@@ -8507,16 +8541,16 @@
         <v>595</v>
       </c>
       <c r="AJ21" s="40" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AK21" s="44" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AL21" s="44" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AM21" s="44" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AN21" s="44"/>
       <c r="AO21" s="44" t="s">
@@ -8536,7 +8570,7 @@
         <v>812</v>
       </c>
       <c r="AU21" s="44" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV21" s="44" t="s">
         <v>439</v>
@@ -8562,11 +8596,11 @@
         <v>225</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H22" s="44" t="s">
         <v>253</v>
@@ -8624,10 +8658,10 @@
         <v>596</v>
       </c>
       <c r="AJ22" s="44" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AK22" s="44" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AL22" s="47" t="s">
         <v>254</v>
@@ -8651,7 +8685,7 @@
         <v>803</v>
       </c>
       <c r="AU22" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV22" s="44" t="s">
         <v>438</v>
@@ -8677,11 +8711,11 @@
         <v>225</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>255</v>
@@ -8739,10 +8773,10 @@
         <v>597</v>
       </c>
       <c r="AJ23" s="44" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AK23" s="44" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AL23" s="47" t="s">
         <v>261</v>
@@ -8766,7 +8800,7 @@
         <v>804</v>
       </c>
       <c r="AU23" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV23" s="44" t="s">
         <v>438</v>
@@ -8792,11 +8826,11 @@
         <v>215</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="44" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>268</v>
@@ -8854,10 +8888,10 @@
         <v>598</v>
       </c>
       <c r="AJ24" s="44" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AK24" s="44" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AL24" s="47" t="s">
         <v>277</v>
@@ -8881,7 +8915,7 @@
         <v>765</v>
       </c>
       <c r="AU24" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV24" s="44" t="s">
         <v>438</v>
@@ -8907,11 +8941,11 @@
         <v>215</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>269</v>
@@ -8969,10 +9003,10 @@
         <v>599</v>
       </c>
       <c r="AJ25" s="44" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AK25" s="44" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AL25" s="47" t="s">
         <v>278</v>
@@ -8996,7 +9030,7 @@
         <v>766</v>
       </c>
       <c r="AU25" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV25" s="44" t="s">
         <v>438</v>
@@ -9022,11 +9056,11 @@
         <v>226</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="44" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>257</v>
@@ -9065,7 +9099,9 @@
       <c r="T26" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U26" s="44"/>
+      <c r="U26" s="44">
+        <v>0</v>
+      </c>
       <c r="V26" s="44"/>
       <c r="W26" s="44"/>
       <c r="X26" s="44"/>
@@ -9101,10 +9137,10 @@
         <v>600</v>
       </c>
       <c r="AJ26" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AK26" s="44" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AL26" s="47" t="s">
         <v>279</v>
@@ -9128,7 +9164,7 @@
         <v>805</v>
       </c>
       <c r="AU26" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV26" s="44" t="s">
         <v>438</v>
@@ -9154,11 +9190,11 @@
         <v>226</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>256</v>
@@ -9197,7 +9233,9 @@
       <c r="T27" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U27" s="44"/>
+      <c r="U27" s="44">
+        <v>0</v>
+      </c>
       <c r="V27" s="44"/>
       <c r="W27" s="44"/>
       <c r="X27" s="44"/>
@@ -9233,10 +9271,10 @@
         <v>601</v>
       </c>
       <c r="AJ27" s="44" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AK27" s="44" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AL27" s="47" t="s">
         <v>280</v>
@@ -9260,7 +9298,7 @@
         <v>806</v>
       </c>
       <c r="AU27" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV27" s="44" t="s">
         <v>438</v>
@@ -9286,11 +9324,11 @@
         <v>226</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="44" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H28" s="44" t="s">
         <v>258</v>
@@ -9329,7 +9367,9 @@
       <c r="T28" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U28" s="44"/>
+      <c r="U28" s="44">
+        <v>0</v>
+      </c>
       <c r="V28" s="44"/>
       <c r="W28" s="44"/>
       <c r="X28" s="44"/>
@@ -9365,10 +9405,10 @@
         <v>602</v>
       </c>
       <c r="AJ28" s="44" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AK28" s="44" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AL28" s="47" t="s">
         <v>281</v>
@@ -9392,7 +9432,7 @@
         <v>807</v>
       </c>
       <c r="AU28" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV28" s="44" t="s">
         <v>438</v>
@@ -9418,11 +9458,11 @@
         <v>226</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>259</v>
@@ -9461,7 +9501,9 @@
       <c r="T29" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U29" s="44"/>
+      <c r="U29" s="44">
+        <v>0</v>
+      </c>
       <c r="V29" s="44"/>
       <c r="W29" s="44"/>
       <c r="X29" s="44"/>
@@ -9497,10 +9539,10 @@
         <v>603</v>
       </c>
       <c r="AJ29" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AK29" s="44" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AL29" s="47" t="s">
         <v>282</v>
@@ -9524,7 +9566,7 @@
         <v>808</v>
       </c>
       <c r="AU29" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV29" s="44" t="s">
         <v>438</v>
@@ -9550,11 +9592,11 @@
         <v>226</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="44" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H30" s="44" t="s">
         <v>260</v>
@@ -9593,7 +9635,9 @@
       <c r="T30" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U30" s="44"/>
+      <c r="U30" s="44">
+        <v>0</v>
+      </c>
       <c r="V30" s="44"/>
       <c r="W30" s="44"/>
       <c r="X30" s="44"/>
@@ -9629,10 +9673,10 @@
         <v>604</v>
       </c>
       <c r="AJ30" s="44" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AK30" s="44" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AL30" s="47" t="s">
         <v>275</v>
@@ -9656,7 +9700,7 @@
         <v>809</v>
       </c>
       <c r="AU30" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV30" s="44" t="s">
         <v>438</v>
@@ -9686,7 +9730,7 @@
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H31" s="44" t="s">
         <v>270</v>
@@ -9744,10 +9788,10 @@
         <v>605</v>
       </c>
       <c r="AJ31" s="44" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AK31" s="44" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AL31" s="47" t="s">
         <v>274</v>
@@ -9771,7 +9815,7 @@
         <v>767</v>
       </c>
       <c r="AU31" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV31" s="44" t="s">
         <v>438</v>
@@ -9801,7 +9845,7 @@
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H32" s="44" t="s">
         <v>424</v>
@@ -9840,7 +9884,9 @@
       <c r="T32" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U32" s="44"/>
+      <c r="U32" s="44">
+        <v>0</v>
+      </c>
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
       <c r="X32" s="44"/>
@@ -9876,10 +9922,10 @@
         <v>606</v>
       </c>
       <c r="AJ32" s="44" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AK32" s="44" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AL32" s="47" t="s">
         <v>267</v>
@@ -9903,7 +9949,7 @@
         <v>768</v>
       </c>
       <c r="AU32" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV32" s="44" t="s">
         <v>438</v>
@@ -9933,7 +9979,7 @@
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H33" s="44" t="s">
         <v>425</v>
@@ -9972,7 +10018,9 @@
       <c r="T33" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U33" s="44"/>
+      <c r="U33" s="44">
+        <v>0</v>
+      </c>
       <c r="V33" s="44"/>
       <c r="W33" s="44"/>
       <c r="X33" s="44"/>
@@ -10008,10 +10056,10 @@
         <v>607</v>
       </c>
       <c r="AJ33" s="44" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AK33" s="44" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AL33" s="47" t="s">
         <v>272</v>
@@ -10035,7 +10083,7 @@
         <v>769</v>
       </c>
       <c r="AU33" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV33" s="44" t="s">
         <v>438</v>
@@ -10064,7 +10112,7 @@
         <v>414</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H34" s="44" t="s">
         <v>427</v>
@@ -10103,7 +10151,9 @@
       <c r="T34" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U34" s="44"/>
+      <c r="U34" s="44">
+        <v>0</v>
+      </c>
       <c r="V34" s="44"/>
       <c r="W34" s="44"/>
       <c r="X34" s="44"/>
@@ -10139,10 +10189,10 @@
         <v>608</v>
       </c>
       <c r="AJ34" s="40" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AK34" s="44" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AL34" s="58" t="s">
         <v>273</v>
@@ -10166,7 +10216,7 @@
         <v>770</v>
       </c>
       <c r="AU34" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV34" s="44" t="s">
         <v>438</v>
@@ -10196,7 +10246,7 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="44" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>257</v>
@@ -10235,7 +10285,9 @@
       <c r="T35" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U35" s="44"/>
+      <c r="U35" s="44">
+        <v>0</v>
+      </c>
       <c r="V35" s="44"/>
       <c r="W35" s="44"/>
       <c r="X35" s="44"/>
@@ -10271,10 +10323,10 @@
         <v>609</v>
       </c>
       <c r="AJ35" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AK35" s="44" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AL35" s="47" t="s">
         <v>283</v>
@@ -10298,7 +10350,7 @@
         <v>771</v>
       </c>
       <c r="AU35" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV35" s="44" t="s">
         <v>438</v>
@@ -10328,7 +10380,7 @@
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="44" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H36" s="44" t="s">
         <v>256</v>
@@ -10367,7 +10419,9 @@
       <c r="T36" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U36" s="44"/>
+      <c r="U36" s="44">
+        <v>0</v>
+      </c>
       <c r="V36" s="44"/>
       <c r="W36" s="44"/>
       <c r="X36" s="44"/>
@@ -10403,10 +10457,10 @@
         <v>610</v>
       </c>
       <c r="AJ36" s="44" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AK36" s="44" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AL36" s="47" t="s">
         <v>284</v>
@@ -10430,7 +10484,7 @@
         <v>772</v>
       </c>
       <c r="AU36" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV36" s="44" t="s">
         <v>438</v>
@@ -10460,7 +10514,7 @@
       </c>
       <c r="F37" s="44"/>
       <c r="G37" s="44" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H37" s="44" t="s">
         <v>258</v>
@@ -10499,7 +10553,9 @@
       <c r="T37" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U37" s="44"/>
+      <c r="U37" s="44">
+        <v>0</v>
+      </c>
       <c r="V37" s="44"/>
       <c r="W37" s="44"/>
       <c r="X37" s="44"/>
@@ -10535,10 +10591,10 @@
         <v>611</v>
       </c>
       <c r="AJ37" s="44" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AK37" s="44" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AL37" s="47" t="s">
         <v>285</v>
@@ -10562,7 +10618,7 @@
         <v>773</v>
       </c>
       <c r="AU37" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV37" s="44" t="s">
         <v>438</v>
@@ -10592,7 +10648,7 @@
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H38" s="44" t="s">
         <v>259</v>
@@ -10631,7 +10687,9 @@
       <c r="T38" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U38" s="44"/>
+      <c r="U38" s="44">
+        <v>0</v>
+      </c>
       <c r="V38" s="44"/>
       <c r="W38" s="44"/>
       <c r="X38" s="44"/>
@@ -10667,10 +10725,10 @@
         <v>612</v>
       </c>
       <c r="AJ38" s="44" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AK38" s="44" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AL38" s="47" t="s">
         <v>286</v>
@@ -10694,7 +10752,7 @@
         <v>774</v>
       </c>
       <c r="AU38" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV38" s="44" t="s">
         <v>438</v>
@@ -10724,7 +10782,7 @@
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="44" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H39" s="44" t="s">
         <v>260</v>
@@ -10763,7 +10821,9 @@
       <c r="T39" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U39" s="44"/>
+      <c r="U39" s="44">
+        <v>0</v>
+      </c>
       <c r="V39" s="44"/>
       <c r="W39" s="44"/>
       <c r="X39" s="44"/>
@@ -10799,10 +10859,10 @@
         <v>613</v>
       </c>
       <c r="AJ39" s="44" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AK39" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AL39" s="47" t="s">
         <v>287</v>
@@ -10826,7 +10886,7 @@
         <v>775</v>
       </c>
       <c r="AU39" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV39" s="44" t="s">
         <v>438</v>
@@ -10856,7 +10916,7 @@
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="44" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H40" s="44" t="s">
         <v>230</v>
@@ -10895,7 +10955,9 @@
       <c r="T40" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="U40" s="44"/>
+      <c r="U40" s="44">
+        <v>0</v>
+      </c>
       <c r="V40" s="44"/>
       <c r="W40" s="44"/>
       <c r="X40" s="44"/>
@@ -10931,10 +10993,10 @@
         <v>614</v>
       </c>
       <c r="AJ40" s="44" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AK40" s="44" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AL40" s="44" t="s">
         <v>288</v>
@@ -10958,7 +11020,7 @@
         <v>847</v>
       </c>
       <c r="AU40" s="44" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV40" s="44" t="s">
         <v>439</v>
@@ -10988,7 +11050,7 @@
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="44" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H41" s="44" t="s">
         <v>165</v>
@@ -11028,7 +11090,7 @@
         <v>213</v>
       </c>
       <c r="U41" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V41" s="44">
         <v>0</v>
@@ -11051,16 +11113,16 @@
         <v>615</v>
       </c>
       <c r="AJ41" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AK41" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AL41" s="44" t="s">
         <v>1100</v>
       </c>
       <c r="AM41" s="44" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AN41" s="44"/>
       <c r="AO41" s="44" t="s">
@@ -11080,7 +11142,7 @@
         <v>848</v>
       </c>
       <c r="AU41" s="44" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV41" s="44" t="s">
         <v>439</v>
@@ -11110,7 +11172,7 @@
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="44" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H42" s="44" t="s">
         <v>296</v>
@@ -11171,10 +11233,10 @@
         <v>616</v>
       </c>
       <c r="AJ42" s="44" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AK42" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AL42" s="44" t="s">
         <v>291</v>
@@ -11198,7 +11260,7 @@
         <v>776</v>
       </c>
       <c r="AU42" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV42" s="44" t="s">
         <v>438</v>
@@ -11228,7 +11290,7 @@
       </c>
       <c r="F43" s="44"/>
       <c r="G43" s="44" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H43" s="44" t="s">
         <v>297</v>
@@ -11289,10 +11351,10 @@
         <v>617</v>
       </c>
       <c r="AJ43" s="44" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AK43" s="44" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AL43" s="44" t="s">
         <v>292</v>
@@ -11316,7 +11378,7 @@
         <v>777</v>
       </c>
       <c r="AU43" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV43" s="44" t="s">
         <v>438</v>
@@ -11346,7 +11408,7 @@
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="44" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H44" s="44" t="s">
         <v>295</v>
@@ -11407,10 +11469,10 @@
         <v>618</v>
       </c>
       <c r="AJ44" s="44" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AK44" s="44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AL44" s="47" t="s">
         <v>293</v>
@@ -11434,7 +11496,7 @@
         <v>778</v>
       </c>
       <c r="AU44" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV44" s="44" t="s">
         <v>438</v>
@@ -11464,7 +11526,7 @@
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="44" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>298</v>
@@ -11525,10 +11587,10 @@
         <v>619</v>
       </c>
       <c r="AJ45" s="44" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AK45" s="44" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AL45" s="47" t="s">
         <v>294</v>
@@ -11552,7 +11614,7 @@
         <v>779</v>
       </c>
       <c r="AU45" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV45" s="44" t="s">
         <v>438</v>
@@ -11582,7 +11644,7 @@
       </c>
       <c r="F46" s="44"/>
       <c r="G46" s="44" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H46" s="44" t="s">
         <v>166</v>
@@ -11643,10 +11705,10 @@
         <v>620</v>
       </c>
       <c r="AJ46" s="44" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AK46" s="44" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AL46" s="47" t="s">
         <v>174</v>
@@ -11670,7 +11732,7 @@
         <v>780</v>
       </c>
       <c r="AU46" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV46" s="44" t="s">
         <v>438</v>
@@ -11700,7 +11762,7 @@
       </c>
       <c r="F47" s="44"/>
       <c r="G47" s="44" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H47" s="44" t="s">
         <v>186</v>
@@ -11761,10 +11823,10 @@
         <v>621</v>
       </c>
       <c r="AJ47" s="44" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AK47" s="44" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AL47" s="44" t="s">
         <v>175</v>
@@ -11788,7 +11850,7 @@
         <v>815</v>
       </c>
       <c r="AU47" s="44" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV47" s="44" t="s">
         <v>439</v>
@@ -11818,7 +11880,7 @@
       </c>
       <c r="F48" s="44"/>
       <c r="G48" s="44" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H48" s="44" t="s">
         <v>187</v>
@@ -11858,7 +11920,7 @@
         <v>213</v>
       </c>
       <c r="U48" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V48" s="44">
         <v>0</v>
@@ -11881,13 +11943,13 @@
         <v>622</v>
       </c>
       <c r="AJ48" s="44" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AK48" s="44" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AL48" s="44" t="s">
-        <v>176</v>
+        <v>1106</v>
       </c>
       <c r="AM48" s="44"/>
       <c r="AN48" s="44"/>
@@ -11908,7 +11970,7 @@
         <v>816</v>
       </c>
       <c r="AU48" s="44" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AV48" s="44" t="s">
         <v>439</v>
@@ -11938,7 +12000,7 @@
       </c>
       <c r="F49" s="44"/>
       <c r="G49" s="44" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>169</v>
@@ -11978,7 +12040,7 @@
         <v>213</v>
       </c>
       <c r="U49" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V49" s="44">
         <v>0</v>
@@ -12001,13 +12063,13 @@
         <v>623</v>
       </c>
       <c r="AJ49" s="44" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AK49" s="44" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AL49" s="47" t="s">
-        <v>177</v>
+        <v>1107</v>
       </c>
       <c r="AM49" s="44"/>
       <c r="AN49" s="44"/>
@@ -12028,7 +12090,7 @@
         <v>781</v>
       </c>
       <c r="AU49" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV49" s="44" t="s">
         <v>438</v>
@@ -12058,7 +12120,7 @@
       </c>
       <c r="F50" s="44"/>
       <c r="G50" s="44" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H50" s="44" t="s">
         <v>170</v>
@@ -12098,7 +12160,7 @@
         <v>213</v>
       </c>
       <c r="U50" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V50" s="44">
         <v>0</v>
@@ -12121,13 +12183,13 @@
         <v>624</v>
       </c>
       <c r="AJ50" s="44" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AK50" s="44" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AL50" s="47" t="s">
-        <v>178</v>
+        <v>1108</v>
       </c>
       <c r="AM50" s="44"/>
       <c r="AN50" s="44"/>
@@ -12148,7 +12210,7 @@
         <v>782</v>
       </c>
       <c r="AU50" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV50" s="44" t="s">
         <v>438</v>
@@ -12178,7 +12240,7 @@
       </c>
       <c r="F51" s="44"/>
       <c r="G51" s="44" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H51" s="44" t="s">
         <v>171</v>
@@ -12218,7 +12280,7 @@
         <v>213</v>
       </c>
       <c r="U51" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V51" s="44">
         <v>0</v>
@@ -12241,10 +12303,10 @@
         <v>625</v>
       </c>
       <c r="AJ51" s="44" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AK51" s="44" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AL51" s="47" t="s">
         <v>179</v>
@@ -12268,7 +12330,7 @@
         <v>783</v>
       </c>
       <c r="AU51" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV51" s="44" t="s">
         <v>438</v>
@@ -12298,7 +12360,7 @@
       </c>
       <c r="F52" s="44"/>
       <c r="G52" s="44" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H52" s="44" t="s">
         <v>172</v>
@@ -12338,7 +12400,7 @@
         <v>213</v>
       </c>
       <c r="U52" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V52" s="44">
         <v>0</v>
@@ -12361,13 +12423,13 @@
         <v>626</v>
       </c>
       <c r="AJ52" s="44" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AK52" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AL52" s="47" t="s">
-        <v>180</v>
+        <v>1109</v>
       </c>
       <c r="AM52" s="44"/>
       <c r="AN52" s="44"/>
@@ -12388,7 +12450,7 @@
         <v>784</v>
       </c>
       <c r="AU52" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV52" s="44" t="s">
         <v>438</v>
@@ -12409,7 +12471,7 @@
         <v>861</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D53" s="44" t="s">
         <v>140</v>
@@ -12419,7 +12481,7 @@
       </c>
       <c r="F53" s="44"/>
       <c r="G53" s="44" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H53" s="44" t="s">
         <v>850</v>
@@ -12500,10 +12562,10 @@
         <v>881</v>
       </c>
       <c r="AJ53" s="44" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AK53" s="44" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AL53" s="44" t="s">
         <v>865</v>
@@ -12527,7 +12589,7 @@
         <v>809</v>
       </c>
       <c r="AU53" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV53" s="44" t="s">
         <v>438</v>
@@ -12558,7 +12620,7 @@
       </c>
       <c r="F54" s="44"/>
       <c r="G54" s="44" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H54" s="44" t="s">
         <v>853</v>
@@ -12582,7 +12644,7 @@
         <v>876</v>
       </c>
       <c r="O54" s="44" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P54" s="44" t="s">
         <v>878</v>
@@ -12600,7 +12662,7 @@
         <v>213</v>
       </c>
       <c r="U54" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V54" s="44">
         <v>0</v>
@@ -12623,10 +12685,10 @@
         <v>882</v>
       </c>
       <c r="AJ54" s="44" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AK54" s="44" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AL54" s="44" t="s">
         <v>854</v>
@@ -12650,7 +12712,7 @@
         <v>866</v>
       </c>
       <c r="AU54" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV54" s="44" t="s">
         <v>438</v>
@@ -12681,7 +12743,7 @@
       </c>
       <c r="F55" s="44"/>
       <c r="G55" s="44" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H55" s="44" t="s">
         <v>855</v>
@@ -12705,7 +12767,7 @@
         <v>877</v>
       </c>
       <c r="O55" s="44" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="P55" s="44" t="s">
         <v>878</v>
@@ -12723,7 +12785,7 @@
         <v>213</v>
       </c>
       <c r="U55" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V55" s="44">
         <v>0</v>
@@ -12746,18 +12808,18 @@
         <v>883</v>
       </c>
       <c r="AJ55" s="44" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AK55" s="44" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AL55" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AM55" s="44"/>
       <c r="AN55" s="44"/>
       <c r="AO55" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AP55" s="44" t="s">
         <v>188</v>
@@ -12773,7 +12835,7 @@
         <v>867</v>
       </c>
       <c r="AU55" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV55" s="44" t="s">
         <v>438</v>
@@ -12804,7 +12866,7 @@
       </c>
       <c r="F56" s="44"/>
       <c r="G56" s="44" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H56" s="44" t="s">
         <v>858</v>
@@ -12828,7 +12890,7 @@
         <v>860</v>
       </c>
       <c r="O56" s="44" t="s">
-        <v>886</v>
+        <v>1110</v>
       </c>
       <c r="P56" s="44" t="s">
         <v>878</v>
@@ -12846,7 +12908,7 @@
         <v>213</v>
       </c>
       <c r="U56" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V56" s="44">
         <v>0</v>
@@ -12887,10 +12949,10 @@
         <v>884</v>
       </c>
       <c r="AJ56" s="44" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AK56" s="44" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AL56" s="44" t="s">
         <v>857</v>
@@ -12914,7 +12976,7 @@
         <v>868</v>
       </c>
       <c r="AU56" s="44" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV56" s="44" t="s">
         <v>438</v>
@@ -13494,7 +13556,7 @@
         <v>560</v>
       </c>
       <c r="F3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G3" t="s">
         <v>556</v>
@@ -13517,7 +13579,7 @@
         <v>559</v>
       </c>
       <c r="F4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G4" t="s">
         <v>556</v>
@@ -13540,7 +13602,7 @@
         <v>561</v>
       </c>
       <c r="F5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G5" t="s">
         <v>556</v>
@@ -13563,7 +13625,7 @@
         <v>562</v>
       </c>
       <c r="F6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G6" t="s">
         <v>556</v>
@@ -13586,7 +13648,7 @@
         <v>558</v>
       </c>
       <c r="F7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G7" t="s">
         <v>556</v>
